--- a/data/outputs/vulnerability.xlsx
+++ b/data/outputs/vulnerability.xlsx
@@ -1,23 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\geo-ccdr24\data\outputs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F74F58B-4084-4837-8362-9C36E56B2BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Exposed and Poor" sheetId="1" r:id="rId1"/>
-    <sheet name="Exposed and Vulnerable" sheetId="2" r:id="rId2"/>
-    <sheet name="At Risk on Dimensions" sheetId="3" r:id="rId3"/>
-    <sheet name="exposure_pct" sheetId="11" r:id="rId4"/>
-    <sheet name="Traditionally Vulnerable" sheetId="12" r:id="rId5"/>
+    <sheet name="Exposed and Poor" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Exposed and Vulnerable" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="At Risk on Dimensions" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="exposure_pct" sheetId="11" state="visible" r:id="rId4"/>
+    <sheet name="Traditionally Vulnerable" sheetId="12" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>Total</t>
   </si>
@@ -307,6 +300,156 @@
   </si>
   <si>
     <t>Number of people at risk by area and vulnerable group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Exposed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exposed Below PL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pct. exposed from total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pct. Below PL from exposed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kakheti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tbilisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shida Kartli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kvemo Kartli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samtskhe-Javakheti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjara A.R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samegrelo-Zemo Svaneti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imereti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mtskheta-Mtianeti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Racha-Lechkhumi and Kvemo Svaneti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buildings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social Protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial inclusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 dimensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 dimension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 dimensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 dimensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 dimensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 dimensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 dimensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RegNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exposure_pct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no_exposure_pct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjara Aut. Rep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samergelo and Zemo (upper) Svaneti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abkhazia Aut. Rep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Racha-Lechkhumi and Kvemo (lower) Svaneti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">youth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elderly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">men</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rural</t>
   </si>
 </sst>
 </file>
@@ -317,7 +460,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -326,11 +469,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <b/>
     </font>
     <font>
       <sz val="10"/>
@@ -339,11 +482,11 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <b/>
     </font>
     <font>
       <sz val="8"/>
@@ -369,50 +512,31 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -420,52 +544,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,293 +886,297 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="2" max="6" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="2">
-        <v>307650.14694213902</v>
-      </c>
-      <c r="C6" s="2">
-        <v>6435.0302204949903</v>
-      </c>
-      <c r="D6" s="2">
-        <v>476.83842790277498</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2.0916714275794801</v>
-      </c>
-      <c r="F6" s="3">
-        <v>7.4100417801316301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1206504.0778808601</v>
-      </c>
-      <c r="C7" s="4">
-        <v>92179.845788311606</v>
-      </c>
-      <c r="D7" s="4">
-        <v>5066.7415191113296</v>
-      </c>
-      <c r="E7" s="5">
-        <v>7.6402432016822601</v>
-      </c>
-      <c r="F7" s="5">
-        <v>5.4965827679371104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="4">
-        <v>251397.48263549799</v>
-      </c>
-      <c r="C8" s="4">
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>307650.146942139</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>6435.03022049499</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>476.838427902775</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>2.09167142757948</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>7.41004178013163</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="10" t="n">
+        <v>1206504.07788086</v>
+      </c>
+      <c r="C7" s="10" t="n">
+        <v>92179.8457883116</v>
+      </c>
+      <c r="D7" s="10" t="n">
+        <v>5066.74151911133</v>
+      </c>
+      <c r="E7" s="11" t="n">
+        <v>7.64024320168226</v>
+      </c>
+      <c r="F7" s="11" t="n">
+        <v>5.49658276793711</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="10" t="n">
+        <v>251397.482635498</v>
+      </c>
+      <c r="C8" s="10" t="n">
         <v>35789.4377766381</v>
       </c>
-      <c r="D8" s="4">
-        <v>4667.0459101606102</v>
-      </c>
-      <c r="E8" s="5">
-        <v>14.236195765145901</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="D8" s="10" t="n">
+        <v>4667.04591016061</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>14.2361957651459</v>
+      </c>
+      <c r="F8" s="11" t="n">
         <v>13.0402884205325</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="4">
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="10" t="n">
         <v>454697.773071289</v>
       </c>
-      <c r="C9" s="4">
-        <v>22139.815512833298</v>
-      </c>
-      <c r="D9" s="4">
-        <v>4076.8878973189699</v>
-      </c>
-      <c r="E9" s="5">
-        <v>4.8691277644243298</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="C9" s="10" t="n">
+        <v>22139.8155128333</v>
+      </c>
+      <c r="D9" s="10" t="n">
+        <v>4076.88789731897</v>
+      </c>
+      <c r="E9" s="11" t="n">
+        <v>4.86912776442433</v>
+      </c>
+      <c r="F9" s="11" t="n">
         <v>18.4142812525055</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="4">
-        <v>150422.45059204099</v>
-      </c>
-      <c r="C10" s="4">
-        <v>19075.150272622999</v>
-      </c>
-      <c r="D10" s="4">
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>150422.450592041</v>
+      </c>
+      <c r="C10" s="10" t="n">
+        <v>19075.150272623</v>
+      </c>
+      <c r="D10" s="10" t="n">
         <v>2120.22698906199</v>
       </c>
-      <c r="E10" s="5">
-        <v>12.681052726867501</v>
-      </c>
-      <c r="F10" s="5">
-        <v>11.115126008233799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="4">
-        <v>370641.70458984398</v>
-      </c>
-      <c r="C11" s="4">
-        <v>23388.237143845701</v>
-      </c>
-      <c r="D11" s="4">
-        <v>3902.2048383077399</v>
-      </c>
-      <c r="E11" s="5">
-        <v>6.3102011603705899</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="E10" s="11" t="n">
+        <v>12.6810527268675</v>
+      </c>
+      <c r="F10" s="11" t="n">
+        <v>11.1151260082338</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>370641.704589844</v>
+      </c>
+      <c r="C11" s="10" t="n">
+        <v>23388.2371438457</v>
+      </c>
+      <c r="D11" s="10" t="n">
+        <v>3902.20483830774</v>
+      </c>
+      <c r="E11" s="11" t="n">
+        <v>6.31020116037059</v>
+      </c>
+      <c r="F11" s="11" t="n">
         <v>16.6844761078308</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="4">
-        <v>104588.22945404099</v>
-      </c>
-      <c r="C12" s="4">
-        <v>11580.121128328299</v>
-      </c>
-      <c r="D12" s="4">
-        <v>2931.9067735717799</v>
-      </c>
-      <c r="E12" s="5">
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>104588.229454041</v>
+      </c>
+      <c r="C12" s="10" t="n">
+        <v>11580.1211283283</v>
+      </c>
+      <c r="D12" s="10" t="n">
+        <v>2931.90677357178</v>
+      </c>
+      <c r="E12" s="11" t="n">
         <v>11.0721074338647</v>
       </c>
-      <c r="F12" s="5">
-        <v>25.318446509160399</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="4">
-        <v>285437.54254150402</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="F12" s="11" t="n">
+        <v>25.3184465091604</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>285437.542541504</v>
+      </c>
+      <c r="C13" s="10" t="n">
         <v>45638.7830630811</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="10" t="n">
         <v>7934.30784711264</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="11" t="n">
         <v>15.989061094318</v>
       </c>
-      <c r="F13" s="5">
-        <v>17.385011857450301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="4">
-        <v>459035.02780151402</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="F13" s="11" t="n">
+        <v>17.3850118574503</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>459035.027801514</v>
+      </c>
+      <c r="C14" s="10" t="n">
         <v>49247.1025573398</v>
       </c>
-      <c r="D14" s="4">
-        <v>4904.9380361664098</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="D14" s="10" t="n">
+        <v>4904.93803616641</v>
+      </c>
+      <c r="E14" s="11" t="n">
         <v>10.7283975240848</v>
       </c>
-      <c r="F14" s="5">
-        <v>9.9598509992652993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="4">
-        <v>95388.772766113296</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="F14" s="11" t="n">
+        <v>9.9598509992653</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>95388.7727661133</v>
+      </c>
+      <c r="C15" s="10" t="n">
         <v>9868.19756988892</v>
       </c>
-      <c r="D15" s="4">
-        <v>1548.5774860131701</v>
-      </c>
-      <c r="E15" s="5">
-        <v>10.345240098732701</v>
-      </c>
-      <c r="F15" s="5">
+      <c r="D15" s="10" t="n">
+        <v>1548.57748601317</v>
+      </c>
+      <c r="E15" s="11" t="n">
+        <v>10.3452400987327</v>
+      </c>
+      <c r="F15" s="11" t="n">
         <v>15.6926072369931</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="6">
-        <v>28112.869461059599</v>
-      </c>
-      <c r="C16" s="6">
-        <v>6213.6255528071497</v>
-      </c>
-      <c r="D16" s="6">
-        <v>878.55958033219497</v>
-      </c>
-      <c r="E16" s="7">
-        <v>22.102423807765099</v>
-      </c>
-      <c r="F16" s="7">
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="12" t="n">
+        <v>28112.8694610596</v>
+      </c>
+      <c r="C16" s="12" t="n">
+        <v>6213.62555280715</v>
+      </c>
+      <c r="D16" s="12" t="n">
+        <v>878.559580332195</v>
+      </c>
+      <c r="E16" s="13" t="n">
+        <v>22.1024238077651</v>
+      </c>
+      <c r="F16" s="13" t="n">
         <v>14.1392424256284</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="9">
+    <row r="17">
+      <c r="A17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="15" t="n">
         <f t="shared" ref="B17:C17" si="0">SUM(B6:B16)</f>
         <v>3713876.0777359027</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="15" t="n">
         <f t="shared" si="0"/>
         <v>321555.34658619197</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="15" t="n">
         <f>SUM(D6:D16)</f>
         <v>38508.235305059607</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="2" t="n">
         <f>C17/B17*100</f>
         <v>8.6582142175896823</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="2" t="n">
         <f>D17/C17*100</f>
         <v>11.975616550582711</v>
       </c>
@@ -1060,475 +1188,483 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="10" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="30" customHeight="1">
       <c r="A5" s="19" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="22">
-        <v>307650.14694213902</v>
-      </c>
-      <c r="C6" s="22">
-        <v>6435.0302204949903</v>
-      </c>
-      <c r="D6" s="22">
+        <v>96</v>
+      </c>
+      <c r="B6" s="22" t="n">
+        <v>307650.146942139</v>
+      </c>
+      <c r="C6" s="22" t="n">
+        <v>6435.03022049499</v>
+      </c>
+      <c r="D6" s="22" t="n">
         <v>1461.54012239761</v>
       </c>
-      <c r="E6" s="22">
-        <v>0</v>
-      </c>
-      <c r="F6" s="22">
+      <c r="E6" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="22" t="n">
         <v>1344.29737707457</v>
       </c>
-      <c r="G6" s="22">
-        <v>5500.3023487084802</v>
-      </c>
-      <c r="H6" s="22">
-        <v>0</v>
-      </c>
-      <c r="I6" s="22">
-        <v>5561.9300635482296</v>
-      </c>
-      <c r="J6" s="22">
-        <v>3815.7307578929499</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G6" s="22" t="n">
+        <v>5500.30234870848</v>
+      </c>
+      <c r="H6" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="22" t="n">
+        <v>5561.93006354823</v>
+      </c>
+      <c r="J6" s="22" t="n">
+        <v>3815.73075789295</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="23">
-        <v>1206504.0778808601</v>
-      </c>
-      <c r="C7" s="23">
-        <v>92179.845788311606</v>
-      </c>
-      <c r="D7" s="23">
-        <v>22275.068264581299</v>
-      </c>
-      <c r="E7" s="23">
-        <v>0</v>
-      </c>
-      <c r="F7" s="23">
-        <v>0</v>
-      </c>
-      <c r="G7" s="23">
+        <v>97</v>
+      </c>
+      <c r="B7" s="23" t="n">
+        <v>1206504.07788086</v>
+      </c>
+      <c r="C7" s="23" t="n">
+        <v>92179.8457883116</v>
+      </c>
+      <c r="D7" s="23" t="n">
+        <v>22275.0682645813</v>
+      </c>
+      <c r="E7" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="23" t="n">
         <v>350.950990105274</v>
       </c>
-      <c r="H7" s="23">
-        <v>416.84596128490801</v>
-      </c>
-      <c r="I7" s="23">
-        <v>78229.587420950702</v>
-      </c>
-      <c r="J7" s="23">
-        <v>61189.714160292402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H7" s="23" t="n">
+        <v>416.845961284908</v>
+      </c>
+      <c r="I7" s="23" t="n">
+        <v>78229.5874209507</v>
+      </c>
+      <c r="J7" s="23" t="n">
+        <v>61189.7141602924</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="23">
-        <v>251397.48263549799</v>
-      </c>
-      <c r="C8" s="23">
+        <v>98</v>
+      </c>
+      <c r="B8" s="23" t="n">
+        <v>251397.482635498</v>
+      </c>
+      <c r="C8" s="23" t="n">
         <v>35789.4377766381</v>
       </c>
-      <c r="D8" s="23">
-        <v>10725.057744068999</v>
-      </c>
-      <c r="E8" s="23">
-        <v>51.125755419748799</v>
-      </c>
-      <c r="F8" s="23">
+      <c r="D8" s="23" t="n">
+        <v>10725.057744069</v>
+      </c>
+      <c r="E8" s="23" t="n">
+        <v>51.1257554197488</v>
+      </c>
+      <c r="F8" s="23" t="n">
         <v>9154.15283786892</v>
       </c>
-      <c r="G8" s="23">
-        <v>19836.780859942701</v>
-      </c>
-      <c r="H8" s="23">
-        <v>480.23127134566698</v>
-      </c>
-      <c r="I8" s="23">
-        <v>29582.253734936599</v>
-      </c>
-      <c r="J8" s="23">
-        <v>19092.082961356198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G8" s="23" t="n">
+        <v>19836.7808599427</v>
+      </c>
+      <c r="H8" s="23" t="n">
+        <v>480.231271345667</v>
+      </c>
+      <c r="I8" s="23" t="n">
+        <v>29582.2537349366</v>
+      </c>
+      <c r="J8" s="23" t="n">
+        <v>19092.0829613562</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="23">
+        <v>99</v>
+      </c>
+      <c r="B9" s="23" t="n">
         <v>454697.773071289</v>
       </c>
-      <c r="C9" s="23">
-        <v>22139.815512833298</v>
-      </c>
-      <c r="D9" s="23">
-        <v>9865.9346996472705</v>
-      </c>
-      <c r="E9" s="23">
+      <c r="C9" s="23" t="n">
+        <v>22139.8155128333</v>
+      </c>
+      <c r="D9" s="23" t="n">
+        <v>9865.93469964727</v>
+      </c>
+      <c r="E9" s="23" t="n">
         <v>187.050039449341</v>
       </c>
-      <c r="F9" s="23">
-        <v>1608.2713849306899</v>
-      </c>
-      <c r="G9" s="23">
+      <c r="F9" s="23" t="n">
+        <v>1608.27138493069</v>
+      </c>
+      <c r="G9" s="23" t="n">
         <v>12547.6989322884</v>
       </c>
-      <c r="H9" s="23">
-        <v>894.50106908907503</v>
-      </c>
-      <c r="I9" s="23">
-        <v>17199.904824411798</v>
-      </c>
-      <c r="J9" s="23">
+      <c r="H9" s="23" t="n">
+        <v>894.501069089075</v>
+      </c>
+      <c r="I9" s="23" t="n">
+        <v>17199.9048244118</v>
+      </c>
+      <c r="J9" s="23" t="n">
         <v>16079.4986662314</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="23">
-        <v>150422.45059204099</v>
-      </c>
-      <c r="C10" s="23">
-        <v>19075.150272622999</v>
-      </c>
-      <c r="D10" s="23">
-        <v>4544.9758381025804</v>
-      </c>
-      <c r="E10" s="23">
-        <v>0</v>
-      </c>
-      <c r="F10" s="23">
-        <v>527.40414119625802</v>
-      </c>
-      <c r="G10" s="23">
+        <v>100</v>
+      </c>
+      <c r="B10" s="23" t="n">
+        <v>150422.450592041</v>
+      </c>
+      <c r="C10" s="23" t="n">
+        <v>19075.150272623</v>
+      </c>
+      <c r="D10" s="23" t="n">
+        <v>4544.97583810258</v>
+      </c>
+      <c r="E10" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="23" t="n">
+        <v>527.404141196258</v>
+      </c>
+      <c r="G10" s="23" t="n">
         <v>10792.3686395321</v>
       </c>
-      <c r="H10" s="23">
-        <v>711.38624925518798</v>
-      </c>
-      <c r="I10" s="23">
-        <v>17322.127998737698</v>
-      </c>
-      <c r="J10" s="23">
-        <v>8934.6005527869602</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="23" t="n">
+        <v>711.386249255188</v>
+      </c>
+      <c r="I10" s="23" t="n">
+        <v>17322.1279987377</v>
+      </c>
+      <c r="J10" s="23" t="n">
+        <v>8934.60055278696</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="23">
-        <v>370641.70458984398</v>
-      </c>
-      <c r="C11" s="23">
-        <v>23388.237143845701</v>
-      </c>
-      <c r="D11" s="23">
-        <v>9368.2681704916304</v>
-      </c>
-      <c r="E11" s="23">
-        <v>0</v>
-      </c>
-      <c r="F11" s="23">
-        <v>3601.1909037700598</v>
-      </c>
-      <c r="G11" s="23">
-        <v>8754.3767265363404</v>
-      </c>
-      <c r="H11" s="23">
-        <v>3259.0239933011899</v>
-      </c>
-      <c r="I11" s="23">
-        <v>19401.389919275101</v>
-      </c>
-      <c r="J11" s="23">
+        <v>101</v>
+      </c>
+      <c r="B11" s="23" t="n">
+        <v>370641.704589844</v>
+      </c>
+      <c r="C11" s="23" t="n">
+        <v>23388.2371438457</v>
+      </c>
+      <c r="D11" s="23" t="n">
+        <v>9368.26817049163</v>
+      </c>
+      <c r="E11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="23" t="n">
+        <v>3601.19090377006</v>
+      </c>
+      <c r="G11" s="23" t="n">
+        <v>8754.37672653634</v>
+      </c>
+      <c r="H11" s="23" t="n">
+        <v>3259.02399330119</v>
+      </c>
+      <c r="I11" s="23" t="n">
+        <v>19401.3899192751</v>
+      </c>
+      <c r="J11" s="23" t="n">
         <v>11568.5944590253</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="23">
-        <v>104588.22945404099</v>
-      </c>
-      <c r="C12" s="23">
-        <v>11580.121128328299</v>
-      </c>
-      <c r="D12" s="23">
-        <v>6547.4470818814298</v>
-      </c>
-      <c r="E12" s="23">
-        <v>0</v>
-      </c>
-      <c r="F12" s="23">
-        <v>4835.8221375871799</v>
-      </c>
-      <c r="G12" s="23">
-        <v>8390.8216699621007</v>
-      </c>
-      <c r="H12" s="23">
-        <v>4119.2431810718099</v>
-      </c>
-      <c r="I12" s="23">
+        <v>102</v>
+      </c>
+      <c r="B12" s="23" t="n">
+        <v>104588.229454041</v>
+      </c>
+      <c r="C12" s="23" t="n">
+        <v>11580.1211283283</v>
+      </c>
+      <c r="D12" s="23" t="n">
+        <v>6547.44708188143</v>
+      </c>
+      <c r="E12" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="23" t="n">
+        <v>4835.82213758718</v>
+      </c>
+      <c r="G12" s="23" t="n">
+        <v>8390.8216699621</v>
+      </c>
+      <c r="H12" s="23" t="n">
+        <v>4119.24318107181</v>
+      </c>
+      <c r="I12" s="23" t="n">
         <v>9425.01030459713</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="23" t="n">
         <v>7690.6486788856</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="23">
-        <v>285437.54254150402</v>
-      </c>
-      <c r="C13" s="23">
+        <v>103</v>
+      </c>
+      <c r="B13" s="23" t="n">
+        <v>285437.542541504</v>
+      </c>
+      <c r="C13" s="23" t="n">
         <v>45638.7830630811</v>
       </c>
-      <c r="D13" s="23">
-        <v>17925.346683651002</v>
-      </c>
-      <c r="E13" s="23">
-        <v>0</v>
-      </c>
-      <c r="F13" s="23">
-        <v>25668.585411709199</v>
-      </c>
-      <c r="G13" s="23">
-        <v>34629.988467814801</v>
-      </c>
-      <c r="H13" s="23">
+      <c r="D13" s="23" t="n">
+        <v>17925.346683651</v>
+      </c>
+      <c r="E13" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="23" t="n">
+        <v>25668.5854117092</v>
+      </c>
+      <c r="G13" s="23" t="n">
+        <v>34629.9884678148</v>
+      </c>
+      <c r="H13" s="23" t="n">
         <v>10064.820536571</v>
       </c>
-      <c r="I13" s="23">
-        <v>37740.394225985598</v>
-      </c>
-      <c r="J13" s="23">
+      <c r="I13" s="23" t="n">
+        <v>37740.3942259856</v>
+      </c>
+      <c r="J13" s="23" t="n">
         <v>30110.3248261353</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="23">
-        <v>459035.02780151402</v>
-      </c>
-      <c r="C14" s="23">
+        <v>104</v>
+      </c>
+      <c r="B14" s="23" t="n">
+        <v>459035.027801514</v>
+      </c>
+      <c r="C14" s="23" t="n">
         <v>49247.1025573398</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="23" t="n">
         <v>10540.6907759857</v>
       </c>
-      <c r="E14" s="23">
-        <v>0</v>
-      </c>
-      <c r="F14" s="23">
-        <v>14325.467548013001</v>
-      </c>
-      <c r="G14" s="23">
-        <v>24106.046684078101</v>
-      </c>
-      <c r="H14" s="23">
-        <v>2647.4538370036998</v>
-      </c>
-      <c r="I14" s="23">
-        <v>38172.937804327499</v>
-      </c>
-      <c r="J14" s="23">
+      <c r="E14" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="23" t="n">
+        <v>14325.467548013</v>
+      </c>
+      <c r="G14" s="23" t="n">
+        <v>24106.0466840781</v>
+      </c>
+      <c r="H14" s="23" t="n">
+        <v>2647.4538370037</v>
+      </c>
+      <c r="I14" s="23" t="n">
+        <v>38172.9378043275</v>
+      </c>
+      <c r="J14" s="23" t="n">
         <v>23015.8560470554</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="23">
-        <v>95388.772766113296</v>
-      </c>
-      <c r="C15" s="23">
+        <v>105</v>
+      </c>
+      <c r="B15" s="23" t="n">
+        <v>95388.7727661133</v>
+      </c>
+      <c r="C15" s="23" t="n">
         <v>9868.19756988892</v>
       </c>
-      <c r="D15" s="23">
-        <v>3945.3981680869801</v>
-      </c>
-      <c r="E15" s="23">
+      <c r="D15" s="23" t="n">
+        <v>3945.39816808698</v>
+      </c>
+      <c r="E15" s="23" t="n">
         <v>10.8534766962193</v>
       </c>
-      <c r="F15" s="23">
-        <v>424.08020507288199</v>
-      </c>
-      <c r="G15" s="23">
+      <c r="F15" s="23" t="n">
+        <v>424.080205072882</v>
+      </c>
+      <c r="G15" s="23" t="n">
         <v>5634.30987394158</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="23" t="n">
         <v>22.371160238426</v>
       </c>
-      <c r="I15" s="23">
-        <v>8679.9019639119506</v>
-      </c>
-      <c r="J15" s="23">
-        <v>6631.6420976616901</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I15" s="23" t="n">
+        <v>8679.90196391195</v>
+      </c>
+      <c r="J15" s="23" t="n">
+        <v>6631.64209766169</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="24">
-        <v>28112.869461059599</v>
-      </c>
-      <c r="C16" s="24">
-        <v>6213.6255528071497</v>
-      </c>
-      <c r="D16" s="24">
-        <v>1757.3598123714901</v>
-      </c>
-      <c r="E16" s="24">
-        <v>0</v>
-      </c>
-      <c r="F16" s="24">
-        <v>572.93905709401304</v>
-      </c>
-      <c r="G16" s="24">
-        <v>3726.1355536063502</v>
-      </c>
-      <c r="H16" s="24">
-        <v>1784.9152258076101</v>
-      </c>
-      <c r="I16" s="24">
-        <v>3384.6891508783101</v>
-      </c>
-      <c r="J16" s="24">
-        <v>3486.0460619085802</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="B16" s="24" t="n">
+        <v>28112.8694610596</v>
+      </c>
+      <c r="C16" s="24" t="n">
+        <v>6213.62555280715</v>
+      </c>
+      <c r="D16" s="24" t="n">
+        <v>1757.35981237149</v>
+      </c>
+      <c r="E16" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="24" t="n">
+        <v>572.939057094013</v>
+      </c>
+      <c r="G16" s="24" t="n">
+        <v>3726.13555360635</v>
+      </c>
+      <c r="H16" s="24" t="n">
+        <v>1784.91522580761</v>
+      </c>
+      <c r="I16" s="24" t="n">
+        <v>3384.68915087831</v>
+      </c>
+      <c r="J16" s="24" t="n">
+        <v>3486.04606190858</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="26" t="n">
         <f t="shared" ref="B17:J17" si="0">SUM(B6:B16)</f>
         <v>3713876.0777359027</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="26" t="n">
         <f t="shared" si="0"/>
         <v>321555.34658619197</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="26" t="n">
         <f t="shared" si="0"/>
         <v>98957.087361265993</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="26" t="n">
         <f t="shared" si="0"/>
         <v>249.0292715653091</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="26" t="n">
         <f t="shared" si="0"/>
         <v>62062.211004316778</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="26" t="n">
         <f t="shared" si="0"/>
         <v>134269.78074651622</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="26" t="n">
         <f t="shared" si="0"/>
         <v>24400.792484968573</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="26" t="n">
         <f t="shared" si="0"/>
         <v>264700.12741156062</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="26" t="n">
         <f t="shared" si="0"/>
         <v>191614.7392692318</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" ht="21.75" customHeight="1">
       <c r="A23" s="19" t="s">
         <v>4</v>
       </c>
@@ -1560,472 +1696,472 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="22" t="n">
         <v>307650.14694213902</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="22" t="n">
         <v>6435.0302204949903</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="27" t="n">
         <f>D6/$C6</f>
         <v>0.22712249551567554</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="27" t="n">
         <f t="shared" ref="E24:J24" si="1">E6/$C6</f>
         <v>0</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F24" s="27" t="n">
         <f t="shared" si="1"/>
         <v>0.20890304023640857</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="27" t="n">
         <f t="shared" si="1"/>
         <v>0.85474382562967832</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="27" t="n">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I24" s="27" t="n">
         <f t="shared" si="1"/>
         <v>0.86432073711697333</v>
       </c>
-      <c r="J24" s="27">
+      <c r="J24" s="27" t="n">
         <f t="shared" si="1"/>
         <v>0.59296236803056368</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="23" t="n">
         <v>1206504.0778808601</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="23" t="n">
         <v>92179.845788311606</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="28" t="n">
         <f t="shared" ref="D25:J25" si="2">D7/$C7</f>
         <v>0.24164792286304493</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="28" t="n">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="28" t="n">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="28" t="n">
         <f t="shared" si="2"/>
         <v>3.8072421048655578E-3</v>
       </c>
-      <c r="H25" s="28">
+      <c r="H25" s="28" t="n">
         <f t="shared" si="2"/>
         <v>4.5220943658571839E-3</v>
       </c>
-      <c r="I25" s="28">
+      <c r="I25" s="28" t="n">
         <f t="shared" si="2"/>
         <v>0.84866259811936251</v>
       </c>
-      <c r="J25" s="28">
+      <c r="J25" s="28" t="n">
         <f t="shared" si="2"/>
         <v>0.66380794670467169</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="23" t="n">
         <v>251397.48263549799</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="23" t="n">
         <v>35789.4377766381</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="28" t="n">
         <f t="shared" ref="D26:J26" si="3">D8/$C8</f>
         <v>0.29967103174417242</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="28" t="n">
         <f t="shared" si="3"/>
         <v>1.4285151876043615E-3</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="28" t="n">
         <f t="shared" si="3"/>
         <v>0.25577805650370905</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="28" t="n">
         <f t="shared" si="3"/>
         <v>0.55426355070856548</v>
       </c>
-      <c r="H26" s="28">
+      <c r="H26" s="28" t="n">
         <f t="shared" si="3"/>
         <v>1.3418240161882134E-2</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I26" s="28" t="n">
         <f t="shared" si="3"/>
         <v>0.82656380129689266</v>
       </c>
-      <c r="J26" s="28">
+      <c r="J26" s="28" t="n">
         <f t="shared" si="3"/>
         <v>0.53345579443046576</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="23" t="n">
         <v>454697.773071289</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="23" t="n">
         <v>22139.815512833298</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D27" s="28" t="n">
         <f t="shared" ref="D27:J27" si="4">D9/$C9</f>
         <v>0.44561955333044678</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="28" t="n">
         <f t="shared" si="4"/>
         <v>8.4485816668579666E-3</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="28" t="n">
         <f t="shared" si="4"/>
         <v>7.2641589267013487E-2</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="28" t="n">
         <f t="shared" si="4"/>
         <v>0.56674812511491579</v>
       </c>
-      <c r="H27" s="28">
+      <c r="H27" s="28" t="n">
         <f t="shared" si="4"/>
         <v>4.0402372303896539E-2</v>
       </c>
-      <c r="I27" s="28">
+      <c r="I27" s="28" t="n">
         <f t="shared" si="4"/>
         <v>0.77687661012540543</v>
       </c>
-      <c r="J27" s="28">
+      <c r="J27" s="28" t="n">
         <f t="shared" si="4"/>
         <v>0.72627067090558872</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="23" t="n">
         <v>150422.45059204099</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="23" t="n">
         <v>19075.150272622999</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="28" t="n">
         <f t="shared" ref="D28:J28" si="5">D10/$C10</f>
         <v>0.23826684315172142</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="28" t="n">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="28" t="n">
         <f t="shared" si="5"/>
         <v>2.7648754198974671E-2</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="28" t="n">
         <f t="shared" si="5"/>
         <v>0.56578157892792613</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H28" s="28" t="n">
         <f t="shared" si="5"/>
         <v>3.7293873919105235E-2</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="28" t="n">
         <f t="shared" si="5"/>
         <v>0.90809916310849359</v>
       </c>
-      <c r="J28" s="28">
+      <c r="J28" s="28" t="n">
         <f t="shared" si="5"/>
         <v>0.46838952380941712</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="23" t="n">
         <v>370641.70458984398</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="23" t="n">
         <v>23388.237143845701</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D29" s="28" t="n">
         <f t="shared" ref="D29:J29" si="6">D11/$C11</f>
         <v>0.40055469392043358</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="28" t="n">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="28" t="n">
         <f t="shared" si="6"/>
         <v>0.15397444799372853</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="28" t="n">
         <f t="shared" si="6"/>
         <v>0.3743068223865661</v>
       </c>
-      <c r="H29" s="28">
+      <c r="H29" s="28" t="n">
         <f t="shared" si="6"/>
         <v>0.13934457621825327</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29" s="28" t="n">
         <f t="shared" si="6"/>
         <v>0.82953622369868585</v>
       </c>
-      <c r="J29" s="28">
+      <c r="J29" s="28" t="n">
         <f t="shared" si="6"/>
         <v>0.49463302376636881</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="23" t="n">
         <v>104588.22945404099</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="23" t="n">
         <v>11580.121128328299</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="28" t="n">
         <f t="shared" ref="D30:J30" si="7">D12/$C12</f>
         <v>0.56540402378559718</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="28" t="n">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="28" t="n">
         <f t="shared" si="7"/>
         <v>0.41759685274425767</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="28" t="n">
         <f t="shared" si="7"/>
         <v>0.72458841984266842</v>
       </c>
-      <c r="H30" s="28">
+      <c r="H30" s="28" t="n">
         <f t="shared" si="7"/>
         <v>0.35571676111357409</v>
       </c>
-      <c r="I30" s="28">
+      <c r="I30" s="28" t="n">
         <f t="shared" si="7"/>
         <v>0.81389565792544694</v>
       </c>
-      <c r="J30" s="28">
+      <c r="J30" s="28" t="n">
         <f t="shared" si="7"/>
         <v>0.66412506343064637</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="23" t="n">
         <v>285437.54254150402</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="23" t="n">
         <v>45638.7830630811</v>
       </c>
-      <c r="D31" s="28">
+      <c r="D31" s="28" t="n">
         <f t="shared" ref="D31:J31" si="8">D13/$C13</f>
         <v>0.3927656585162429</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="28" t="n">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="28" t="n">
         <f t="shared" si="8"/>
         <v>0.56242922551704644</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="28" t="n">
         <f t="shared" si="8"/>
         <v>0.75878422130471479</v>
       </c>
-      <c r="H31" s="28">
+      <c r="H31" s="28" t="n">
         <f t="shared" si="8"/>
         <v>0.22053218471359298</v>
       </c>
-      <c r="I31" s="28">
+      <c r="I31" s="28" t="n">
         <f t="shared" si="8"/>
         <v>0.82693690964155442</v>
       </c>
-      <c r="J31" s="28">
+      <c r="J31" s="28" t="n">
         <f t="shared" si="8"/>
         <v>0.65975301717658319</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="23" t="n">
         <v>459035.02780151402</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="23" t="n">
         <v>49247.1025573398</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D32" s="28" t="n">
         <f t="shared" ref="D32:J32" si="9">D14/$C14</f>
         <v>0.21403677025897869</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="28" t="n">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="28" t="n">
         <f t="shared" si="9"/>
         <v>0.29088955094024976</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="28" t="n">
         <f t="shared" si="9"/>
         <v>0.48949167427689266</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H32" s="28" t="n">
         <f t="shared" si="9"/>
         <v>5.3758570545773612E-2</v>
       </c>
-      <c r="I32" s="28">
+      <c r="I32" s="28" t="n">
         <f t="shared" si="9"/>
         <v>0.77513063352065559</v>
       </c>
-      <c r="J32" s="28">
+      <c r="J32" s="28" t="n">
         <f t="shared" si="9"/>
         <v>0.46735452142097872</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="23" t="n">
         <v>95388.772766113296</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="23" t="n">
         <v>9868.19756988892</v>
       </c>
-      <c r="D33" s="28">
+      <c r="D33" s="28" t="n">
         <f t="shared" ref="D33:J33" si="10">D15/$C15</f>
         <v>0.39980940188365027</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E33" s="28" t="n">
         <f t="shared" si="10"/>
         <v>1.0998438792243872E-3</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="28" t="n">
         <f t="shared" si="10"/>
         <v>4.2974433990548448E-2</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33" s="28" t="n">
         <f t="shared" si="10"/>
         <v>0.570956330579932</v>
       </c>
-      <c r="H33" s="28">
+      <c r="H33" s="28" t="n">
         <f t="shared" si="10"/>
         <v>2.2669955764452552E-3</v>
       </c>
-      <c r="I33" s="28">
+      <c r="I33" s="28" t="n">
         <f t="shared" si="10"/>
         <v>0.8795833182745707</v>
       </c>
-      <c r="J33" s="28">
+      <c r="J33" s="28" t="n">
         <f t="shared" si="10"/>
         <v>0.67202161800012872</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="24">
+      <c r="B34" s="24" t="n">
         <v>28112.869461059599</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="24" t="n">
         <v>6213.6255528071497</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="29" t="n">
         <f t="shared" ref="D34:J34" si="11">D16/$C16</f>
         <v>0.28282357818899501</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="29" t="n">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="29" t="n">
         <f t="shared" si="11"/>
         <v>9.2206885050415452E-2</v>
       </c>
-      <c r="G34" s="29">
+      <c r="G34" s="29" t="n">
         <f t="shared" si="11"/>
         <v>0.59967172497592514</v>
       </c>
-      <c r="H34" s="29">
+      <c r="H34" s="29" t="n">
         <f t="shared" si="11"/>
         <v>0.28725825375834457</v>
       </c>
-      <c r="I34" s="29">
+      <c r="I34" s="29" t="n">
         <f t="shared" si="11"/>
         <v>0.54472048920765725</v>
       </c>
-      <c r="J34" s="29">
+      <c r="J34" s="29" t="n">
         <f t="shared" si="11"/>
         <v>0.56103252960482597</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="26" t="n">
         <f t="shared" ref="B35:C35" si="12">SUM(B24:B34)</f>
         <v>3713876.0777359027</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="26" t="n">
         <f t="shared" si="12"/>
         <v>321555.34658619197</v>
       </c>
-      <c r="D35" s="30">
+      <c r="D35" s="30" t="n">
         <f t="shared" ref="D35:J35" si="13">D17/$C17</f>
         <v>0.30774511576886759</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="30" t="n">
         <f t="shared" si="13"/>
         <v>7.7445228079439676E-4</v>
       </c>
-      <c r="F35" s="30">
+      <c r="F35" s="30" t="n">
         <f t="shared" si="13"/>
         <v>0.19300631030770682</v>
       </c>
-      <c r="G35" s="30">
+      <c r="G35" s="30" t="n">
         <f t="shared" si="13"/>
         <v>0.41756351487231635</v>
       </c>
-      <c r="H35" s="30">
+      <c r="H35" s="30" t="n">
         <f t="shared" si="13"/>
         <v>7.5883647229071996E-2</v>
       </c>
-      <c r="I35" s="30">
+      <c r="I35" s="30" t="n">
         <f t="shared" si="13"/>
         <v>0.82318683306548135</v>
       </c>
-      <c r="J35" s="30">
+      <c r="J35" s="30" t="n">
         <f t="shared" si="13"/>
         <v>0.59589971463239233</v>
       </c>
@@ -2037,35 +2173,43 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="2" max="10" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="D4" s="31" t="s">
         <v>28</v>
       </c>
@@ -2076,458 +2220,458 @@
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
     </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="30" customHeight="1">
       <c r="A5" s="19" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="22">
-        <v>307650.14694213902</v>
-      </c>
-      <c r="C6" s="22">
-        <v>6435.0302204949903</v>
-      </c>
-      <c r="D6" s="22">
-        <v>0</v>
-      </c>
-      <c r="E6" s="22">
-        <v>555.26511794890996</v>
-      </c>
-      <c r="F6" s="22">
-        <v>1925.8307086447901</v>
-      </c>
-      <c r="G6" s="22">
+        <v>96</v>
+      </c>
+      <c r="B6" s="22" t="n">
+        <v>307650.146942139</v>
+      </c>
+      <c r="C6" s="22" t="n">
+        <v>6435.03022049499</v>
+      </c>
+      <c r="D6" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="22" t="n">
+        <v>555.26511794891</v>
+      </c>
+      <c r="F6" s="22" t="n">
+        <v>1925.83070864479</v>
+      </c>
+      <c r="G6" s="22" t="n">
         <v>2593.38226844373</v>
       </c>
-      <c r="H6" s="22">
-        <v>1306.0332982356199</v>
-      </c>
-      <c r="I6" s="22">
-        <v>54.518827221938999</v>
-      </c>
-      <c r="J6" s="22">
+      <c r="H6" s="22" t="n">
+        <v>1306.03329823562</v>
+      </c>
+      <c r="I6" s="22" t="n">
+        <v>54.518827221939</v>
+      </c>
+      <c r="J6" s="22" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="28"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="23">
-        <v>1206504.0778808601</v>
-      </c>
-      <c r="C7" s="23">
-        <v>92179.845788311606</v>
-      </c>
-      <c r="D7" s="23">
-        <v>2087.6600163462599</v>
-      </c>
-      <c r="E7" s="23">
-        <v>28552.473441594801</v>
-      </c>
-      <c r="F7" s="23">
-        <v>50876.563155477801</v>
-      </c>
-      <c r="G7" s="23">
-        <v>10496.029654906801</v>
-      </c>
-      <c r="H7" s="23">
-        <v>167.11951998598499</v>
-      </c>
-      <c r="I7" s="23">
-        <v>0</v>
-      </c>
-      <c r="J7" s="23">
+        <v>97</v>
+      </c>
+      <c r="B7" s="23" t="n">
+        <v>1206504.07788086</v>
+      </c>
+      <c r="C7" s="23" t="n">
+        <v>92179.8457883116</v>
+      </c>
+      <c r="D7" s="23" t="n">
+        <v>2087.66001634626</v>
+      </c>
+      <c r="E7" s="23" t="n">
+        <v>28552.4734415948</v>
+      </c>
+      <c r="F7" s="23" t="n">
+        <v>50876.5631554778</v>
+      </c>
+      <c r="G7" s="23" t="n">
+        <v>10496.0296549068</v>
+      </c>
+      <c r="H7" s="23" t="n">
+        <v>167.119519985985</v>
+      </c>
+      <c r="I7" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="23" t="n">
         <v>0</v>
       </c>
       <c r="L7" s="28"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="23">
-        <v>251397.48263549799</v>
-      </c>
-      <c r="C8" s="23">
+        <v>98</v>
+      </c>
+      <c r="B8" s="23" t="n">
+        <v>251397.482635498</v>
+      </c>
+      <c r="C8" s="23" t="n">
         <v>35789.4377766381</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="23" t="n">
         <v>49.7046730558584</v>
       </c>
-      <c r="E8" s="23">
-        <v>7053.8266569380003</v>
-      </c>
-      <c r="F8" s="23">
-        <v>10963.189668306301</v>
-      </c>
-      <c r="G8" s="23">
+      <c r="E8" s="23" t="n">
+        <v>7053.826656938</v>
+      </c>
+      <c r="F8" s="23" t="n">
+        <v>10963.1896683063</v>
+      </c>
+      <c r="G8" s="23" t="n">
         <v>12152.5613738629</v>
       </c>
-      <c r="H8" s="23">
-        <v>4392.5448502855597</v>
-      </c>
-      <c r="I8" s="23">
-        <v>1152.0476764796299</v>
-      </c>
-      <c r="J8" s="23">
+      <c r="H8" s="23" t="n">
+        <v>4392.54485028556</v>
+      </c>
+      <c r="I8" s="23" t="n">
+        <v>1152.04767647963</v>
+      </c>
+      <c r="J8" s="23" t="n">
         <v>25.5628777098744</v>
       </c>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="23">
+        <v>99</v>
+      </c>
+      <c r="B9" s="23" t="n">
         <v>454697.773071289</v>
       </c>
-      <c r="C9" s="23">
-        <v>22139.815512833298</v>
-      </c>
-      <c r="D9" s="23">
-        <v>154.73617140995901</v>
-      </c>
-      <c r="E9" s="23">
-        <v>3449.1166248384302</v>
-      </c>
-      <c r="F9" s="23">
-        <v>6094.9495059763003</v>
-      </c>
-      <c r="G9" s="23">
-        <v>7320.2682851153004</v>
-      </c>
-      <c r="H9" s="23">
-        <v>4820.6855035552999</v>
-      </c>
-      <c r="I9" s="23">
-        <v>300.05942193798001</v>
-      </c>
-      <c r="J9" s="23">
+      <c r="C9" s="23" t="n">
+        <v>22139.8155128333</v>
+      </c>
+      <c r="D9" s="23" t="n">
+        <v>154.736171409959</v>
+      </c>
+      <c r="E9" s="23" t="n">
+        <v>3449.11662483843</v>
+      </c>
+      <c r="F9" s="23" t="n">
+        <v>6094.9495059763</v>
+      </c>
+      <c r="G9" s="23" t="n">
+        <v>7320.2682851153</v>
+      </c>
+      <c r="H9" s="23" t="n">
+        <v>4820.6855035553</v>
+      </c>
+      <c r="I9" s="23" t="n">
+        <v>300.05942193798</v>
+      </c>
+      <c r="J9" s="23" t="n">
         <v>0</v>
       </c>
       <c r="L9" s="28"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="23">
-        <v>150422.45059204099</v>
-      </c>
-      <c r="C10" s="23">
-        <v>19075.150272622999</v>
-      </c>
-      <c r="D10" s="23">
-        <v>0</v>
-      </c>
-      <c r="E10" s="23">
-        <v>2960.0632080574401</v>
-      </c>
-      <c r="F10" s="23">
-        <v>9497.2490664667002</v>
-      </c>
-      <c r="G10" s="23">
+        <v>100</v>
+      </c>
+      <c r="B10" s="23" t="n">
+        <v>150422.450592041</v>
+      </c>
+      <c r="C10" s="23" t="n">
+        <v>19075.150272623</v>
+      </c>
+      <c r="D10" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="23" t="n">
+        <v>2960.06320805744</v>
+      </c>
+      <c r="F10" s="23" t="n">
+        <v>9497.2490664667</v>
+      </c>
+      <c r="G10" s="23" t="n">
         <v>5687.30221355305</v>
       </c>
-      <c r="H10" s="23">
-        <v>836.28348476818599</v>
-      </c>
-      <c r="I10" s="23">
-        <v>94.252299777609693</v>
-      </c>
-      <c r="J10" s="23">
+      <c r="H10" s="23" t="n">
+        <v>836.283484768186</v>
+      </c>
+      <c r="I10" s="23" t="n">
+        <v>94.2522997776097</v>
+      </c>
+      <c r="J10" s="23" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="28"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="23">
-        <v>370641.70458984398</v>
-      </c>
-      <c r="C11" s="23">
-        <v>23388.237143845701</v>
-      </c>
-      <c r="D11" s="23">
+        <v>101</v>
+      </c>
+      <c r="B11" s="23" t="n">
+        <v>370641.704589844</v>
+      </c>
+      <c r="C11" s="23" t="n">
+        <v>23388.2371438457</v>
+      </c>
+      <c r="D11" s="23" t="n">
         <v>122.960262452232</v>
       </c>
-      <c r="E11" s="23">
-        <v>5745.9727943189901</v>
-      </c>
-      <c r="F11" s="23">
-        <v>8252.4718802912303</v>
-      </c>
-      <c r="G11" s="23">
-        <v>5136.0401388690098</v>
-      </c>
-      <c r="H11" s="23">
+      <c r="E11" s="23" t="n">
+        <v>5745.97279431899</v>
+      </c>
+      <c r="F11" s="23" t="n">
+        <v>8252.47188029123</v>
+      </c>
+      <c r="G11" s="23" t="n">
+        <v>5136.04013886901</v>
+      </c>
+      <c r="H11" s="23" t="n">
         <v>2584.35620351323</v>
       </c>
-      <c r="I11" s="23">
-        <v>1322.2327995677399</v>
-      </c>
-      <c r="J11" s="23">
-        <v>224.20306483324501</v>
+      <c r="I11" s="23" t="n">
+        <v>1322.23279956774</v>
+      </c>
+      <c r="J11" s="23" t="n">
+        <v>224.203064833245</v>
       </c>
       <c r="L11" s="28"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="23">
-        <v>104588.22945404099</v>
-      </c>
-      <c r="C12" s="23">
-        <v>11580.121128328299</v>
-      </c>
-      <c r="D12" s="23">
+        <v>102</v>
+      </c>
+      <c r="B12" s="23" t="n">
+        <v>104588.229454041</v>
+      </c>
+      <c r="C12" s="23" t="n">
+        <v>11580.1211283283</v>
+      </c>
+      <c r="D12" s="23" t="n">
         <v>14.6846291467127</v>
       </c>
-      <c r="E12" s="23">
-        <v>631.85124585800099</v>
-      </c>
-      <c r="F12" s="23">
-        <v>2365.2459949221902</v>
-      </c>
-      <c r="G12" s="23">
-        <v>2105.0352428716501</v>
-      </c>
-      <c r="H12" s="23">
+      <c r="E12" s="23" t="n">
+        <v>631.851245858001</v>
+      </c>
+      <c r="F12" s="23" t="n">
+        <v>2365.24599492219</v>
+      </c>
+      <c r="G12" s="23" t="n">
+        <v>2105.03524287165</v>
+      </c>
+      <c r="H12" s="23" t="n">
         <v>3468.74949902149</v>
       </c>
-      <c r="I12" s="23">
-        <v>2510.7810054675801</v>
-      </c>
-      <c r="J12" s="23">
-        <v>483.77351104067702</v>
+      <c r="I12" s="23" t="n">
+        <v>2510.78100546758</v>
+      </c>
+      <c r="J12" s="23" t="n">
+        <v>483.773511040677</v>
       </c>
       <c r="L12" s="28"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="23">
-        <v>285437.54254150402</v>
-      </c>
-      <c r="C13" s="23">
+        <v>103</v>
+      </c>
+      <c r="B13" s="23" t="n">
+        <v>285437.542541504</v>
+      </c>
+      <c r="C13" s="23" t="n">
         <v>45638.7830630811</v>
       </c>
-      <c r="D13" s="23">
-        <v>0</v>
-      </c>
-      <c r="E13" s="23">
-        <v>3505.7588079140901</v>
-      </c>
-      <c r="F13" s="23">
-        <v>8983.6485692741098</v>
-      </c>
-      <c r="G13" s="23">
-        <v>9277.9406523896396</v>
-      </c>
-      <c r="H13" s="23">
-        <v>13656.513145704699</v>
-      </c>
-      <c r="I13" s="23">
-        <v>9083.0016613743101</v>
-      </c>
-      <c r="J13" s="23">
-        <v>1131.9202264242399</v>
+      <c r="D13" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="23" t="n">
+        <v>3505.75880791409</v>
+      </c>
+      <c r="F13" s="23" t="n">
+        <v>8983.64856927411</v>
+      </c>
+      <c r="G13" s="23" t="n">
+        <v>9277.94065238964</v>
+      </c>
+      <c r="H13" s="23" t="n">
+        <v>13656.5131457047</v>
+      </c>
+      <c r="I13" s="23" t="n">
+        <v>9083.00166137431</v>
+      </c>
+      <c r="J13" s="23" t="n">
+        <v>1131.92022642424</v>
       </c>
       <c r="L13" s="28"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="23">
-        <v>459035.02780151402</v>
-      </c>
-      <c r="C14" s="23">
+        <v>104</v>
+      </c>
+      <c r="B14" s="23" t="n">
+        <v>459035.027801514</v>
+      </c>
+      <c r="C14" s="23" t="n">
         <v>49247.1025573398</v>
       </c>
-      <c r="D14" s="23">
-        <v>1871.1754927408899</v>
-      </c>
-      <c r="E14" s="23">
+      <c r="D14" s="23" t="n">
+        <v>1871.17549274089</v>
+      </c>
+      <c r="E14" s="23" t="n">
         <v>13060.3235094335</v>
       </c>
-      <c r="F14" s="23">
-        <v>13741.799616598701</v>
-      </c>
-      <c r="G14" s="23">
+      <c r="F14" s="23" t="n">
+        <v>13741.7996165987</v>
+      </c>
+      <c r="G14" s="23" t="n">
         <v>11644.8481475968</v>
       </c>
-      <c r="H14" s="23">
-        <v>7314.7934438073798</v>
-      </c>
-      <c r="I14" s="23">
-        <v>1614.1623471625501</v>
-      </c>
-      <c r="J14" s="23">
+      <c r="H14" s="23" t="n">
+        <v>7314.79344380738</v>
+      </c>
+      <c r="I14" s="23" t="n">
+        <v>1614.16234716255</v>
+      </c>
+      <c r="J14" s="23" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="28"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="23">
-        <v>95388.772766113296</v>
-      </c>
-      <c r="C15" s="23">
+        <v>105</v>
+      </c>
+      <c r="B15" s="23" t="n">
+        <v>95388.7727661133</v>
+      </c>
+      <c r="C15" s="23" t="n">
         <v>9868.19756988892</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="23" t="n">
         <v>101.994745986361</v>
       </c>
-      <c r="E15" s="23">
-        <v>1853.3724901927301</v>
-      </c>
-      <c r="F15" s="23">
-        <v>2374.3378625094601</v>
-      </c>
-      <c r="G15" s="23">
-        <v>3657.3094314597301</v>
-      </c>
-      <c r="H15" s="23">
-        <v>1631.3347626843199</v>
-      </c>
-      <c r="I15" s="23">
-        <v>249.84827705631901</v>
-      </c>
-      <c r="J15" s="23">
+      <c r="E15" s="23" t="n">
+        <v>1853.37249019273</v>
+      </c>
+      <c r="F15" s="23" t="n">
+        <v>2374.33786250946</v>
+      </c>
+      <c r="G15" s="23" t="n">
+        <v>3657.30943145973</v>
+      </c>
+      <c r="H15" s="23" t="n">
+        <v>1631.33476268432</v>
+      </c>
+      <c r="I15" s="23" t="n">
+        <v>249.848277056319</v>
+      </c>
+      <c r="J15" s="23" t="n">
         <v>0</v>
       </c>
       <c r="L15" s="28"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="24">
-        <v>28112.869461059599</v>
-      </c>
-      <c r="C16" s="24">
-        <v>6213.6255528071497</v>
-      </c>
-      <c r="D16" s="24">
+        <v>106</v>
+      </c>
+      <c r="B16" s="24" t="n">
+        <v>28112.8694610596</v>
+      </c>
+      <c r="C16" s="24" t="n">
+        <v>6213.62555280715</v>
+      </c>
+      <c r="D16" s="24" t="n">
         <v>189.142525425272</v>
       </c>
-      <c r="E16" s="24">
-        <v>1397.6766158165899</v>
-      </c>
-      <c r="F16" s="24">
-        <v>1981.4269641102501</v>
-      </c>
-      <c r="G16" s="24">
-        <v>1621.3478144165699</v>
-      </c>
-      <c r="H16" s="24">
-        <v>718.56092744579098</v>
-      </c>
-      <c r="I16" s="24">
-        <v>219.55706895968299</v>
-      </c>
-      <c r="J16" s="24">
-        <v>85.913636632991299</v>
+      <c r="E16" s="24" t="n">
+        <v>1397.67661581659</v>
+      </c>
+      <c r="F16" s="24" t="n">
+        <v>1981.42696411025</v>
+      </c>
+      <c r="G16" s="24" t="n">
+        <v>1621.34781441657</v>
+      </c>
+      <c r="H16" s="24" t="n">
+        <v>718.560927445791</v>
+      </c>
+      <c r="I16" s="24" t="n">
+        <v>219.557068959683</v>
+      </c>
+      <c r="J16" s="24" t="n">
+        <v>85.9136366329913</v>
       </c>
       <c r="L16" s="28"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="26" t="n">
         <f t="shared" ref="B17:J17" si="0">SUM(B6:B16)</f>
         <v>3713876.0777359027</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="26" t="n">
         <f t="shared" si="0"/>
         <v>321555.34658619197</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="26" t="n">
         <f t="shared" si="0"/>
         <v>4592.0585165635448</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="26" t="n">
         <f t="shared" si="0"/>
         <v>68765.700512911484</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="26" t="n">
         <f t="shared" si="0"/>
         <v>117056.71299257783</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="26" t="n">
         <f t="shared" si="0"/>
         <v>71692.065223485173</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="26" t="n">
         <f t="shared" si="0"/>
         <v>40896.97463900756</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="26" t="n">
         <f t="shared" si="0"/>
         <v>16600.461385005343</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="26" t="n">
         <f t="shared" si="0"/>
         <v>1951.3733166410275</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="D23" s="31" t="s">
         <v>28</v>
       </c>
@@ -2538,7 +2682,7 @@
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" ht="30" customHeight="1">
       <c r="A24" s="19" t="s">
         <v>4</v>
       </c>
@@ -2570,471 +2714,471 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="22" t="n">
         <v>307650.14694213902</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="22" t="n">
         <v>6435.0302204949903</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="27" t="n">
         <f t="shared" ref="D25:J25" si="1">D6/$C6</f>
         <v>0</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="27" t="n">
         <f t="shared" si="1"/>
         <v>8.6287880386395191E-2</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25" s="27" t="n">
         <f t="shared" si="1"/>
         <v>0.29927298593116053</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="27" t="n">
         <f t="shared" si="1"/>
         <v>0.40301011488400501</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="27" t="n">
         <f t="shared" si="1"/>
         <v>0.20295682436362486</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="27" t="n">
         <f t="shared" si="1"/>
         <v>8.4721944348142234E-3</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="27" t="n">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="23" t="n">
         <v>1206504.0778808601</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="23" t="n">
         <v>92179.845788311606</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="28" t="n">
         <f t="shared" ref="D26:J26" si="2">D7/$C7</f>
         <v>2.264768397574142E-2</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="28" t="n">
         <f t="shared" si="2"/>
         <v>0.30974746374782125</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="28" t="n">
         <f t="shared" si="2"/>
         <v>0.55192718885985537</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="28" t="n">
         <f t="shared" si="2"/>
         <v>0.1138646909760582</v>
       </c>
-      <c r="H26" s="28">
+      <c r="H26" s="28" t="n">
         <f t="shared" si="2"/>
         <v>1.8129724405242574E-3</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I26" s="28" t="n">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J26" s="28">
+      <c r="J26" s="28" t="n">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="23" t="n">
         <v>251397.48263549799</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="23" t="n">
         <v>35789.4377766381</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D27" s="28" t="n">
         <f t="shared" ref="D27:J27" si="3">D8/$C8</f>
         <v>1.3888084346578811E-3</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="28" t="n">
         <f t="shared" si="3"/>
         <v>0.19709241315722634</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="28" t="n">
         <f t="shared" si="3"/>
         <v>0.30632472453821635</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="28" t="n">
         <f t="shared" si="3"/>
         <v>0.339557202594437</v>
       </c>
-      <c r="H27" s="28">
+      <c r="H27" s="28" t="n">
         <f t="shared" si="3"/>
         <v>0.12273299395479288</v>
       </c>
-      <c r="I27" s="28">
+      <c r="I27" s="28" t="n">
         <f t="shared" si="3"/>
         <v>3.2189599726868023E-2</v>
       </c>
-      <c r="J27" s="28">
+      <c r="J27" s="28" t="n">
         <f t="shared" si="3"/>
         <v>7.1425759380218075E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="23" t="n">
         <v>454697.773071289</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="23" t="n">
         <v>22139.815512833298</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="28" t="n">
         <f t="shared" ref="D28:J28" si="4">D9/$C9</f>
         <v>6.9890452032116759E-3</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="28" t="n">
         <f t="shared" si="4"/>
         <v>0.15578795689779604</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="28" t="n">
         <f t="shared" si="4"/>
         <v>0.27529359955340982</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="28" t="n">
         <f t="shared" si="4"/>
         <v>0.33063817902511977</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H28" s="28" t="n">
         <f t="shared" si="4"/>
         <v>0.2177382869681547</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="28" t="n">
         <f t="shared" si="4"/>
         <v>1.3552932352306693E-2</v>
       </c>
-      <c r="J28" s="28">
+      <c r="J28" s="28" t="n">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="23" t="n">
         <v>150422.45059204099</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="23" t="n">
         <v>19075.150272622999</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D29" s="28" t="n">
         <f t="shared" ref="D29:J29" si="5">D10/$C10</f>
         <v>0</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="28" t="n">
         <f t="shared" si="5"/>
         <v>0.15517902431970754</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="28" t="n">
         <f t="shared" si="5"/>
         <v>0.49788593697724753</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="28" t="n">
         <f t="shared" si="5"/>
         <v>0.29815241989026786</v>
       </c>
-      <c r="H29" s="28">
+      <c r="H29" s="28" t="n">
         <f t="shared" si="5"/>
         <v>4.3841514893250152E-2</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29" s="28" t="n">
         <f t="shared" si="5"/>
         <v>4.9411039195262491E-3</v>
       </c>
-      <c r="J29" s="28">
+      <c r="J29" s="28" t="n">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="23" t="n">
         <v>370641.70458984398</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="23" t="n">
         <v>23388.237143845701</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="28" t="n">
         <f t="shared" ref="D30:J30" si="6">D11/$C11</f>
         <v>5.2573548701419478E-3</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="28" t="n">
         <f t="shared" si="6"/>
         <v>0.24567789179574678</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="28" t="n">
         <f t="shared" si="6"/>
         <v>0.35284710983284845</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="28" t="n">
         <f t="shared" si="6"/>
         <v>0.21959928434454451</v>
       </c>
-      <c r="H30" s="28">
+      <c r="H30" s="28" t="n">
         <f t="shared" si="6"/>
         <v>0.11049811867472313</v>
       </c>
-      <c r="I30" s="28">
+      <c r="I30" s="28" t="n">
         <f t="shared" si="6"/>
         <v>5.6534094101900606E-2</v>
       </c>
-      <c r="J30" s="28">
+      <c r="J30" s="28" t="n">
         <f t="shared" si="6"/>
         <v>9.586146380093509E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="23" t="n">
         <v>104588.22945404099</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="23" t="n">
         <v>11580.121128328299</v>
       </c>
-      <c r="D31" s="28">
+      <c r="D31" s="28" t="n">
         <f t="shared" ref="D31:J31" si="7">D12/$C12</f>
         <v>1.2680894253161033E-3</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="28" t="n">
         <f t="shared" si="7"/>
         <v>5.45634401277817E-2</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="28" t="n">
         <f t="shared" si="7"/>
         <v>0.20425054010325677</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="28" t="n">
         <f t="shared" si="7"/>
         <v>0.1817800711705968</v>
       </c>
-      <c r="H31" s="28">
+      <c r="H31" s="28" t="n">
         <f t="shared" si="7"/>
         <v>0.29954345559788087</v>
       </c>
-      <c r="I31" s="28">
+      <c r="I31" s="28" t="n">
         <f t="shared" si="7"/>
         <v>0.21681819884642564</v>
       </c>
-      <c r="J31" s="28">
+      <c r="J31" s="28" t="n">
         <f t="shared" si="7"/>
         <v>4.1776204728742272E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="23" t="n">
         <v>285437.54254150402</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="23" t="n">
         <v>45638.7830630811</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D32" s="28" t="n">
         <f t="shared" ref="D32:J32" si="8">D13/$C13</f>
         <v>0</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="28" t="n">
         <f t="shared" si="8"/>
         <v>7.6815343719145487E-2</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="28" t="n">
         <f t="shared" si="8"/>
         <v>0.19684242143041092</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="28" t="n">
         <f t="shared" si="8"/>
         <v>0.2032907108755691</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H32" s="28" t="n">
         <f t="shared" si="8"/>
         <v>0.29923044019006628</v>
       </c>
-      <c r="I32" s="28">
+      <c r="I32" s="28" t="n">
         <f t="shared" si="8"/>
         <v>0.19901936580605029</v>
       </c>
-      <c r="J32" s="28">
+      <c r="J32" s="28" t="n">
         <f t="shared" si="8"/>
         <v>2.4801717978757677E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="23" t="n">
         <v>459035.02780151402</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="23" t="n">
         <v>49247.1025573398</v>
       </c>
-      <c r="D33" s="28">
+      <c r="D33" s="28" t="n">
         <f t="shared" ref="D33:J33" si="9">D14/$C14</f>
         <v>3.7995646354264744E-2</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E33" s="28" t="n">
         <f t="shared" si="9"/>
         <v>0.26519983575129102</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="28" t="n">
         <f t="shared" si="9"/>
         <v>0.27903772817088546</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33" s="28" t="n">
         <f t="shared" si="9"/>
         <v>0.2364575283193234</v>
       </c>
-      <c r="H33" s="28">
+      <c r="H33" s="28" t="n">
         <f t="shared" si="9"/>
         <v>0.14853246310867849</v>
       </c>
-      <c r="I33" s="28">
+      <c r="I33" s="28" t="n">
         <f t="shared" si="9"/>
         <v>3.277679829555729E-2</v>
       </c>
-      <c r="J33" s="28">
+      <c r="J33" s="28" t="n">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="23" t="n">
         <v>95388.772766113296</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="23" t="n">
         <v>9868.19756988892</v>
       </c>
-      <c r="D34" s="28">
+      <c r="D34" s="28" t="n">
         <f t="shared" ref="D34:J34" si="10">D15/$C15</f>
         <v>1.033570165818124E-2</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34" s="28" t="n">
         <f t="shared" si="10"/>
         <v>0.18781266559234405</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="28" t="n">
         <f t="shared" si="10"/>
         <v>0.24060501886933608</v>
       </c>
-      <c r="G34" s="28">
+      <c r="G34" s="28" t="n">
         <f t="shared" si="10"/>
         <v>0.37061574877861897</v>
       </c>
-      <c r="H34" s="28">
+      <c r="H34" s="28" t="n">
         <f t="shared" si="10"/>
         <v>0.16531233298997305</v>
       </c>
-      <c r="I34" s="28">
+      <c r="I34" s="28" t="n">
         <f t="shared" si="10"/>
         <v>2.5318532111546627E-2</v>
       </c>
-      <c r="J34" s="28">
+      <c r="J34" s="28" t="n">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B35" s="24" t="n">
         <v>28112.869461059599</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="24" t="n">
         <v>6213.6255528071497</v>
       </c>
-      <c r="D35" s="29">
+      <c r="D35" s="29" t="n">
         <f t="shared" ref="D35:J35" si="11">D16/$C16</f>
         <v>3.0439961954228552E-2</v>
       </c>
-      <c r="E35" s="29">
+      <c r="E35" s="29" t="n">
         <f t="shared" si="11"/>
         <v>0.22493737415270493</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="29" t="n">
         <f t="shared" si="11"/>
         <v>0.31888419205033919</v>
       </c>
-      <c r="G35" s="29">
+      <c r="G35" s="29" t="n">
         <f t="shared" si="11"/>
         <v>0.2609342646474872</v>
       </c>
-      <c r="H35" s="29">
+      <c r="H35" s="29" t="n">
         <f t="shared" si="11"/>
         <v>0.11564277913740141</v>
       </c>
-      <c r="I35" s="29">
+      <c r="I35" s="29" t="n">
         <f t="shared" si="11"/>
         <v>3.5334776306321355E-2</v>
       </c>
-      <c r="J35" s="29">
+      <c r="J35" s="29" t="n">
         <f t="shared" si="11"/>
         <v>1.3826651751516926E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="26" t="n">
         <f t="shared" ref="B36" si="12">SUM(B25:B35)</f>
         <v>3713876.0777359027</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="26" t="n">
         <v>321555.34658619197</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="30" t="n">
         <f t="shared" ref="D36:J36" si="13">D17/$C17</f>
         <v>1.428077177168832E-2</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="30" t="n">
         <f t="shared" si="13"/>
         <v>0.21385338867154877</v>
       </c>
-      <c r="F36" s="30">
+      <c r="F36" s="30" t="n">
         <f t="shared" si="13"/>
         <v>0.36403286163740128</v>
       </c>
-      <c r="G36" s="30">
+      <c r="G36" s="30" t="n">
         <f t="shared" si="13"/>
         <v>0.2229540450333278</v>
       </c>
-      <c r="H36" s="30">
+      <c r="H36" s="30" t="n">
         <f t="shared" si="13"/>
         <v>0.12718486902236983</v>
       </c>
-      <c r="I36" s="30">
+      <c r="I36" s="30" t="n">
         <f t="shared" si="13"/>
         <v>5.1625518161165569E-2</v>
       </c>
-      <c r="J36" s="30">
+      <c r="J36" s="30" t="n">
         <f t="shared" si="13"/>
         <v>6.0685457024984273E-3</v>
       </c>
@@ -3046,214 +3190,214 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
-        <v>0</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="32">
-        <v>2.09167142757948E-2</v>
-      </c>
-      <c r="D6" s="32">
+    <row r="5" ht="39" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="32" t="n">
+        <v>0.0209167142757948</v>
+      </c>
+      <c r="D6" s="32" t="n">
         <v>0.979083285724205</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+    <row r="7">
+      <c r="A7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="33">
-        <v>7.6402432016822605E-2</v>
-      </c>
-      <c r="D7" s="33">
-        <v>0.92359756798317705</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="B7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="33" t="n">
+        <v>0.0764024320168226</v>
+      </c>
+      <c r="D7" s="33" t="n">
+        <v>0.923597567983177</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="33">
-        <v>0.14236195765145901</v>
-      </c>
-      <c r="D8" s="33">
-        <v>0.85763804234854102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="B8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="33" t="n">
+        <v>0.142361957651459</v>
+      </c>
+      <c r="D8" s="33" t="n">
+        <v>0.857638042348541</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="33">
-        <v>4.8691277644243303E-2</v>
-      </c>
-      <c r="D9" s="33">
-        <v>0.95130872235575703</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="B9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="33" t="n">
+        <v>0.0486912776442433</v>
+      </c>
+      <c r="D9" s="33" t="n">
+        <v>0.951308722355757</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="33">
-        <v>0.12681052726867501</v>
-      </c>
-      <c r="D10" s="33">
-        <v>0.87318947273132497</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="B10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="33" t="n">
+        <v>0.126810527268675</v>
+      </c>
+      <c r="D10" s="33" t="n">
+        <v>0.873189472731325</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="33">
-        <v>6.3102011603705904E-2</v>
-      </c>
-      <c r="D11" s="33">
-        <v>0.93689798839629401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="B11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="33" t="n">
+        <v>0.0631020116037059</v>
+      </c>
+      <c r="D11" s="33" t="n">
+        <v>0.936897988396294</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="33">
+      <c r="B12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="33" t="n">
         <v>0.110721074338647</v>
       </c>
-      <c r="D12" s="33">
-        <v>0.88927892566135303</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="D12" s="33" t="n">
+        <v>0.889278925661353</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="33">
-        <v>0.15989061094317999</v>
-      </c>
-      <c r="D13" s="33">
-        <v>0.84010938905681998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="B13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="33" t="n">
+        <v>0.15989061094318</v>
+      </c>
+      <c r="D13" s="33" t="n">
+        <v>0.84010938905682</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="33">
+      <c r="B14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="33" t="n">
         <v>0.107283975240848</v>
       </c>
-      <c r="D14" s="33">
-        <v>0.89271602475915102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="D14" s="33" t="n">
+        <v>0.892716024759151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="33">
+      <c r="B15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="33" t="n">
         <v>0.103452400987327</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="33" t="n">
         <v>0.896547599012673</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+    <row r="16">
+      <c r="A16" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="33">
-        <v>5.7647676977310498E-2</v>
-      </c>
-      <c r="D16" s="33">
-        <v>0.94235232302268901</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="B16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="33" t="n">
+        <v>0.0576476769773105</v>
+      </c>
+      <c r="D16" s="33" t="n">
+        <v>0.942352323022689</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="34">
-        <v>0.22102423807765101</v>
-      </c>
-      <c r="D17" s="34">
-        <v>0.77897576192234896</v>
+      <c r="B17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="34" t="n">
+        <v>0.221024238077651</v>
+      </c>
+      <c r="D17" s="34" t="n">
+        <v>0.778975761922349</v>
       </c>
     </row>
   </sheetData>
@@ -3263,868 +3407,872 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="11"/>
-    <col min="3" max="9" width="9.28515625" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="11"/>
+    <col min="3" max="3" width="9.28515625" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="35" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" ht="38.25" customHeight="1">
       <c r="A5" s="35" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="I5" s="35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4973.2151298012204</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>4973.21512980122</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="n">
         <v>106.259232219263</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="8" t="n">
         <v>1183.13396000334</v>
       </c>
-      <c r="G6" s="2">
-        <v>578.89282055321905</v>
-      </c>
-      <c r="H6" s="2">
-        <v>13823.046204656601</v>
-      </c>
-      <c r="I6" s="2">
-        <v>8414.0021917191607</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="37">
-        <v>7147.8627737381003</v>
-      </c>
-      <c r="D7" s="37">
-        <v>0</v>
-      </c>
-      <c r="E7" s="37">
-        <v>370.44676446381902</v>
-      </c>
-      <c r="F7" s="37">
-        <v>1707.5311356122099</v>
-      </c>
-      <c r="G7" s="37">
-        <v>673.81517906897795</v>
-      </c>
-      <c r="H7" s="37">
+      <c r="G6" s="8" t="n">
+        <v>578.892820553219</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v>13823.0462046566</v>
+      </c>
+      <c r="I6" s="8" t="n">
+        <v>8414.00219171916</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="10" t="n">
+        <v>7147.8627737381</v>
+      </c>
+      <c r="D7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10" t="n">
+        <v>370.446764463819</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>1707.53113561221</v>
+      </c>
+      <c r="G7" s="10" t="n">
+        <v>673.815179068978</v>
+      </c>
+      <c r="H7" s="10" t="n">
         <v>16043.5212738665</v>
       </c>
-      <c r="I7" s="37">
-        <v>12074.950859308799</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="37">
+      <c r="I7" s="10" t="n">
+        <v>12074.9508593088</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="10" t="n">
         <v>13803.9576839744</v>
       </c>
-      <c r="D8" s="37">
-        <v>0</v>
-      </c>
-      <c r="E8" s="37">
-        <v>568.37212239631901</v>
-      </c>
-      <c r="F8" s="37">
-        <v>4296.5890969459597</v>
-      </c>
-      <c r="G8" s="37">
-        <v>1797.5706095512501</v>
-      </c>
-      <c r="H8" s="37">
-        <v>46870.276105632402</v>
-      </c>
-      <c r="I8" s="37">
+      <c r="D8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10" t="n">
+        <v>568.372122396319</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>4296.58909694596</v>
+      </c>
+      <c r="G8" s="10" t="n">
+        <v>1797.57060955125</v>
+      </c>
+      <c r="H8" s="10" t="n">
+        <v>46870.2761056324</v>
+      </c>
+      <c r="I8" s="10" t="n">
         <v>31181.6698884217</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="37">
-        <v>8786.1406802021193</v>
-      </c>
-      <c r="D9" s="37">
-        <v>0</v>
-      </c>
-      <c r="E9" s="37">
-        <v>570.92282006597804</v>
-      </c>
-      <c r="F9" s="37">
-        <v>4411.3692366453997</v>
-      </c>
-      <c r="G9" s="37">
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="10" t="n">
+        <v>8786.14068020212</v>
+      </c>
+      <c r="D9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10" t="n">
+        <v>570.922820065978</v>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>4411.3692366454</v>
+      </c>
+      <c r="G9" s="10" t="n">
         <v>1418.47357434982</v>
       </c>
-      <c r="H9" s="37">
-        <v>38762.552617624198</v>
-      </c>
-      <c r="I9" s="37">
+      <c r="H9" s="10" t="n">
+        <v>38762.5526176242</v>
+      </c>
+      <c r="I9" s="10" t="n">
         <v>27757.9558097806</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="37">
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="10" t="n">
         <v>14071.6003952679</v>
       </c>
-      <c r="D10" s="37">
-        <v>0</v>
-      </c>
-      <c r="E10" s="37">
-        <v>710.63228018786594</v>
-      </c>
-      <c r="F10" s="37">
-        <v>4314.8258222655204</v>
-      </c>
-      <c r="G10" s="37">
-        <v>1803.9962374649001</v>
-      </c>
-      <c r="H10" s="37">
-        <v>48231.634236683101</v>
-      </c>
-      <c r="I10" s="37">
-        <v>29708.786924263699</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="37">
+      <c r="D10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10" t="n">
+        <v>710.632280187866</v>
+      </c>
+      <c r="F10" s="10" t="n">
+        <v>4314.82582226552</v>
+      </c>
+      <c r="G10" s="10" t="n">
+        <v>1803.9962374649</v>
+      </c>
+      <c r="H10" s="10" t="n">
+        <v>48231.6342366831</v>
+      </c>
+      <c r="I10" s="10" t="n">
+        <v>29708.7869242637</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="10" t="n">
         <v>4875.64646059809</v>
       </c>
-      <c r="D11" s="37">
-        <v>0</v>
-      </c>
-      <c r="E11" s="37">
-        <v>4896.4696070293703</v>
-      </c>
-      <c r="F11" s="37">
-        <v>9576.1874438797804</v>
-      </c>
-      <c r="G11" s="37">
-        <v>1314.2183858962201</v>
-      </c>
-      <c r="H11" s="37">
-        <v>7267.6941531141501</v>
-      </c>
-      <c r="I11" s="37">
-        <v>6394.2840337675698</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="37">
-        <v>6146.7478040357701</v>
-      </c>
-      <c r="D12" s="37">
-        <v>79.885955091126107</v>
-      </c>
-      <c r="E12" s="37">
-        <v>6178.4539470745203</v>
-      </c>
-      <c r="F12" s="37">
-        <v>12265.520919156001</v>
-      </c>
-      <c r="G12" s="37">
-        <v>1332.9164127040101</v>
-      </c>
-      <c r="H12" s="37">
-        <v>8504.4009334760394</v>
-      </c>
-      <c r="I12" s="37">
-        <v>7240.3889482200302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="37">
-        <v>13186.473625906599</v>
-      </c>
-      <c r="D13" s="37">
-        <v>53.257303394084097</v>
-      </c>
-      <c r="E13" s="37">
-        <v>14062.393324549301</v>
-      </c>
-      <c r="F13" s="37">
-        <v>28752.101768361801</v>
-      </c>
-      <c r="G13" s="37">
-        <v>4195.1169225408803</v>
-      </c>
-      <c r="H13" s="37">
+      <c r="D11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10" t="n">
+        <v>4896.46960702937</v>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>9576.18744387978</v>
+      </c>
+      <c r="G11" s="10" t="n">
+        <v>1314.21838589622</v>
+      </c>
+      <c r="H11" s="10" t="n">
+        <v>7267.69415311415</v>
+      </c>
+      <c r="I11" s="10" t="n">
+        <v>6394.28403376757</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="10" t="n">
+        <v>6146.74780403577</v>
+      </c>
+      <c r="D12" s="10" t="n">
+        <v>79.8859550911261</v>
+      </c>
+      <c r="E12" s="10" t="n">
+        <v>6178.45394707452</v>
+      </c>
+      <c r="F12" s="10" t="n">
+        <v>12265.520919156</v>
+      </c>
+      <c r="G12" s="10" t="n">
+        <v>1332.91641270401</v>
+      </c>
+      <c r="H12" s="10" t="n">
+        <v>8504.40093347604</v>
+      </c>
+      <c r="I12" s="10" t="n">
+        <v>7240.38894822003</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="10" t="n">
+        <v>13186.4736259066</v>
+      </c>
+      <c r="D13" s="10" t="n">
+        <v>53.2573033940841</v>
+      </c>
+      <c r="E13" s="10" t="n">
+        <v>14062.3933245493</v>
+      </c>
+      <c r="F13" s="10" t="n">
+        <v>28752.1017683618</v>
+      </c>
+      <c r="G13" s="10" t="n">
+        <v>4195.11692254088</v>
+      </c>
+      <c r="H13" s="10" t="n">
         <v>24259.5196123846</v>
       </c>
-      <c r="I13" s="37">
-        <v>19368.964005593501</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="37">
+      <c r="I13" s="10" t="n">
+        <v>19368.9640055935</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="10" t="n">
         <v>10118.4544105721</v>
       </c>
-      <c r="D14" s="37">
-        <v>89.257361383057102</v>
-      </c>
-      <c r="E14" s="37">
+      <c r="D14" s="10" t="n">
+        <v>89.2573613830571</v>
+      </c>
+      <c r="E14" s="10" t="n">
         <v>16705.5469241994</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="10" t="n">
         <v>31258.916015085</v>
       </c>
-      <c r="G14" s="37">
-        <v>5857.1767398890697</v>
-      </c>
-      <c r="H14" s="37">
-        <v>29150.272806171201</v>
-      </c>
-      <c r="I14" s="37">
-        <v>23982.255190187199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="G14" s="10" t="n">
+        <v>5857.17673988907</v>
+      </c>
+      <c r="H14" s="10" t="n">
+        <v>29150.2728061712</v>
+      </c>
+      <c r="I14" s="10" t="n">
+        <v>23982.2551901872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="12" t="n">
         <v>15846.9883971698</v>
       </c>
-      <c r="D15" s="6">
-        <v>26.628651697041999</v>
-      </c>
-      <c r="E15" s="6">
-        <v>17892.713982131001</v>
-      </c>
-      <c r="F15" s="6">
-        <v>36503.605348561097</v>
-      </c>
-      <c r="G15" s="6">
-        <v>5428.6156029502199</v>
-      </c>
-      <c r="H15" s="6">
+      <c r="D15" s="12" t="n">
+        <v>26.628651697042</v>
+      </c>
+      <c r="E15" s="12" t="n">
+        <v>17892.713982131</v>
+      </c>
+      <c r="F15" s="12" t="n">
+        <v>36503.6053485611</v>
+      </c>
+      <c r="G15" s="12" t="n">
+        <v>5428.61560295022</v>
+      </c>
+      <c r="H15" s="12" t="n">
         <v>31787.2094679519</v>
       </c>
-      <c r="I15" s="6">
-        <v>25491.481417969499</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39">
+      <c r="I15" s="12" t="n">
+        <v>25491.4814179695</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37" t="n">
         <f t="shared" ref="C16:I16" si="0">SUM(C6:C15)</f>
         <v>98957.087361266094</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="37" t="n">
         <f t="shared" si="0"/>
         <v>249.0292715653093</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="37" t="n">
         <f t="shared" si="0"/>
         <v>62062.211004316836</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="37" t="n">
         <f t="shared" si="0"/>
         <v>134269.7807465161</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="37" t="n">
         <f t="shared" si="0"/>
         <v>24400.792484968566</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="37" t="n">
         <f t="shared" si="0"/>
         <v>264700.12741156074</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="37" t="n">
         <f t="shared" si="0"/>
         <v>191614.73926923177</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="B19" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40" t="s">
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="44" t="s">
+      <c r="E22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="44" t="s">
+      <c r="G22" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="44" t="s">
+      <c r="H22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="44" t="s">
+      <c r="I22" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
-      <c r="B23" s="8" t="s">
+    <row r="23">
+      <c r="A23" s="3"/>
+      <c r="B23" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="15" t="n">
         <f>SUM(C24:C28)</f>
         <v>48782.776662983742</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="15" t="n">
         <f t="shared" ref="D23:I23" si="1">SUM(D24:D28)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="15" t="n">
         <f t="shared" si="1"/>
         <v>2326.6332193332451</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="15" t="n">
         <f t="shared" si="1"/>
         <v>15913.44925147243</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="15" t="n">
         <f t="shared" si="1"/>
         <v>6272.7484209881677</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="15" t="n">
         <f t="shared" si="1"/>
         <v>163731.0304384628</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="15" t="n">
         <f t="shared" si="1"/>
         <v>109137.36567349396</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
-      <c r="B24" s="41" t="s">
+    <row r="24">
+      <c r="A24" s="3"/>
+      <c r="B24" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="10" t="n">
         <f>C6</f>
         <v>4973.2151298012204</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="10" t="n">
         <f t="shared" ref="D24:I24" si="2">D6</f>
         <v>0</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="10" t="n">
         <f t="shared" si="2"/>
         <v>106.259232219263</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="10" t="n">
         <f t="shared" si="2"/>
         <v>1183.13396000334</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="10" t="n">
         <f t="shared" si="2"/>
         <v>578.89282055321905</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="10" t="n">
         <f t="shared" si="2"/>
         <v>13823.046204656601</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24" s="10" t="n">
         <f t="shared" si="2"/>
         <v>8414.0021917191607</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
-      <c r="B25" s="41" t="s">
+    <row r="25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="10" t="n">
         <f t="shared" ref="C25:I25" si="3">C7</f>
         <v>7147.8627737381003</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="10" t="n">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="10" t="n">
         <f t="shared" si="3"/>
         <v>370.44676446381902</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="10" t="n">
         <f t="shared" si="3"/>
         <v>1707.5311356122099</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="10" t="n">
         <f t="shared" si="3"/>
         <v>673.81517906897795</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="10" t="n">
         <f t="shared" si="3"/>
         <v>16043.5212738665</v>
       </c>
-      <c r="I25" s="37">
+      <c r="I25" s="10" t="n">
         <f t="shared" si="3"/>
         <v>12074.950859308799</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
-      <c r="B26" s="41" t="s">
+    <row r="26">
+      <c r="A26" s="3"/>
+      <c r="B26" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="10" t="n">
         <f t="shared" ref="C26:I26" si="4">C8</f>
         <v>13803.9576839744</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="10" t="n">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="10" t="n">
         <f t="shared" si="4"/>
         <v>568.37212239631901</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="10" t="n">
         <f t="shared" si="4"/>
         <v>4296.5890969459597</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G26" s="10" t="n">
         <f t="shared" si="4"/>
         <v>1797.5706095512501</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H26" s="10" t="n">
         <f t="shared" si="4"/>
         <v>46870.276105632402</v>
       </c>
-      <c r="I26" s="37">
+      <c r="I26" s="10" t="n">
         <f t="shared" si="4"/>
         <v>31181.6698884217</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="B27" s="41" t="s">
+    <row r="27">
+      <c r="A27" s="3"/>
+      <c r="B27" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="10" t="n">
         <f t="shared" ref="C27:I27" si="5">C9</f>
         <v>8786.1406802021193</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D27" s="10" t="n">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="10" t="n">
         <f t="shared" si="5"/>
         <v>570.92282006597804</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="10" t="n">
         <f t="shared" si="5"/>
         <v>4411.3692366453997</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G27" s="10" t="n">
         <f t="shared" si="5"/>
         <v>1418.47357434982</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="10" t="n">
         <f t="shared" si="5"/>
         <v>38762.552617624198</v>
       </c>
-      <c r="I27" s="37">
+      <c r="I27" s="10" t="n">
         <f t="shared" si="5"/>
         <v>27757.9558097806</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
-      <c r="B28" s="41" t="s">
+    <row r="28">
+      <c r="A28" s="3"/>
+      <c r="B28" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="10" t="n">
         <f t="shared" ref="C28:I28" si="6">C10</f>
         <v>14071.6003952679</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="10" t="n">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E28" s="37">
+      <c r="E28" s="10" t="n">
         <f t="shared" si="6"/>
         <v>710.63228018786594</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="10" t="n">
         <f t="shared" si="6"/>
         <v>4314.8258222655204</v>
       </c>
-      <c r="G28" s="37">
+      <c r="G28" s="10" t="n">
         <f t="shared" si="6"/>
         <v>1803.9962374649001</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="10" t="n">
         <f t="shared" si="6"/>
         <v>48231.634236683101</v>
       </c>
-      <c r="I28" s="37">
+      <c r="I28" s="10" t="n">
         <f t="shared" si="6"/>
         <v>29708.786924263699</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
-      <c r="B29" s="42" t="s">
+    <row r="29">
+      <c r="A29" s="3"/>
+      <c r="B29" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="15" t="n">
         <f>SUM(C30:C34)</f>
         <v>50174.310698282359</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="15" t="n">
         <f t="shared" ref="D29:I29" si="7">SUM(D30:D34)</f>
         <v>249.0292715653093</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="15" t="n">
         <f t="shared" si="7"/>
         <v>59735.577784983587</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="15" t="n">
         <f t="shared" si="7"/>
         <v>118356.33149504368</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="15" t="n">
         <f t="shared" si="7"/>
         <v>18128.0440639804</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="15" t="n">
         <f t="shared" si="7"/>
         <v>100969.09697309788</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="15" t="n">
         <f t="shared" si="7"/>
         <v>82477.373595737794</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
-      <c r="B30" s="41" t="s">
+    <row r="30">
+      <c r="A30" s="3"/>
+      <c r="B30" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="10" t="n">
         <f t="shared" ref="C30:I30" si="8">C11</f>
         <v>4875.64646059809</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="10" t="n">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="10" t="n">
         <f t="shared" si="8"/>
         <v>4896.4696070293703</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="10" t="n">
         <f t="shared" si="8"/>
         <v>9576.1874438797804</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="10" t="n">
         <f t="shared" si="8"/>
         <v>1314.2183858962201</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H30" s="10" t="n">
         <f t="shared" si="8"/>
         <v>7267.6941531141501</v>
       </c>
-      <c r="I30" s="37">
+      <c r="I30" s="10" t="n">
         <f t="shared" si="8"/>
         <v>6394.2840337675698</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
-      <c r="B31" s="41" t="s">
+    <row r="31">
+      <c r="A31" s="3"/>
+      <c r="B31" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="10" t="n">
         <f t="shared" ref="C31:I31" si="9">C12</f>
         <v>6146.7478040357701</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="10" t="n">
         <f t="shared" si="9"/>
         <v>79.885955091126107</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="10" t="n">
         <f t="shared" si="9"/>
         <v>6178.4539470745203</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="10" t="n">
         <f t="shared" si="9"/>
         <v>12265.520919156001</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31" s="10" t="n">
         <f t="shared" si="9"/>
         <v>1332.9164127040101</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="10" t="n">
         <f t="shared" si="9"/>
         <v>8504.4009334760394</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="10" t="n">
         <f t="shared" si="9"/>
         <v>7240.3889482200302</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
-      <c r="B32" s="41" t="s">
+    <row r="32">
+      <c r="A32" s="3"/>
+      <c r="B32" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="10" t="n">
         <f t="shared" ref="C32:I32" si="10">C13</f>
         <v>13186.473625906599</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="10" t="n">
         <f t="shared" si="10"/>
         <v>53.257303394084097</v>
       </c>
-      <c r="E32" s="37">
+      <c r="E32" s="10" t="n">
         <f t="shared" si="10"/>
         <v>14062.393324549301</v>
       </c>
-      <c r="F32" s="37">
+      <c r="F32" s="10" t="n">
         <f t="shared" si="10"/>
         <v>28752.101768361801</v>
       </c>
-      <c r="G32" s="37">
+      <c r="G32" s="10" t="n">
         <f t="shared" si="10"/>
         <v>4195.1169225408803</v>
       </c>
-      <c r="H32" s="37">
+      <c r="H32" s="10" t="n">
         <f t="shared" si="10"/>
         <v>24259.5196123846</v>
       </c>
-      <c r="I32" s="37">
+      <c r="I32" s="10" t="n">
         <f t="shared" si="10"/>
         <v>19368.964005593501</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="36"/>
-      <c r="B33" s="41" t="s">
+    <row r="33">
+      <c r="A33" s="3"/>
+      <c r="B33" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C33" s="10" t="n">
         <f t="shared" ref="C33:I33" si="11">C14</f>
         <v>10118.4544105721</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="10" t="n">
         <f t="shared" si="11"/>
         <v>89.257361383057102</v>
       </c>
-      <c r="E33" s="37">
+      <c r="E33" s="10" t="n">
         <f t="shared" si="11"/>
         <v>16705.5469241994</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="10" t="n">
         <f t="shared" si="11"/>
         <v>31258.916015085</v>
       </c>
-      <c r="G33" s="37">
+      <c r="G33" s="10" t="n">
         <f t="shared" si="11"/>
         <v>5857.1767398890697</v>
       </c>
-      <c r="H33" s="37">
+      <c r="H33" s="10" t="n">
         <f t="shared" si="11"/>
         <v>29150.272806171201</v>
       </c>
-      <c r="I33" s="37">
+      <c r="I33" s="10" t="n">
         <f t="shared" si="11"/>
         <v>23982.255190187199</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="36"/>
-      <c r="B34" s="43" t="s">
+    <row r="34">
+      <c r="A34" s="3"/>
+      <c r="B34" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="12" t="n">
         <f t="shared" ref="C34:I34" si="12">C15</f>
         <v>15846.9883971698</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="12" t="n">
         <f t="shared" si="12"/>
         <v>26.628651697041999</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="12" t="n">
         <f t="shared" si="12"/>
         <v>17892.713982131001</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="12" t="n">
         <f t="shared" si="12"/>
         <v>36503.605348561097</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="12" t="n">
         <f t="shared" si="12"/>
         <v>5428.6156029502199</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="12" t="n">
         <f t="shared" si="12"/>
         <v>31787.2094679519</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="12" t="n">
         <f t="shared" si="12"/>
         <v>25491.481417969499</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="36"/>
-      <c r="B35" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="9">
+    <row r="35">
+      <c r="A35" s="3"/>
+      <c r="B35" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="15" t="n">
         <f t="shared" ref="C35:I35" si="13">C16</f>
         <v>98957.087361266094</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="15" t="n">
         <f t="shared" si="13"/>
         <v>249.0292715653093</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="15" t="n">
         <f t="shared" si="13"/>
         <v>62062.211004316836</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="15" t="n">
         <f t="shared" si="13"/>
         <v>134269.7807465161</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="15" t="n">
         <f t="shared" si="13"/>
         <v>24400.792484968566</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="15" t="n">
         <f t="shared" si="13"/>
         <v>264700.12741156074</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="15" t="n">
         <f t="shared" si="13"/>
         <v>191614.73926923177</v>
       </c>

--- a/data/outputs/vulnerability.xlsx
+++ b/data/outputs/vulnerability.xlsx
@@ -472,27 +472,23 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <b/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <b/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -512,6 +508,11 @@
       <diagonal/>
     </border>
     <border>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+    </border>
+    <border>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -524,11 +525,6 @@
         <color indexed="64"/>
       </top>
     </border>
-    <border>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -536,7 +532,13 @@
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -544,51 +546,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -917,266 +913,266 @@
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="14" t="n">
         <v>307650.146942139</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="14" t="n">
         <v>6435.03022049499</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="14" t="n">
         <v>476.838427902775</v>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="E6" s="15" t="n">
         <v>2.09167142757948</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="15" t="n">
         <v>7.41004178013163</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B7" s="2" t="n">
         <v>1206504.07788086</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="2" t="n">
         <v>92179.8457883116</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="2" t="n">
         <v>5066.74151911133</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="3" t="n">
         <v>7.64024320168226</v>
       </c>
-      <c r="F7" s="11" t="n">
+      <c r="F7" s="3" t="n">
         <v>5.49658276793711</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="10" t="n">
+      <c r="B8" s="2" t="n">
         <v>251397.482635498</v>
       </c>
-      <c r="C8" s="10" t="n">
+      <c r="C8" s="2" t="n">
         <v>35789.4377766381</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="2" t="n">
         <v>4667.04591016061</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E8" s="3" t="n">
         <v>14.2361957651459</v>
       </c>
-      <c r="F8" s="11" t="n">
+      <c r="F8" s="3" t="n">
         <v>13.0402884205325</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B9" s="2" t="n">
         <v>454697.773071289</v>
       </c>
-      <c r="C9" s="10" t="n">
+      <c r="C9" s="2" t="n">
         <v>22139.8155128333</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="2" t="n">
         <v>4076.88789731897</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="3" t="n">
         <v>4.86912776442433</v>
       </c>
-      <c r="F9" s="11" t="n">
+      <c r="F9" s="3" t="n">
         <v>18.4142812525055</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="10" t="n">
+      <c r="B10" s="2" t="n">
         <v>150422.450592041</v>
       </c>
-      <c r="C10" s="10" t="n">
+      <c r="C10" s="2" t="n">
         <v>19075.150272623</v>
       </c>
-      <c r="D10" s="10" t="n">
+      <c r="D10" s="2" t="n">
         <v>2120.22698906199</v>
       </c>
-      <c r="E10" s="11" t="n">
+      <c r="E10" s="3" t="n">
         <v>12.6810527268675</v>
       </c>
-      <c r="F10" s="11" t="n">
+      <c r="F10" s="3" t="n">
         <v>11.1151260082338</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="10" t="n">
+      <c r="B11" s="2" t="n">
         <v>370641.704589844</v>
       </c>
-      <c r="C11" s="10" t="n">
+      <c r="C11" s="2" t="n">
         <v>23388.2371438457</v>
       </c>
-      <c r="D11" s="10" t="n">
+      <c r="D11" s="2" t="n">
         <v>3902.20483830774</v>
       </c>
-      <c r="E11" s="11" t="n">
+      <c r="E11" s="3" t="n">
         <v>6.31020116037059</v>
       </c>
-      <c r="F11" s="11" t="n">
+      <c r="F11" s="3" t="n">
         <v>16.6844761078308</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="10" t="n">
+      <c r="B12" s="2" t="n">
         <v>104588.229454041</v>
       </c>
-      <c r="C12" s="10" t="n">
+      <c r="C12" s="2" t="n">
         <v>11580.1211283283</v>
       </c>
-      <c r="D12" s="10" t="n">
+      <c r="D12" s="2" t="n">
         <v>2931.90677357178</v>
       </c>
-      <c r="E12" s="11" t="n">
+      <c r="E12" s="3" t="n">
         <v>11.0721074338647</v>
       </c>
-      <c r="F12" s="11" t="n">
+      <c r="F12" s="3" t="n">
         <v>25.3184465091604</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="10" t="n">
+      <c r="B13" s="2" t="n">
         <v>285437.542541504</v>
       </c>
-      <c r="C13" s="10" t="n">
+      <c r="C13" s="2" t="n">
         <v>45638.7830630811</v>
       </c>
-      <c r="D13" s="10" t="n">
+      <c r="D13" s="2" t="n">
         <v>7934.30784711264</v>
       </c>
-      <c r="E13" s="11" t="n">
+      <c r="E13" s="3" t="n">
         <v>15.989061094318</v>
       </c>
-      <c r="F13" s="11" t="n">
+      <c r="F13" s="3" t="n">
         <v>17.3850118574503</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="10" t="n">
+      <c r="B14" s="2" t="n">
         <v>459035.027801514</v>
       </c>
-      <c r="C14" s="10" t="n">
+      <c r="C14" s="2" t="n">
         <v>49247.1025573398</v>
       </c>
-      <c r="D14" s="10" t="n">
+      <c r="D14" s="2" t="n">
         <v>4904.93803616641</v>
       </c>
-      <c r="E14" s="11" t="n">
+      <c r="E14" s="3" t="n">
         <v>10.7283975240848</v>
       </c>
-      <c r="F14" s="11" t="n">
+      <c r="F14" s="3" t="n">
         <v>9.9598509992653</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="10" t="n">
+      <c r="B15" s="2" t="n">
         <v>95388.7727661133</v>
       </c>
-      <c r="C15" s="10" t="n">
+      <c r="C15" s="2" t="n">
         <v>9868.19756988892</v>
       </c>
-      <c r="D15" s="10" t="n">
+      <c r="D15" s="2" t="n">
         <v>1548.57748601317</v>
       </c>
-      <c r="E15" s="11" t="n">
+      <c r="E15" s="3" t="n">
         <v>10.3452400987327</v>
       </c>
-      <c r="F15" s="11" t="n">
+      <c r="F15" s="3" t="n">
         <v>15.6926072369931</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="12" t="n">
+      <c r="B16" s="4" t="n">
         <v>28112.8694610596</v>
       </c>
-      <c r="C16" s="12" t="n">
+      <c r="C16" s="4" t="n">
         <v>6213.62555280715</v>
       </c>
-      <c r="D16" s="12" t="n">
+      <c r="D16" s="4" t="n">
         <v>878.559580332195</v>
       </c>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="5" t="n">
         <v>22.1024238077651</v>
       </c>
-      <c r="F16" s="13" t="n">
+      <c r="F16" s="5" t="n">
         <v>14.1392424256284</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="15" t="n">
+      <c r="A17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="7" t="n">
         <f t="shared" ref="B17:C17" si="0">SUM(B6:B16)</f>
         <v>3713876.0777359027</v>
       </c>
-      <c r="C17" s="15" t="n">
+      <c r="C17" s="7" t="n">
         <f t="shared" si="0"/>
         <v>321555.34658619197</v>
       </c>
-      <c r="D17" s="15" t="n">
+      <c r="D17" s="7" t="n">
         <f>SUM(D6:D16)</f>
         <v>38508.235305059607</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="8" t="n">
         <f>C17/B17*100</f>
         <v>8.6582142175896823</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="8" t="n">
         <f>D17/C17*100</f>
         <v>11.975616550582711</v>
       </c>
@@ -3219,24 +3215,24 @@
       </c>
     </row>
     <row r="5" ht="39" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>96</v>
       </c>
       <c r="C6" s="32" t="n">
@@ -3247,10 +3243,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="33" t="n">
@@ -3261,10 +3257,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>98</v>
       </c>
       <c r="C8" s="33" t="n">
@@ -3275,10 +3271,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="9" t="s">
         <v>99</v>
       </c>
       <c r="C9" s="33" t="n">
@@ -3289,10 +3285,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="9" t="s">
         <v>100</v>
       </c>
       <c r="C10" s="33" t="n">
@@ -3303,10 +3299,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>125</v>
       </c>
       <c r="C11" s="33" t="n">
@@ -3317,10 +3313,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="33" t="n">
@@ -3331,10 +3327,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="9" t="s">
         <v>126</v>
       </c>
       <c r="C13" s="33" t="n">
@@ -3345,10 +3341,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="9" t="s">
         <v>104</v>
       </c>
       <c r="C14" s="33" t="n">
@@ -3359,10 +3355,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C15" s="33" t="n">
@@ -3373,10 +3369,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="9" t="s">
         <v>127</v>
       </c>
       <c r="C16" s="33" t="n">
@@ -3387,10 +3383,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="n">
+      <c r="A17" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="13" t="s">
         <v>128</v>
       </c>
       <c r="C17" s="34" t="n">
@@ -3470,292 +3466,292 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="14" t="n">
         <v>4973.21512980122</v>
       </c>
-      <c r="D6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8" t="n">
+      <c r="D6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14" t="n">
         <v>106.259232219263</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="14" t="n">
         <v>1183.13396000334</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="14" t="n">
         <v>578.892820553219</v>
       </c>
-      <c r="H6" s="8" t="n">
+      <c r="H6" s="14" t="n">
         <v>13823.0462046566</v>
       </c>
-      <c r="I6" s="8" t="n">
+      <c r="I6" s="14" t="n">
         <v>8414.00219171916</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="2" t="n">
         <v>7147.8627737381</v>
       </c>
-      <c r="D7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10" t="n">
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>370.446764463819</v>
       </c>
-      <c r="F7" s="10" t="n">
+      <c r="F7" s="2" t="n">
         <v>1707.53113561221</v>
       </c>
-      <c r="G7" s="10" t="n">
+      <c r="G7" s="2" t="n">
         <v>673.815179068978</v>
       </c>
-      <c r="H7" s="10" t="n">
+      <c r="H7" s="2" t="n">
         <v>16043.5212738665</v>
       </c>
-      <c r="I7" s="10" t="n">
+      <c r="I7" s="2" t="n">
         <v>12074.9508593088</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="10" t="n">
+      <c r="C8" s="2" t="n">
         <v>13803.9576839744</v>
       </c>
-      <c r="D8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10" t="n">
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>568.372122396319</v>
       </c>
-      <c r="F8" s="10" t="n">
+      <c r="F8" s="2" t="n">
         <v>4296.58909694596</v>
       </c>
-      <c r="G8" s="10" t="n">
+      <c r="G8" s="2" t="n">
         <v>1797.57060955125</v>
       </c>
-      <c r="H8" s="10" t="n">
+      <c r="H8" s="2" t="n">
         <v>46870.2761056324</v>
       </c>
-      <c r="I8" s="10" t="n">
+      <c r="I8" s="2" t="n">
         <v>31181.6698884217</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="10" t="n">
+      <c r="C9" s="2" t="n">
         <v>8786.14068020212</v>
       </c>
-      <c r="D9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10" t="n">
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>570.922820065978</v>
       </c>
-      <c r="F9" s="10" t="n">
+      <c r="F9" s="2" t="n">
         <v>4411.3692366454</v>
       </c>
-      <c r="G9" s="10" t="n">
+      <c r="G9" s="2" t="n">
         <v>1418.47357434982</v>
       </c>
-      <c r="H9" s="10" t="n">
+      <c r="H9" s="2" t="n">
         <v>38762.5526176242</v>
       </c>
-      <c r="I9" s="10" t="n">
+      <c r="I9" s="2" t="n">
         <v>27757.9558097806</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="10" t="n">
+      <c r="C10" s="2" t="n">
         <v>14071.6003952679</v>
       </c>
-      <c r="D10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10" t="n">
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
         <v>710.632280187866</v>
       </c>
-      <c r="F10" s="10" t="n">
+      <c r="F10" s="2" t="n">
         <v>4314.82582226552</v>
       </c>
-      <c r="G10" s="10" t="n">
+      <c r="G10" s="2" t="n">
         <v>1803.9962374649</v>
       </c>
-      <c r="H10" s="10" t="n">
+      <c r="H10" s="2" t="n">
         <v>48231.6342366831</v>
       </c>
-      <c r="I10" s="10" t="n">
+      <c r="I10" s="2" t="n">
         <v>29708.7869242637</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="10" t="n">
+      <c r="C11" s="2" t="n">
         <v>4875.64646059809</v>
       </c>
-      <c r="D11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10" t="n">
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
         <v>4896.46960702937</v>
       </c>
-      <c r="F11" s="10" t="n">
+      <c r="F11" s="2" t="n">
         <v>9576.18744387978</v>
       </c>
-      <c r="G11" s="10" t="n">
+      <c r="G11" s="2" t="n">
         <v>1314.21838589622</v>
       </c>
-      <c r="H11" s="10" t="n">
+      <c r="H11" s="2" t="n">
         <v>7267.69415311415</v>
       </c>
-      <c r="I11" s="10" t="n">
+      <c r="I11" s="2" t="n">
         <v>6394.28403376757</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="10" t="n">
+      <c r="C12" s="2" t="n">
         <v>6146.74780403577</v>
       </c>
-      <c r="D12" s="10" t="n">
+      <c r="D12" s="2" t="n">
         <v>79.8859550911261</v>
       </c>
-      <c r="E12" s="10" t="n">
+      <c r="E12" s="2" t="n">
         <v>6178.45394707452</v>
       </c>
-      <c r="F12" s="10" t="n">
+      <c r="F12" s="2" t="n">
         <v>12265.520919156</v>
       </c>
-      <c r="G12" s="10" t="n">
+      <c r="G12" s="2" t="n">
         <v>1332.91641270401</v>
       </c>
-      <c r="H12" s="10" t="n">
+      <c r="H12" s="2" t="n">
         <v>8504.40093347604</v>
       </c>
-      <c r="I12" s="10" t="n">
+      <c r="I12" s="2" t="n">
         <v>7240.38894822003</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="10" t="n">
+      <c r="C13" s="2" t="n">
         <v>13186.4736259066</v>
       </c>
-      <c r="D13" s="10" t="n">
+      <c r="D13" s="2" t="n">
         <v>53.2573033940841</v>
       </c>
-      <c r="E13" s="10" t="n">
+      <c r="E13" s="2" t="n">
         <v>14062.3933245493</v>
       </c>
-      <c r="F13" s="10" t="n">
+      <c r="F13" s="2" t="n">
         <v>28752.1017683618</v>
       </c>
-      <c r="G13" s="10" t="n">
+      <c r="G13" s="2" t="n">
         <v>4195.11692254088</v>
       </c>
-      <c r="H13" s="10" t="n">
+      <c r="H13" s="2" t="n">
         <v>24259.5196123846</v>
       </c>
-      <c r="I13" s="10" t="n">
+      <c r="I13" s="2" t="n">
         <v>19368.9640055935</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="10" t="n">
+      <c r="C14" s="2" t="n">
         <v>10118.4544105721</v>
       </c>
-      <c r="D14" s="10" t="n">
+      <c r="D14" s="2" t="n">
         <v>89.2573613830571</v>
       </c>
-      <c r="E14" s="10" t="n">
+      <c r="E14" s="2" t="n">
         <v>16705.5469241994</v>
       </c>
-      <c r="F14" s="10" t="n">
+      <c r="F14" s="2" t="n">
         <v>31258.916015085</v>
       </c>
-      <c r="G14" s="10" t="n">
+      <c r="G14" s="2" t="n">
         <v>5857.17673988907</v>
       </c>
-      <c r="H14" s="10" t="n">
+      <c r="H14" s="2" t="n">
         <v>29150.2728061712</v>
       </c>
-      <c r="I14" s="10" t="n">
+      <c r="I14" s="2" t="n">
         <v>23982.2551901872</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="12" t="n">
+      <c r="C15" s="4" t="n">
         <v>15846.9883971698</v>
       </c>
-      <c r="D15" s="12" t="n">
+      <c r="D15" s="4" t="n">
         <v>26.628651697042</v>
       </c>
-      <c r="E15" s="12" t="n">
+      <c r="E15" s="4" t="n">
         <v>17892.713982131</v>
       </c>
-      <c r="F15" s="12" t="n">
+      <c r="F15" s="4" t="n">
         <v>36503.6053485611</v>
       </c>
-      <c r="G15" s="12" t="n">
+      <c r="G15" s="4" t="n">
         <v>5428.61560295022</v>
       </c>
-      <c r="H15" s="12" t="n">
+      <c r="H15" s="4" t="n">
         <v>31787.2094679519</v>
       </c>
-      <c r="I15" s="12" t="n">
+      <c r="I15" s="4" t="n">
         <v>25491.4814179695</v>
       </c>
     </row>
@@ -3809,470 +3805,470 @@
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3"/>
-      <c r="B23" s="14" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="15" t="n">
+      <c r="C23" s="7" t="n">
         <f>SUM(C24:C28)</f>
         <v>48782.776662983742</v>
       </c>
-      <c r="D23" s="15" t="n">
+      <c r="D23" s="7" t="n">
         <f t="shared" ref="D23:I23" si="1">SUM(D24:D28)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="15" t="n">
+      <c r="E23" s="7" t="n">
         <f t="shared" si="1"/>
         <v>2326.6332193332451</v>
       </c>
-      <c r="F23" s="15" t="n">
+      <c r="F23" s="7" t="n">
         <f t="shared" si="1"/>
         <v>15913.44925147243</v>
       </c>
-      <c r="G23" s="15" t="n">
+      <c r="G23" s="7" t="n">
         <f t="shared" si="1"/>
         <v>6272.7484209881677</v>
       </c>
-      <c r="H23" s="15" t="n">
+      <c r="H23" s="7" t="n">
         <f t="shared" si="1"/>
         <v>163731.0304384628</v>
       </c>
-      <c r="I23" s="15" t="n">
+      <c r="I23" s="7" t="n">
         <f t="shared" si="1"/>
         <v>109137.36567349396</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="10" t="n">
+      <c r="C24" s="2" t="n">
         <f>C6</f>
         <v>4973.2151298012204</v>
       </c>
-      <c r="D24" s="10" t="n">
+      <c r="D24" s="2" t="n">
         <f t="shared" ref="D24:I24" si="2">D6</f>
         <v>0</v>
       </c>
-      <c r="E24" s="10" t="n">
+      <c r="E24" s="2" t="n">
         <f t="shared" si="2"/>
         <v>106.259232219263</v>
       </c>
-      <c r="F24" s="10" t="n">
+      <c r="F24" s="2" t="n">
         <f t="shared" si="2"/>
         <v>1183.13396000334</v>
       </c>
-      <c r="G24" s="10" t="n">
+      <c r="G24" s="2" t="n">
         <f t="shared" si="2"/>
         <v>578.89282055321905</v>
       </c>
-      <c r="H24" s="10" t="n">
+      <c r="H24" s="2" t="n">
         <f t="shared" si="2"/>
         <v>13823.046204656601</v>
       </c>
-      <c r="I24" s="10" t="n">
+      <c r="I24" s="2" t="n">
         <f t="shared" si="2"/>
         <v>8414.0021917191607</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="10" t="n">
+      <c r="C25" s="2" t="n">
         <f t="shared" ref="C25:I25" si="3">C7</f>
         <v>7147.8627737381003</v>
       </c>
-      <c r="D25" s="10" t="n">
+      <c r="D25" s="2" t="n">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E25" s="10" t="n">
+      <c r="E25" s="2" t="n">
         <f t="shared" si="3"/>
         <v>370.44676446381902</v>
       </c>
-      <c r="F25" s="10" t="n">
+      <c r="F25" s="2" t="n">
         <f t="shared" si="3"/>
         <v>1707.5311356122099</v>
       </c>
-      <c r="G25" s="10" t="n">
+      <c r="G25" s="2" t="n">
         <f t="shared" si="3"/>
         <v>673.81517906897795</v>
       </c>
-      <c r="H25" s="10" t="n">
+      <c r="H25" s="2" t="n">
         <f t="shared" si="3"/>
         <v>16043.5212738665</v>
       </c>
-      <c r="I25" s="10" t="n">
+      <c r="I25" s="2" t="n">
         <f t="shared" si="3"/>
         <v>12074.950859308799</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="10" t="n">
+      <c r="C26" s="2" t="n">
         <f t="shared" ref="C26:I26" si="4">C8</f>
         <v>13803.9576839744</v>
       </c>
-      <c r="D26" s="10" t="n">
+      <c r="D26" s="2" t="n">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E26" s="10" t="n">
+      <c r="E26" s="2" t="n">
         <f t="shared" si="4"/>
         <v>568.37212239631901</v>
       </c>
-      <c r="F26" s="10" t="n">
+      <c r="F26" s="2" t="n">
         <f t="shared" si="4"/>
         <v>4296.5890969459597</v>
       </c>
-      <c r="G26" s="10" t="n">
+      <c r="G26" s="2" t="n">
         <f t="shared" si="4"/>
         <v>1797.5706095512501</v>
       </c>
-      <c r="H26" s="10" t="n">
+      <c r="H26" s="2" t="n">
         <f t="shared" si="4"/>
         <v>46870.276105632402</v>
       </c>
-      <c r="I26" s="10" t="n">
+      <c r="I26" s="2" t="n">
         <f t="shared" si="4"/>
         <v>31181.6698884217</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="10" t="n">
+      <c r="C27" s="2" t="n">
         <f t="shared" ref="C27:I27" si="5">C9</f>
         <v>8786.1406802021193</v>
       </c>
-      <c r="D27" s="10" t="n">
+      <c r="D27" s="2" t="n">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E27" s="10" t="n">
+      <c r="E27" s="2" t="n">
         <f t="shared" si="5"/>
         <v>570.92282006597804</v>
       </c>
-      <c r="F27" s="10" t="n">
+      <c r="F27" s="2" t="n">
         <f t="shared" si="5"/>
         <v>4411.3692366453997</v>
       </c>
-      <c r="G27" s="10" t="n">
+      <c r="G27" s="2" t="n">
         <f t="shared" si="5"/>
         <v>1418.47357434982</v>
       </c>
-      <c r="H27" s="10" t="n">
+      <c r="H27" s="2" t="n">
         <f t="shared" si="5"/>
         <v>38762.552617624198</v>
       </c>
-      <c r="I27" s="10" t="n">
+      <c r="I27" s="2" t="n">
         <f t="shared" si="5"/>
         <v>27757.9558097806</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="10" t="n">
+      <c r="C28" s="2" t="n">
         <f t="shared" ref="C28:I28" si="6">C10</f>
         <v>14071.6003952679</v>
       </c>
-      <c r="D28" s="10" t="n">
+      <c r="D28" s="2" t="n">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E28" s="10" t="n">
+      <c r="E28" s="2" t="n">
         <f t="shared" si="6"/>
         <v>710.63228018786594</v>
       </c>
-      <c r="F28" s="10" t="n">
+      <c r="F28" s="2" t="n">
         <f t="shared" si="6"/>
         <v>4314.8258222655204</v>
       </c>
-      <c r="G28" s="10" t="n">
+      <c r="G28" s="2" t="n">
         <f t="shared" si="6"/>
         <v>1803.9962374649001</v>
       </c>
-      <c r="H28" s="10" t="n">
+      <c r="H28" s="2" t="n">
         <f t="shared" si="6"/>
         <v>48231.634236683101</v>
       </c>
-      <c r="I28" s="10" t="n">
+      <c r="I28" s="2" t="n">
         <f t="shared" si="6"/>
         <v>29708.786924263699</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="15" t="n">
+      <c r="C29" s="7" t="n">
         <f>SUM(C30:C34)</f>
         <v>50174.310698282359</v>
       </c>
-      <c r="D29" s="15" t="n">
+      <c r="D29" s="7" t="n">
         <f t="shared" ref="D29:I29" si="7">SUM(D30:D34)</f>
         <v>249.0292715653093</v>
       </c>
-      <c r="E29" s="15" t="n">
+      <c r="E29" s="7" t="n">
         <f t="shared" si="7"/>
         <v>59735.577784983587</v>
       </c>
-      <c r="F29" s="15" t="n">
+      <c r="F29" s="7" t="n">
         <f t="shared" si="7"/>
         <v>118356.33149504368</v>
       </c>
-      <c r="G29" s="15" t="n">
+      <c r="G29" s="7" t="n">
         <f t="shared" si="7"/>
         <v>18128.0440639804</v>
       </c>
-      <c r="H29" s="15" t="n">
+      <c r="H29" s="7" t="n">
         <f t="shared" si="7"/>
         <v>100969.09697309788</v>
       </c>
-      <c r="I29" s="15" t="n">
+      <c r="I29" s="7" t="n">
         <f t="shared" si="7"/>
         <v>82477.373595737794</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="10" t="n">
+      <c r="C30" s="2" t="n">
         <f t="shared" ref="C30:I30" si="8">C11</f>
         <v>4875.64646059809</v>
       </c>
-      <c r="D30" s="10" t="n">
+      <c r="D30" s="2" t="n">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E30" s="10" t="n">
+      <c r="E30" s="2" t="n">
         <f t="shared" si="8"/>
         <v>4896.4696070293703</v>
       </c>
-      <c r="F30" s="10" t="n">
+      <c r="F30" s="2" t="n">
         <f t="shared" si="8"/>
         <v>9576.1874438797804</v>
       </c>
-      <c r="G30" s="10" t="n">
+      <c r="G30" s="2" t="n">
         <f t="shared" si="8"/>
         <v>1314.2183858962201</v>
       </c>
-      <c r="H30" s="10" t="n">
+      <c r="H30" s="2" t="n">
         <f t="shared" si="8"/>
         <v>7267.6941531141501</v>
       </c>
-      <c r="I30" s="10" t="n">
+      <c r="I30" s="2" t="n">
         <f t="shared" si="8"/>
         <v>6394.2840337675698</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="10" t="n">
+      <c r="C31" s="2" t="n">
         <f t="shared" ref="C31:I31" si="9">C12</f>
         <v>6146.7478040357701</v>
       </c>
-      <c r="D31" s="10" t="n">
+      <c r="D31" s="2" t="n">
         <f t="shared" si="9"/>
         <v>79.885955091126107</v>
       </c>
-      <c r="E31" s="10" t="n">
+      <c r="E31" s="2" t="n">
         <f t="shared" si="9"/>
         <v>6178.4539470745203</v>
       </c>
-      <c r="F31" s="10" t="n">
+      <c r="F31" s="2" t="n">
         <f t="shared" si="9"/>
         <v>12265.520919156001</v>
       </c>
-      <c r="G31" s="10" t="n">
+      <c r="G31" s="2" t="n">
         <f t="shared" si="9"/>
         <v>1332.9164127040101</v>
       </c>
-      <c r="H31" s="10" t="n">
+      <c r="H31" s="2" t="n">
         <f t="shared" si="9"/>
         <v>8504.4009334760394</v>
       </c>
-      <c r="I31" s="10" t="n">
+      <c r="I31" s="2" t="n">
         <f t="shared" si="9"/>
         <v>7240.3889482200302</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="10" t="n">
+      <c r="C32" s="2" t="n">
         <f t="shared" ref="C32:I32" si="10">C13</f>
         <v>13186.473625906599</v>
       </c>
-      <c r="D32" s="10" t="n">
+      <c r="D32" s="2" t="n">
         <f t="shared" si="10"/>
         <v>53.257303394084097</v>
       </c>
-      <c r="E32" s="10" t="n">
+      <c r="E32" s="2" t="n">
         <f t="shared" si="10"/>
         <v>14062.393324549301</v>
       </c>
-      <c r="F32" s="10" t="n">
+      <c r="F32" s="2" t="n">
         <f t="shared" si="10"/>
         <v>28752.101768361801</v>
       </c>
-      <c r="G32" s="10" t="n">
+      <c r="G32" s="2" t="n">
         <f t="shared" si="10"/>
         <v>4195.1169225408803</v>
       </c>
-      <c r="H32" s="10" t="n">
+      <c r="H32" s="2" t="n">
         <f t="shared" si="10"/>
         <v>24259.5196123846</v>
       </c>
-      <c r="I32" s="10" t="n">
+      <c r="I32" s="2" t="n">
         <f t="shared" si="10"/>
         <v>19368.964005593501</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="10" t="n">
+      <c r="C33" s="2" t="n">
         <f t="shared" ref="C33:I33" si="11">C14</f>
         <v>10118.4544105721</v>
       </c>
-      <c r="D33" s="10" t="n">
+      <c r="D33" s="2" t="n">
         <f t="shared" si="11"/>
         <v>89.257361383057102</v>
       </c>
-      <c r="E33" s="10" t="n">
+      <c r="E33" s="2" t="n">
         <f t="shared" si="11"/>
         <v>16705.5469241994</v>
       </c>
-      <c r="F33" s="10" t="n">
+      <c r="F33" s="2" t="n">
         <f t="shared" si="11"/>
         <v>31258.916015085</v>
       </c>
-      <c r="G33" s="10" t="n">
+      <c r="G33" s="2" t="n">
         <f t="shared" si="11"/>
         <v>5857.1767398890697</v>
       </c>
-      <c r="H33" s="10" t="n">
+      <c r="H33" s="2" t="n">
         <f t="shared" si="11"/>
         <v>29150.272806171201</v>
       </c>
-      <c r="I33" s="10" t="n">
+      <c r="I33" s="2" t="n">
         <f t="shared" si="11"/>
         <v>23982.255190187199</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="12" t="n">
+      <c r="C34" s="4" t="n">
         <f t="shared" ref="C34:I34" si="12">C15</f>
         <v>15846.9883971698</v>
       </c>
-      <c r="D34" s="12" t="n">
+      <c r="D34" s="4" t="n">
         <f t="shared" si="12"/>
         <v>26.628651697041999</v>
       </c>
-      <c r="E34" s="12" t="n">
+      <c r="E34" s="4" t="n">
         <f t="shared" si="12"/>
         <v>17892.713982131001</v>
       </c>
-      <c r="F34" s="12" t="n">
+      <c r="F34" s="4" t="n">
         <f t="shared" si="12"/>
         <v>36503.605348561097</v>
       </c>
-      <c r="G34" s="12" t="n">
+      <c r="G34" s="4" t="n">
         <f t="shared" si="12"/>
         <v>5428.6156029502199</v>
       </c>
-      <c r="H34" s="12" t="n">
+      <c r="H34" s="4" t="n">
         <f t="shared" si="12"/>
         <v>31787.2094679519</v>
       </c>
-      <c r="I34" s="12" t="n">
+      <c r="I34" s="4" t="n">
         <f t="shared" si="12"/>
         <v>25491.481417969499</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3"/>
-      <c r="B35" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="15" t="n">
+      <c r="A35" s="9"/>
+      <c r="B35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="7" t="n">
         <f t="shared" ref="C35:I35" si="13">C16</f>
         <v>98957.087361266094</v>
       </c>
-      <c r="D35" s="15" t="n">
+      <c r="D35" s="7" t="n">
         <f t="shared" si="13"/>
         <v>249.0292715653093</v>
       </c>
-      <c r="E35" s="15" t="n">
+      <c r="E35" s="7" t="n">
         <f t="shared" si="13"/>
         <v>62062.211004316836</v>
       </c>
-      <c r="F35" s="15" t="n">
+      <c r="F35" s="7" t="n">
         <f t="shared" si="13"/>
         <v>134269.7807465161</v>
       </c>
-      <c r="G35" s="15" t="n">
+      <c r="G35" s="7" t="n">
         <f t="shared" si="13"/>
         <v>24400.792484968566</v>
       </c>
-      <c r="H35" s="15" t="n">
+      <c r="H35" s="7" t="n">
         <f t="shared" si="13"/>
         <v>264700.12741156074</v>
       </c>
-      <c r="I35" s="15" t="n">
+      <c r="I35" s="7" t="n">
         <f t="shared" si="13"/>
         <v>191614.73926923177</v>
       </c>

--- a/data/outputs/vulnerability.xlsx
+++ b/data/outputs/vulnerability.xlsx
@@ -532,8 +532,6 @@
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -550,6 +548,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -913,266 +913,266 @@
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="14" t="n">
+      <c r="B6" s="12" t="n">
         <v>307650.146942139</v>
       </c>
-      <c r="C6" s="14" t="n">
+      <c r="C6" s="12" t="n">
         <v>6435.03022049499</v>
       </c>
-      <c r="D6" s="14" t="n">
+      <c r="D6" s="12" t="n">
         <v>476.838427902775</v>
       </c>
-      <c r="E6" s="15" t="n">
+      <c r="E6" s="13" t="n">
         <v>2.09167142757948</v>
       </c>
-      <c r="F6" s="15" t="n">
+      <c r="F6" s="13" t="n">
         <v>7.41004178013163</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="14" t="n">
         <v>1206504.07788086</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="14" t="n">
         <v>92179.8457883116</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="14" t="n">
         <v>5066.74151911133</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="15" t="n">
         <v>7.64024320168226</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="15" t="n">
         <v>5.49658276793711</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="14" t="n">
         <v>251397.482635498</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="14" t="n">
         <v>35789.4377766381</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="14" t="n">
         <v>4667.04591016061</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="15" t="n">
         <v>14.2361957651459</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="15" t="n">
         <v>13.0402884205325</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="14" t="n">
         <v>454697.773071289</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="14" t="n">
         <v>22139.8155128333</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="14" t="n">
         <v>4076.88789731897</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="15" t="n">
         <v>4.86912776442433</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="15" t="n">
         <v>18.4142812525055</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="14" t="n">
         <v>150422.450592041</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="14" t="n">
         <v>19075.150272623</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="14" t="n">
         <v>2120.22698906199</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="15" t="n">
         <v>12.6810527268675</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="15" t="n">
         <v>11.1151260082338</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="14" t="n">
         <v>370641.704589844</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="14" t="n">
         <v>23388.2371438457</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="14" t="n">
         <v>3902.20483830774</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="15" t="n">
         <v>6.31020116037059</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="15" t="n">
         <v>16.6844761078308</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="14" t="n">
         <v>104588.229454041</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="14" t="n">
         <v>11580.1211283283</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="14" t="n">
         <v>2931.90677357178</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="15" t="n">
         <v>11.0721074338647</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="15" t="n">
         <v>25.3184465091604</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="14" t="n">
         <v>285437.542541504</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="14" t="n">
         <v>45638.7830630811</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="14" t="n">
         <v>7934.30784711264</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="15" t="n">
         <v>15.989061094318</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="15" t="n">
         <v>17.3850118574503</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="14" t="n">
         <v>459035.027801514</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="14" t="n">
         <v>49247.1025573398</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="14" t="n">
         <v>4904.93803616641</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="15" t="n">
         <v>10.7283975240848</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="15" t="n">
         <v>9.9598509992653</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="14" t="n">
         <v>95388.7727661133</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="14" t="n">
         <v>9868.19756988892</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="14" t="n">
         <v>1548.57748601317</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="15" t="n">
         <v>10.3452400987327</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="15" t="n">
         <v>15.6926072369931</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="2" t="n">
         <v>28112.8694610596</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="2" t="n">
         <v>6213.62555280715</v>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="2" t="n">
         <v>878.559580332195</v>
       </c>
-      <c r="E16" s="5" t="n">
+      <c r="E16" s="3" t="n">
         <v>22.1024238077651</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="3" t="n">
         <v>14.1392424256284</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="7" t="n">
+      <c r="A17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5" t="n">
         <f t="shared" ref="B17:C17" si="0">SUM(B6:B16)</f>
         <v>3713876.0777359027</v>
       </c>
-      <c r="C17" s="7" t="n">
+      <c r="C17" s="5" t="n">
         <f t="shared" si="0"/>
         <v>321555.34658619197</v>
       </c>
-      <c r="D17" s="7" t="n">
+      <c r="D17" s="5" t="n">
         <f>SUM(D6:D16)</f>
         <v>38508.235305059607</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="E17" s="6" t="n">
         <f>C17/B17*100</f>
         <v>8.6582142175896823</v>
       </c>
-      <c r="F17" s="8" t="n">
+      <c r="F17" s="6" t="n">
         <f>D17/C17*100</f>
         <v>11.975616550582711</v>
       </c>
@@ -3215,24 +3215,24 @@
       </c>
     </row>
     <row r="5" ht="39" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>96</v>
       </c>
       <c r="C6" s="32" t="n">
@@ -3243,10 +3243,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="33" t="n">
@@ -3257,10 +3257,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="n">
+      <c r="A8" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>98</v>
       </c>
       <c r="C8" s="33" t="n">
@@ -3271,10 +3271,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="n">
+      <c r="A9" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>99</v>
       </c>
       <c r="C9" s="33" t="n">
@@ -3285,10 +3285,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n">
+      <c r="A10" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>100</v>
       </c>
       <c r="C10" s="33" t="n">
@@ -3299,10 +3299,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="n">
+      <c r="A11" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>125</v>
       </c>
       <c r="C11" s="33" t="n">
@@ -3313,10 +3313,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n">
+      <c r="A12" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="33" t="n">
@@ -3327,10 +3327,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="n">
+      <c r="A13" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>126</v>
       </c>
       <c r="C13" s="33" t="n">
@@ -3341,10 +3341,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="n">
+      <c r="A14" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>104</v>
       </c>
       <c r="C14" s="33" t="n">
@@ -3355,10 +3355,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="n">
+      <c r="A15" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>105</v>
       </c>
       <c r="C15" s="33" t="n">
@@ -3369,10 +3369,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="n">
+      <c r="A16" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>127</v>
       </c>
       <c r="C16" s="33" t="n">
@@ -3383,10 +3383,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="n">
+      <c r="A17" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>128</v>
       </c>
       <c r="C17" s="34" t="n">
@@ -3466,292 +3466,292 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="14" t="n">
+      <c r="C6" s="12" t="n">
         <v>4973.21512980122</v>
       </c>
-      <c r="D6" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14" t="n">
+      <c r="D6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12" t="n">
         <v>106.259232219263</v>
       </c>
-      <c r="F6" s="14" t="n">
+      <c r="F6" s="12" t="n">
         <v>1183.13396000334</v>
       </c>
-      <c r="G6" s="14" t="n">
+      <c r="G6" s="12" t="n">
         <v>578.892820553219</v>
       </c>
-      <c r="H6" s="14" t="n">
+      <c r="H6" s="12" t="n">
         <v>13823.0462046566</v>
       </c>
-      <c r="I6" s="14" t="n">
+      <c r="I6" s="12" t="n">
         <v>8414.00219171916</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="14" t="n">
         <v>7147.8627737381</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
+      <c r="D7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14" t="n">
         <v>370.446764463819</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="14" t="n">
         <v>1707.53113561221</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="14" t="n">
         <v>673.815179068978</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="14" t="n">
         <v>16043.5212738665</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="14" t="n">
         <v>12074.9508593088</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="14" t="n">
         <v>13803.9576839744</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="n">
+      <c r="D8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14" t="n">
         <v>568.372122396319</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="14" t="n">
         <v>4296.58909694596</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="14" t="n">
         <v>1797.57060955125</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="14" t="n">
         <v>46870.2761056324</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="14" t="n">
         <v>31181.6698884217</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="14" t="n">
         <v>8786.14068020212</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
+      <c r="D9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14" t="n">
         <v>570.922820065978</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="14" t="n">
         <v>4411.3692366454</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="14" t="n">
         <v>1418.47357434982</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="14" t="n">
         <v>38762.5526176242</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="14" t="n">
         <v>27757.9558097806</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="14" t="n">
         <v>14071.6003952679</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="n">
+      <c r="D10" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14" t="n">
         <v>710.632280187866</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="14" t="n">
         <v>4314.82582226552</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="14" t="n">
         <v>1803.9962374649</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="14" t="n">
         <v>48231.6342366831</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="14" t="n">
         <v>29708.7869242637</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="14" t="n">
         <v>4875.64646059809</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
+      <c r="D11" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14" t="n">
         <v>4896.46960702937</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="14" t="n">
         <v>9576.18744387978</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="14" t="n">
         <v>1314.21838589622</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="14" t="n">
         <v>7267.69415311415</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="14" t="n">
         <v>6394.28403376757</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="14" t="n">
         <v>6146.74780403577</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="14" t="n">
         <v>79.8859550911261</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="14" t="n">
         <v>6178.45394707452</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="14" t="n">
         <v>12265.520919156</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="14" t="n">
         <v>1332.91641270401</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="14" t="n">
         <v>8504.40093347604</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="14" t="n">
         <v>7240.38894822003</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="14" t="n">
         <v>13186.4736259066</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="14" t="n">
         <v>53.2573033940841</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="14" t="n">
         <v>14062.3933245493</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="14" t="n">
         <v>28752.1017683618</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="14" t="n">
         <v>4195.11692254088</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="14" t="n">
         <v>24259.5196123846</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="14" t="n">
         <v>19368.9640055935</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="14" t="n">
         <v>10118.4544105721</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="14" t="n">
         <v>89.2573613830571</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="14" t="n">
         <v>16705.5469241994</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="14" t="n">
         <v>31258.916015085</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="14" t="n">
         <v>5857.17673988907</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="14" t="n">
         <v>29150.2728061712</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="14" t="n">
         <v>23982.2551901872</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="2" t="n">
         <v>15846.9883971698</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="2" t="n">
         <v>26.628651697042</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="2" t="n">
         <v>17892.713982131</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="2" t="n">
         <v>36503.6053485611</v>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="2" t="n">
         <v>5428.61560295022</v>
       </c>
-      <c r="H15" s="4" t="n">
+      <c r="H15" s="2" t="n">
         <v>31787.2094679519</v>
       </c>
-      <c r="I15" s="4" t="n">
+      <c r="I15" s="2" t="n">
         <v>25491.4814179695</v>
       </c>
     </row>
@@ -3805,470 +3805,470 @@
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="9"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="7" t="n">
+      <c r="C23" s="5" t="n">
         <f>SUM(C24:C28)</f>
         <v>48782.776662983742</v>
       </c>
-      <c r="D23" s="7" t="n">
+      <c r="D23" s="5" t="n">
         <f t="shared" ref="D23:I23" si="1">SUM(D24:D28)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="7" t="n">
+      <c r="E23" s="5" t="n">
         <f t="shared" si="1"/>
         <v>2326.6332193332451</v>
       </c>
-      <c r="F23" s="7" t="n">
+      <c r="F23" s="5" t="n">
         <f t="shared" si="1"/>
         <v>15913.44925147243</v>
       </c>
-      <c r="G23" s="7" t="n">
+      <c r="G23" s="5" t="n">
         <f t="shared" si="1"/>
         <v>6272.7484209881677</v>
       </c>
-      <c r="H23" s="7" t="n">
+      <c r="H23" s="5" t="n">
         <f t="shared" si="1"/>
         <v>163731.0304384628</v>
       </c>
-      <c r="I23" s="7" t="n">
+      <c r="I23" s="5" t="n">
         <f t="shared" si="1"/>
         <v>109137.36567349396</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="9"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="14" t="n">
         <f>C6</f>
         <v>4973.2151298012204</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="14" t="n">
         <f t="shared" ref="D24:I24" si="2">D6</f>
         <v>0</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="14" t="n">
         <f t="shared" si="2"/>
         <v>106.259232219263</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="14" t="n">
         <f t="shared" si="2"/>
         <v>1183.13396000334</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G24" s="14" t="n">
         <f t="shared" si="2"/>
         <v>578.89282055321905</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="14" t="n">
         <f t="shared" si="2"/>
         <v>13823.046204656601</v>
       </c>
-      <c r="I24" s="2" t="n">
+      <c r="I24" s="14" t="n">
         <f t="shared" si="2"/>
         <v>8414.0021917191607</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="14" t="n">
         <f t="shared" ref="C25:I25" si="3">C7</f>
         <v>7147.8627737381003</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="14" t="n">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="14" t="n">
         <f t="shared" si="3"/>
         <v>370.44676446381902</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="14" t="n">
         <f t="shared" si="3"/>
         <v>1707.5311356122099</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="14" t="n">
         <f t="shared" si="3"/>
         <v>673.81517906897795</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="14" t="n">
         <f t="shared" si="3"/>
         <v>16043.5212738665</v>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="I25" s="14" t="n">
         <f t="shared" si="3"/>
         <v>12074.950859308799</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="9"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="14" t="n">
         <f t="shared" ref="C26:I26" si="4">C8</f>
         <v>13803.9576839744</v>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" s="14" t="n">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="14" t="n">
         <f t="shared" si="4"/>
         <v>568.37212239631901</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="14" t="n">
         <f t="shared" si="4"/>
         <v>4296.5890969459597</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G26" s="14" t="n">
         <f t="shared" si="4"/>
         <v>1797.5706095512501</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="14" t="n">
         <f t="shared" si="4"/>
         <v>46870.276105632402</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I26" s="14" t="n">
         <f t="shared" si="4"/>
         <v>31181.6698884217</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="9"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="14" t="n">
         <f t="shared" ref="C27:I27" si="5">C9</f>
         <v>8786.1406802021193</v>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" s="14" t="n">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="14" t="n">
         <f t="shared" si="5"/>
         <v>570.92282006597804</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="14" t="n">
         <f t="shared" si="5"/>
         <v>4411.3692366453997</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G27" s="14" t="n">
         <f t="shared" si="5"/>
         <v>1418.47357434982</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="14" t="n">
         <f t="shared" si="5"/>
         <v>38762.552617624198</v>
       </c>
-      <c r="I27" s="2" t="n">
+      <c r="I27" s="14" t="n">
         <f t="shared" si="5"/>
         <v>27757.9558097806</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="9"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="14" t="n">
         <f t="shared" ref="C28:I28" si="6">C10</f>
         <v>14071.6003952679</v>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" s="14" t="n">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="14" t="n">
         <f t="shared" si="6"/>
         <v>710.63228018786594</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="14" t="n">
         <f t="shared" si="6"/>
         <v>4314.8258222655204</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="14" t="n">
         <f t="shared" si="6"/>
         <v>1803.9962374649001</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="14" t="n">
         <f t="shared" si="6"/>
         <v>48231.634236683101</v>
       </c>
-      <c r="I28" s="2" t="n">
+      <c r="I28" s="14" t="n">
         <f t="shared" si="6"/>
         <v>29708.786924263699</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="9"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="7" t="n">
+      <c r="C29" s="5" t="n">
         <f>SUM(C30:C34)</f>
         <v>50174.310698282359</v>
       </c>
-      <c r="D29" s="7" t="n">
+      <c r="D29" s="5" t="n">
         <f t="shared" ref="D29:I29" si="7">SUM(D30:D34)</f>
         <v>249.0292715653093</v>
       </c>
-      <c r="E29" s="7" t="n">
+      <c r="E29" s="5" t="n">
         <f t="shared" si="7"/>
         <v>59735.577784983587</v>
       </c>
-      <c r="F29" s="7" t="n">
+      <c r="F29" s="5" t="n">
         <f t="shared" si="7"/>
         <v>118356.33149504368</v>
       </c>
-      <c r="G29" s="7" t="n">
+      <c r="G29" s="5" t="n">
         <f t="shared" si="7"/>
         <v>18128.0440639804</v>
       </c>
-      <c r="H29" s="7" t="n">
+      <c r="H29" s="5" t="n">
         <f t="shared" si="7"/>
         <v>100969.09697309788</v>
       </c>
-      <c r="I29" s="7" t="n">
+      <c r="I29" s="5" t="n">
         <f t="shared" si="7"/>
         <v>82477.373595737794</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="9"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="14" t="n">
         <f t="shared" ref="C30:I30" si="8">C11</f>
         <v>4875.64646059809</v>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" s="14" t="n">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="14" t="n">
         <f t="shared" si="8"/>
         <v>4896.4696070293703</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="F30" s="14" t="n">
         <f t="shared" si="8"/>
         <v>9576.1874438797804</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G30" s="14" t="n">
         <f t="shared" si="8"/>
         <v>1314.2183858962201</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="14" t="n">
         <f t="shared" si="8"/>
         <v>7267.6941531141501</v>
       </c>
-      <c r="I30" s="2" t="n">
+      <c r="I30" s="14" t="n">
         <f t="shared" si="8"/>
         <v>6394.2840337675698</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="9"/>
+      <c r="A31" s="7"/>
       <c r="B31" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="14" t="n">
         <f t="shared" ref="C31:I31" si="9">C12</f>
         <v>6146.7478040357701</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="14" t="n">
         <f t="shared" si="9"/>
         <v>79.885955091126107</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="14" t="n">
         <f t="shared" si="9"/>
         <v>6178.4539470745203</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" s="14" t="n">
         <f t="shared" si="9"/>
         <v>12265.520919156001</v>
       </c>
-      <c r="G31" s="2" t="n">
+      <c r="G31" s="14" t="n">
         <f t="shared" si="9"/>
         <v>1332.9164127040101</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="14" t="n">
         <f t="shared" si="9"/>
         <v>8504.4009334760394</v>
       </c>
-      <c r="I31" s="2" t="n">
+      <c r="I31" s="14" t="n">
         <f t="shared" si="9"/>
         <v>7240.3889482200302</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9"/>
+      <c r="A32" s="7"/>
       <c r="B32" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="14" t="n">
         <f t="shared" ref="C32:I32" si="10">C13</f>
         <v>13186.473625906599</v>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" s="14" t="n">
         <f t="shared" si="10"/>
         <v>53.257303394084097</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="14" t="n">
         <f t="shared" si="10"/>
         <v>14062.393324549301</v>
       </c>
-      <c r="F32" s="2" t="n">
+      <c r="F32" s="14" t="n">
         <f t="shared" si="10"/>
         <v>28752.101768361801</v>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="G32" s="14" t="n">
         <f t="shared" si="10"/>
         <v>4195.1169225408803</v>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="14" t="n">
         <f t="shared" si="10"/>
         <v>24259.5196123846</v>
       </c>
-      <c r="I32" s="2" t="n">
+      <c r="I32" s="14" t="n">
         <f t="shared" si="10"/>
         <v>19368.964005593501</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="9"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="14" t="n">
         <f t="shared" ref="C33:I33" si="11">C14</f>
         <v>10118.4544105721</v>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" s="14" t="n">
         <f t="shared" si="11"/>
         <v>89.257361383057102</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="14" t="n">
         <f t="shared" si="11"/>
         <v>16705.5469241994</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F33" s="14" t="n">
         <f t="shared" si="11"/>
         <v>31258.916015085</v>
       </c>
-      <c r="G33" s="2" t="n">
+      <c r="G33" s="14" t="n">
         <f t="shared" si="11"/>
         <v>5857.1767398890697</v>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="14" t="n">
         <f t="shared" si="11"/>
         <v>29150.272806171201</v>
       </c>
-      <c r="I33" s="2" t="n">
+      <c r="I33" s="14" t="n">
         <f t="shared" si="11"/>
         <v>23982.255190187199</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="9"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="4" t="n">
+      <c r="C34" s="2" t="n">
         <f t="shared" ref="C34:I34" si="12">C15</f>
         <v>15846.9883971698</v>
       </c>
-      <c r="D34" s="4" t="n">
+      <c r="D34" s="2" t="n">
         <f t="shared" si="12"/>
         <v>26.628651697041999</v>
       </c>
-      <c r="E34" s="4" t="n">
+      <c r="E34" s="2" t="n">
         <f t="shared" si="12"/>
         <v>17892.713982131001</v>
       </c>
-      <c r="F34" s="4" t="n">
+      <c r="F34" s="2" t="n">
         <f t="shared" si="12"/>
         <v>36503.605348561097</v>
       </c>
-      <c r="G34" s="4" t="n">
+      <c r="G34" s="2" t="n">
         <f t="shared" si="12"/>
         <v>5428.6156029502199</v>
       </c>
-      <c r="H34" s="4" t="n">
+      <c r="H34" s="2" t="n">
         <f t="shared" si="12"/>
         <v>31787.2094679519</v>
       </c>
-      <c r="I34" s="4" t="n">
+      <c r="I34" s="2" t="n">
         <f t="shared" si="12"/>
         <v>25491.481417969499</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="9"/>
-      <c r="B35" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="7" t="n">
+      <c r="A35" s="7"/>
+      <c r="B35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5" t="n">
         <f t="shared" ref="C35:I35" si="13">C16</f>
         <v>98957.087361266094</v>
       </c>
-      <c r="D35" s="7" t="n">
+      <c r="D35" s="5" t="n">
         <f t="shared" si="13"/>
         <v>249.0292715653093</v>
       </c>
-      <c r="E35" s="7" t="n">
+      <c r="E35" s="5" t="n">
         <f t="shared" si="13"/>
         <v>62062.211004316836</v>
       </c>
-      <c r="F35" s="7" t="n">
+      <c r="F35" s="5" t="n">
         <f t="shared" si="13"/>
         <v>134269.7807465161</v>
       </c>
-      <c r="G35" s="7" t="n">
+      <c r="G35" s="5" t="n">
         <f t="shared" si="13"/>
         <v>24400.792484968566</v>
       </c>
-      <c r="H35" s="7" t="n">
+      <c r="H35" s="5" t="n">
         <f t="shared" si="13"/>
         <v>264700.12741156074</v>
       </c>
-      <c r="I35" s="7" t="n">
+      <c r="I35" s="5" t="n">
         <f t="shared" si="13"/>
         <v>191614.73926923177</v>
       </c>

--- a/data/outputs/vulnerability.xlsx
+++ b/data/outputs/vulnerability.xlsx
@@ -508,6 +508,11 @@
       <diagonal/>
     </border>
     <border>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+    </border>
+    <border>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -520,11 +525,6 @@
         <color indexed="64"/>
       </bottom>
     </border>
-    <border>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -532,11 +532,17 @@
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -544,47 +550,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -913,266 +913,266 @@
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="15" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="12" t="n">
+      <c r="B6" s="4" t="n">
         <v>307650.146942139</v>
       </c>
-      <c r="C6" s="12" t="n">
+      <c r="C6" s="4" t="n">
         <v>6435.03022049499</v>
       </c>
-      <c r="D6" s="12" t="n">
+      <c r="D6" s="4" t="n">
         <v>476.838427902775</v>
       </c>
-      <c r="E6" s="13" t="n">
+      <c r="E6" s="5" t="n">
         <v>2.09167142757948</v>
       </c>
-      <c r="F6" s="13" t="n">
+      <c r="F6" s="5" t="n">
         <v>7.41004178013163</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="14" t="n">
+      <c r="B7" s="6" t="n">
         <v>1206504.07788086</v>
       </c>
-      <c r="C7" s="14" t="n">
+      <c r="C7" s="6" t="n">
         <v>92179.8457883116</v>
       </c>
-      <c r="D7" s="14" t="n">
+      <c r="D7" s="6" t="n">
         <v>5066.74151911133</v>
       </c>
-      <c r="E7" s="15" t="n">
+      <c r="E7" s="7" t="n">
         <v>7.64024320168226</v>
       </c>
-      <c r="F7" s="15" t="n">
+      <c r="F7" s="7" t="n">
         <v>5.49658276793711</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="14" t="n">
+      <c r="B8" s="6" t="n">
         <v>251397.482635498</v>
       </c>
-      <c r="C8" s="14" t="n">
+      <c r="C8" s="6" t="n">
         <v>35789.4377766381</v>
       </c>
-      <c r="D8" s="14" t="n">
+      <c r="D8" s="6" t="n">
         <v>4667.04591016061</v>
       </c>
-      <c r="E8" s="15" t="n">
+      <c r="E8" s="7" t="n">
         <v>14.2361957651459</v>
       </c>
-      <c r="F8" s="15" t="n">
+      <c r="F8" s="7" t="n">
         <v>13.0402884205325</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="14" t="n">
+      <c r="B9" s="6" t="n">
         <v>454697.773071289</v>
       </c>
-      <c r="C9" s="14" t="n">
+      <c r="C9" s="6" t="n">
         <v>22139.8155128333</v>
       </c>
-      <c r="D9" s="14" t="n">
+      <c r="D9" s="6" t="n">
         <v>4076.88789731897</v>
       </c>
-      <c r="E9" s="15" t="n">
+      <c r="E9" s="7" t="n">
         <v>4.86912776442433</v>
       </c>
-      <c r="F9" s="15" t="n">
+      <c r="F9" s="7" t="n">
         <v>18.4142812525055</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="14" t="n">
+      <c r="B10" s="6" t="n">
         <v>150422.450592041</v>
       </c>
-      <c r="C10" s="14" t="n">
+      <c r="C10" s="6" t="n">
         <v>19075.150272623</v>
       </c>
-      <c r="D10" s="14" t="n">
+      <c r="D10" s="6" t="n">
         <v>2120.22698906199</v>
       </c>
-      <c r="E10" s="15" t="n">
+      <c r="E10" s="7" t="n">
         <v>12.6810527268675</v>
       </c>
-      <c r="F10" s="15" t="n">
+      <c r="F10" s="7" t="n">
         <v>11.1151260082338</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="14" t="n">
+      <c r="B11" s="6" t="n">
         <v>370641.704589844</v>
       </c>
-      <c r="C11" s="14" t="n">
+      <c r="C11" s="6" t="n">
         <v>23388.2371438457</v>
       </c>
-      <c r="D11" s="14" t="n">
+      <c r="D11" s="6" t="n">
         <v>3902.20483830774</v>
       </c>
-      <c r="E11" s="15" t="n">
+      <c r="E11" s="7" t="n">
         <v>6.31020116037059</v>
       </c>
-      <c r="F11" s="15" t="n">
+      <c r="F11" s="7" t="n">
         <v>16.6844761078308</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="14" t="n">
+      <c r="B12" s="6" t="n">
         <v>104588.229454041</v>
       </c>
-      <c r="C12" s="14" t="n">
+      <c r="C12" s="6" t="n">
         <v>11580.1211283283</v>
       </c>
-      <c r="D12" s="14" t="n">
+      <c r="D12" s="6" t="n">
         <v>2931.90677357178</v>
       </c>
-      <c r="E12" s="15" t="n">
+      <c r="E12" s="7" t="n">
         <v>11.0721074338647</v>
       </c>
-      <c r="F12" s="15" t="n">
+      <c r="F12" s="7" t="n">
         <v>25.3184465091604</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="14" t="n">
+      <c r="B13" s="6" t="n">
         <v>285437.542541504</v>
       </c>
-      <c r="C13" s="14" t="n">
+      <c r="C13" s="6" t="n">
         <v>45638.7830630811</v>
       </c>
-      <c r="D13" s="14" t="n">
+      <c r="D13" s="6" t="n">
         <v>7934.30784711264</v>
       </c>
-      <c r="E13" s="15" t="n">
+      <c r="E13" s="7" t="n">
         <v>15.989061094318</v>
       </c>
-      <c r="F13" s="15" t="n">
+      <c r="F13" s="7" t="n">
         <v>17.3850118574503</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="14" t="n">
+      <c r="B14" s="6" t="n">
         <v>459035.027801514</v>
       </c>
-      <c r="C14" s="14" t="n">
+      <c r="C14" s="6" t="n">
         <v>49247.1025573398</v>
       </c>
-      <c r="D14" s="14" t="n">
+      <c r="D14" s="6" t="n">
         <v>4904.93803616641</v>
       </c>
-      <c r="E14" s="15" t="n">
+      <c r="E14" s="7" t="n">
         <v>10.7283975240848</v>
       </c>
-      <c r="F14" s="15" t="n">
+      <c r="F14" s="7" t="n">
         <v>9.9598509992653</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="14" t="n">
+      <c r="B15" s="6" t="n">
         <v>95388.7727661133</v>
       </c>
-      <c r="C15" s="14" t="n">
+      <c r="C15" s="6" t="n">
         <v>9868.19756988892</v>
       </c>
-      <c r="D15" s="14" t="n">
+      <c r="D15" s="6" t="n">
         <v>1548.57748601317</v>
       </c>
-      <c r="E15" s="15" t="n">
+      <c r="E15" s="7" t="n">
         <v>10.3452400987327</v>
       </c>
-      <c r="F15" s="15" t="n">
+      <c r="F15" s="7" t="n">
         <v>15.6926072369931</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="8" t="n">
         <v>28112.8694610596</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="8" t="n">
         <v>6213.62555280715</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="8" t="n">
         <v>878.559580332195</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="9" t="n">
         <v>22.1024238077651</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="9" t="n">
         <v>14.1392424256284</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="5" t="n">
+      <c r="A17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="11" t="n">
         <f t="shared" ref="B17:C17" si="0">SUM(B6:B16)</f>
         <v>3713876.0777359027</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="11" t="n">
         <f t="shared" si="0"/>
         <v>321555.34658619197</v>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="D17" s="11" t="n">
         <f>SUM(D6:D16)</f>
         <v>38508.235305059607</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="12" t="n">
         <f>C17/B17*100</f>
         <v>8.6582142175896823</v>
       </c>
-      <c r="F17" s="6" t="n">
+      <c r="F17" s="12" t="n">
         <f>D17/C17*100</f>
         <v>11.975616550582711</v>
       </c>
@@ -3215,24 +3215,24 @@
       </c>
     </row>
     <row r="5" ht="39" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="15" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C6" s="32" t="n">
@@ -3243,10 +3243,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="n">
+      <c r="A7" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="13" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="33" t="n">
@@ -3257,10 +3257,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="n">
+      <c r="A8" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="13" t="s">
         <v>98</v>
       </c>
       <c r="C8" s="33" t="n">
@@ -3271,10 +3271,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="n">
+      <c r="A9" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="13" t="s">
         <v>99</v>
       </c>
       <c r="C9" s="33" t="n">
@@ -3285,10 +3285,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="n">
+      <c r="A10" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="13" t="s">
         <v>100</v>
       </c>
       <c r="C10" s="33" t="n">
@@ -3299,10 +3299,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="n">
+      <c r="A11" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="13" t="s">
         <v>125</v>
       </c>
       <c r="C11" s="33" t="n">
@@ -3313,10 +3313,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="n">
+      <c r="A12" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="13" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="33" t="n">
@@ -3327,10 +3327,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="n">
+      <c r="A13" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="13" t="s">
         <v>126</v>
       </c>
       <c r="C13" s="33" t="n">
@@ -3341,10 +3341,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n">
+      <c r="A14" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="13" t="s">
         <v>104</v>
       </c>
       <c r="C14" s="33" t="n">
@@ -3355,10 +3355,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="n">
+      <c r="A15" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="13" t="s">
         <v>105</v>
       </c>
       <c r="C15" s="33" t="n">
@@ -3369,10 +3369,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="n">
+      <c r="A16" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="13" t="s">
         <v>127</v>
       </c>
       <c r="C16" s="33" t="n">
@@ -3383,10 +3383,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="n">
+      <c r="A17" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C17" s="34" t="n">
@@ -3466,292 +3466,292 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="12" t="n">
+      <c r="C6" s="4" t="n">
         <v>4973.21512980122</v>
       </c>
-      <c r="D6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12" t="n">
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
         <v>106.259232219263</v>
       </c>
-      <c r="F6" s="12" t="n">
+      <c r="F6" s="4" t="n">
         <v>1183.13396000334</v>
       </c>
-      <c r="G6" s="12" t="n">
+      <c r="G6" s="4" t="n">
         <v>578.892820553219</v>
       </c>
-      <c r="H6" s="12" t="n">
+      <c r="H6" s="4" t="n">
         <v>13823.0462046566</v>
       </c>
-      <c r="I6" s="12" t="n">
+      <c r="I6" s="4" t="n">
         <v>8414.00219171916</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="14" t="n">
+      <c r="C7" s="6" t="n">
         <v>7147.8627737381</v>
       </c>
-      <c r="D7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14" t="n">
+      <c r="D7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="n">
         <v>370.446764463819</v>
       </c>
-      <c r="F7" s="14" t="n">
+      <c r="F7" s="6" t="n">
         <v>1707.53113561221</v>
       </c>
-      <c r="G7" s="14" t="n">
+      <c r="G7" s="6" t="n">
         <v>673.815179068978</v>
       </c>
-      <c r="H7" s="14" t="n">
+      <c r="H7" s="6" t="n">
         <v>16043.5212738665</v>
       </c>
-      <c r="I7" s="14" t="n">
+      <c r="I7" s="6" t="n">
         <v>12074.9508593088</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="14" t="n">
+      <c r="C8" s="6" t="n">
         <v>13803.9576839744</v>
       </c>
-      <c r="D8" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="14" t="n">
+      <c r="D8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="n">
         <v>568.372122396319</v>
       </c>
-      <c r="F8" s="14" t="n">
+      <c r="F8" s="6" t="n">
         <v>4296.58909694596</v>
       </c>
-      <c r="G8" s="14" t="n">
+      <c r="G8" s="6" t="n">
         <v>1797.57060955125</v>
       </c>
-      <c r="H8" s="14" t="n">
+      <c r="H8" s="6" t="n">
         <v>46870.2761056324</v>
       </c>
-      <c r="I8" s="14" t="n">
+      <c r="I8" s="6" t="n">
         <v>31181.6698884217</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="14" t="n">
+      <c r="C9" s="6" t="n">
         <v>8786.14068020212</v>
       </c>
-      <c r="D9" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14" t="n">
+      <c r="D9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="n">
         <v>570.922820065978</v>
       </c>
-      <c r="F9" s="14" t="n">
+      <c r="F9" s="6" t="n">
         <v>4411.3692366454</v>
       </c>
-      <c r="G9" s="14" t="n">
+      <c r="G9" s="6" t="n">
         <v>1418.47357434982</v>
       </c>
-      <c r="H9" s="14" t="n">
+      <c r="H9" s="6" t="n">
         <v>38762.5526176242</v>
       </c>
-      <c r="I9" s="14" t="n">
+      <c r="I9" s="6" t="n">
         <v>27757.9558097806</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="14" t="n">
+      <c r="C10" s="6" t="n">
         <v>14071.6003952679</v>
       </c>
-      <c r="D10" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14" t="n">
+      <c r="D10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="n">
         <v>710.632280187866</v>
       </c>
-      <c r="F10" s="14" t="n">
+      <c r="F10" s="6" t="n">
         <v>4314.82582226552</v>
       </c>
-      <c r="G10" s="14" t="n">
+      <c r="G10" s="6" t="n">
         <v>1803.9962374649</v>
       </c>
-      <c r="H10" s="14" t="n">
+      <c r="H10" s="6" t="n">
         <v>48231.6342366831</v>
       </c>
-      <c r="I10" s="14" t="n">
+      <c r="I10" s="6" t="n">
         <v>29708.7869242637</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="14" t="n">
+      <c r="C11" s="6" t="n">
         <v>4875.64646059809</v>
       </c>
-      <c r="D11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14" t="n">
+      <c r="D11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="n">
         <v>4896.46960702937</v>
       </c>
-      <c r="F11" s="14" t="n">
+      <c r="F11" s="6" t="n">
         <v>9576.18744387978</v>
       </c>
-      <c r="G11" s="14" t="n">
+      <c r="G11" s="6" t="n">
         <v>1314.21838589622</v>
       </c>
-      <c r="H11" s="14" t="n">
+      <c r="H11" s="6" t="n">
         <v>7267.69415311415</v>
       </c>
-      <c r="I11" s="14" t="n">
+      <c r="I11" s="6" t="n">
         <v>6394.28403376757</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="14" t="n">
+      <c r="C12" s="6" t="n">
         <v>6146.74780403577</v>
       </c>
-      <c r="D12" s="14" t="n">
+      <c r="D12" s="6" t="n">
         <v>79.8859550911261</v>
       </c>
-      <c r="E12" s="14" t="n">
+      <c r="E12" s="6" t="n">
         <v>6178.45394707452</v>
       </c>
-      <c r="F12" s="14" t="n">
+      <c r="F12" s="6" t="n">
         <v>12265.520919156</v>
       </c>
-      <c r="G12" s="14" t="n">
+      <c r="G12" s="6" t="n">
         <v>1332.91641270401</v>
       </c>
-      <c r="H12" s="14" t="n">
+      <c r="H12" s="6" t="n">
         <v>8504.40093347604</v>
       </c>
-      <c r="I12" s="14" t="n">
+      <c r="I12" s="6" t="n">
         <v>7240.38894822003</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="14" t="n">
+      <c r="C13" s="6" t="n">
         <v>13186.4736259066</v>
       </c>
-      <c r="D13" s="14" t="n">
+      <c r="D13" s="6" t="n">
         <v>53.2573033940841</v>
       </c>
-      <c r="E13" s="14" t="n">
+      <c r="E13" s="6" t="n">
         <v>14062.3933245493</v>
       </c>
-      <c r="F13" s="14" t="n">
+      <c r="F13" s="6" t="n">
         <v>28752.1017683618</v>
       </c>
-      <c r="G13" s="14" t="n">
+      <c r="G13" s="6" t="n">
         <v>4195.11692254088</v>
       </c>
-      <c r="H13" s="14" t="n">
+      <c r="H13" s="6" t="n">
         <v>24259.5196123846</v>
       </c>
-      <c r="I13" s="14" t="n">
+      <c r="I13" s="6" t="n">
         <v>19368.9640055935</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="14" t="n">
+      <c r="C14" s="6" t="n">
         <v>10118.4544105721</v>
       </c>
-      <c r="D14" s="14" t="n">
+      <c r="D14" s="6" t="n">
         <v>89.2573613830571</v>
       </c>
-      <c r="E14" s="14" t="n">
+      <c r="E14" s="6" t="n">
         <v>16705.5469241994</v>
       </c>
-      <c r="F14" s="14" t="n">
+      <c r="F14" s="6" t="n">
         <v>31258.916015085</v>
       </c>
-      <c r="G14" s="14" t="n">
+      <c r="G14" s="6" t="n">
         <v>5857.17673988907</v>
       </c>
-      <c r="H14" s="14" t="n">
+      <c r="H14" s="6" t="n">
         <v>29150.2728061712</v>
       </c>
-      <c r="I14" s="14" t="n">
+      <c r="I14" s="6" t="n">
         <v>23982.2551901872</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="8" t="n">
         <v>15846.9883971698</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="8" t="n">
         <v>26.628651697042</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="8" t="n">
         <v>17892.713982131</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="8" t="n">
         <v>36503.6053485611</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="8" t="n">
         <v>5428.61560295022</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="8" t="n">
         <v>31787.2094679519</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="8" t="n">
         <v>25491.4814179695</v>
       </c>
     </row>
@@ -3805,470 +3805,470 @@
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="15" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7"/>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" s="11" t="n">
         <f>SUM(C24:C28)</f>
         <v>48782.776662983742</v>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="D23" s="11" t="n">
         <f t="shared" ref="D23:I23" si="1">SUM(D24:D28)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="5" t="n">
+      <c r="E23" s="11" t="n">
         <f t="shared" si="1"/>
         <v>2326.6332193332451</v>
       </c>
-      <c r="F23" s="5" t="n">
+      <c r="F23" s="11" t="n">
         <f t="shared" si="1"/>
         <v>15913.44925147243</v>
       </c>
-      <c r="G23" s="5" t="n">
+      <c r="G23" s="11" t="n">
         <f t="shared" si="1"/>
         <v>6272.7484209881677</v>
       </c>
-      <c r="H23" s="5" t="n">
+      <c r="H23" s="11" t="n">
         <f t="shared" si="1"/>
         <v>163731.0304384628</v>
       </c>
-      <c r="I23" s="5" t="n">
+      <c r="I23" s="11" t="n">
         <f t="shared" si="1"/>
         <v>109137.36567349396</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="14" t="n">
+      <c r="C24" s="6" t="n">
         <f>C6</f>
         <v>4973.2151298012204</v>
       </c>
-      <c r="D24" s="14" t="n">
+      <c r="D24" s="6" t="n">
         <f t="shared" ref="D24:I24" si="2">D6</f>
         <v>0</v>
       </c>
-      <c r="E24" s="14" t="n">
+      <c r="E24" s="6" t="n">
         <f t="shared" si="2"/>
         <v>106.259232219263</v>
       </c>
-      <c r="F24" s="14" t="n">
+      <c r="F24" s="6" t="n">
         <f t="shared" si="2"/>
         <v>1183.13396000334</v>
       </c>
-      <c r="G24" s="14" t="n">
+      <c r="G24" s="6" t="n">
         <f t="shared" si="2"/>
         <v>578.89282055321905</v>
       </c>
-      <c r="H24" s="14" t="n">
+      <c r="H24" s="6" t="n">
         <f t="shared" si="2"/>
         <v>13823.046204656601</v>
       </c>
-      <c r="I24" s="14" t="n">
+      <c r="I24" s="6" t="n">
         <f t="shared" si="2"/>
         <v>8414.0021917191607</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="14" t="n">
+      <c r="C25" s="6" t="n">
         <f t="shared" ref="C25:I25" si="3">C7</f>
         <v>7147.8627737381003</v>
       </c>
-      <c r="D25" s="14" t="n">
+      <c r="D25" s="6" t="n">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E25" s="14" t="n">
+      <c r="E25" s="6" t="n">
         <f t="shared" si="3"/>
         <v>370.44676446381902</v>
       </c>
-      <c r="F25" s="14" t="n">
+      <c r="F25" s="6" t="n">
         <f t="shared" si="3"/>
         <v>1707.5311356122099</v>
       </c>
-      <c r="G25" s="14" t="n">
+      <c r="G25" s="6" t="n">
         <f t="shared" si="3"/>
         <v>673.81517906897795</v>
       </c>
-      <c r="H25" s="14" t="n">
+      <c r="H25" s="6" t="n">
         <f t="shared" si="3"/>
         <v>16043.5212738665</v>
       </c>
-      <c r="I25" s="14" t="n">
+      <c r="I25" s="6" t="n">
         <f t="shared" si="3"/>
         <v>12074.950859308799</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="7"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="14" t="n">
+      <c r="C26" s="6" t="n">
         <f t="shared" ref="C26:I26" si="4">C8</f>
         <v>13803.9576839744</v>
       </c>
-      <c r="D26" s="14" t="n">
+      <c r="D26" s="6" t="n">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E26" s="14" t="n">
+      <c r="E26" s="6" t="n">
         <f t="shared" si="4"/>
         <v>568.37212239631901</v>
       </c>
-      <c r="F26" s="14" t="n">
+      <c r="F26" s="6" t="n">
         <f t="shared" si="4"/>
         <v>4296.5890969459597</v>
       </c>
-      <c r="G26" s="14" t="n">
+      <c r="G26" s="6" t="n">
         <f t="shared" si="4"/>
         <v>1797.5706095512501</v>
       </c>
-      <c r="H26" s="14" t="n">
+      <c r="H26" s="6" t="n">
         <f t="shared" si="4"/>
         <v>46870.276105632402</v>
       </c>
-      <c r="I26" s="14" t="n">
+      <c r="I26" s="6" t="n">
         <f t="shared" si="4"/>
         <v>31181.6698884217</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="14" t="n">
+      <c r="C27" s="6" t="n">
         <f t="shared" ref="C27:I27" si="5">C9</f>
         <v>8786.1406802021193</v>
       </c>
-      <c r="D27" s="14" t="n">
+      <c r="D27" s="6" t="n">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E27" s="14" t="n">
+      <c r="E27" s="6" t="n">
         <f t="shared" si="5"/>
         <v>570.92282006597804</v>
       </c>
-      <c r="F27" s="14" t="n">
+      <c r="F27" s="6" t="n">
         <f t="shared" si="5"/>
         <v>4411.3692366453997</v>
       </c>
-      <c r="G27" s="14" t="n">
+      <c r="G27" s="6" t="n">
         <f t="shared" si="5"/>
         <v>1418.47357434982</v>
       </c>
-      <c r="H27" s="14" t="n">
+      <c r="H27" s="6" t="n">
         <f t="shared" si="5"/>
         <v>38762.552617624198</v>
       </c>
-      <c r="I27" s="14" t="n">
+      <c r="I27" s="6" t="n">
         <f t="shared" si="5"/>
         <v>27757.9558097806</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="14" t="n">
+      <c r="C28" s="6" t="n">
         <f t="shared" ref="C28:I28" si="6">C10</f>
         <v>14071.6003952679</v>
       </c>
-      <c r="D28" s="14" t="n">
+      <c r="D28" s="6" t="n">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E28" s="14" t="n">
+      <c r="E28" s="6" t="n">
         <f t="shared" si="6"/>
         <v>710.63228018786594</v>
       </c>
-      <c r="F28" s="14" t="n">
+      <c r="F28" s="6" t="n">
         <f t="shared" si="6"/>
         <v>4314.8258222655204</v>
       </c>
-      <c r="G28" s="14" t="n">
+      <c r="G28" s="6" t="n">
         <f t="shared" si="6"/>
         <v>1803.9962374649001</v>
       </c>
-      <c r="H28" s="14" t="n">
+      <c r="H28" s="6" t="n">
         <f t="shared" si="6"/>
         <v>48231.634236683101</v>
       </c>
-      <c r="I28" s="14" t="n">
+      <c r="I28" s="6" t="n">
         <f t="shared" si="6"/>
         <v>29708.786924263699</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="5" t="n">
+      <c r="C29" s="11" t="n">
         <f>SUM(C30:C34)</f>
         <v>50174.310698282359</v>
       </c>
-      <c r="D29" s="5" t="n">
+      <c r="D29" s="11" t="n">
         <f t="shared" ref="D29:I29" si="7">SUM(D30:D34)</f>
         <v>249.0292715653093</v>
       </c>
-      <c r="E29" s="5" t="n">
+      <c r="E29" s="11" t="n">
         <f t="shared" si="7"/>
         <v>59735.577784983587</v>
       </c>
-      <c r="F29" s="5" t="n">
+      <c r="F29" s="11" t="n">
         <f t="shared" si="7"/>
         <v>118356.33149504368</v>
       </c>
-      <c r="G29" s="5" t="n">
+      <c r="G29" s="11" t="n">
         <f t="shared" si="7"/>
         <v>18128.0440639804</v>
       </c>
-      <c r="H29" s="5" t="n">
+      <c r="H29" s="11" t="n">
         <f t="shared" si="7"/>
         <v>100969.09697309788</v>
       </c>
-      <c r="I29" s="5" t="n">
+      <c r="I29" s="11" t="n">
         <f t="shared" si="7"/>
         <v>82477.373595737794</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="14" t="n">
+      <c r="C30" s="6" t="n">
         <f t="shared" ref="C30:I30" si="8">C11</f>
         <v>4875.64646059809</v>
       </c>
-      <c r="D30" s="14" t="n">
+      <c r="D30" s="6" t="n">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E30" s="14" t="n">
+      <c r="E30" s="6" t="n">
         <f t="shared" si="8"/>
         <v>4896.4696070293703</v>
       </c>
-      <c r="F30" s="14" t="n">
+      <c r="F30" s="6" t="n">
         <f t="shared" si="8"/>
         <v>9576.1874438797804</v>
       </c>
-      <c r="G30" s="14" t="n">
+      <c r="G30" s="6" t="n">
         <f t="shared" si="8"/>
         <v>1314.2183858962201</v>
       </c>
-      <c r="H30" s="14" t="n">
+      <c r="H30" s="6" t="n">
         <f t="shared" si="8"/>
         <v>7267.6941531141501</v>
       </c>
-      <c r="I30" s="14" t="n">
+      <c r="I30" s="6" t="n">
         <f t="shared" si="8"/>
         <v>6394.2840337675698</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="14" t="n">
+      <c r="C31" s="6" t="n">
         <f t="shared" ref="C31:I31" si="9">C12</f>
         <v>6146.7478040357701</v>
       </c>
-      <c r="D31" s="14" t="n">
+      <c r="D31" s="6" t="n">
         <f t="shared" si="9"/>
         <v>79.885955091126107</v>
       </c>
-      <c r="E31" s="14" t="n">
+      <c r="E31" s="6" t="n">
         <f t="shared" si="9"/>
         <v>6178.4539470745203</v>
       </c>
-      <c r="F31" s="14" t="n">
+      <c r="F31" s="6" t="n">
         <f t="shared" si="9"/>
         <v>12265.520919156001</v>
       </c>
-      <c r="G31" s="14" t="n">
+      <c r="G31" s="6" t="n">
         <f t="shared" si="9"/>
         <v>1332.9164127040101</v>
       </c>
-      <c r="H31" s="14" t="n">
+      <c r="H31" s="6" t="n">
         <f t="shared" si="9"/>
         <v>8504.4009334760394</v>
       </c>
-      <c r="I31" s="14" t="n">
+      <c r="I31" s="6" t="n">
         <f t="shared" si="9"/>
         <v>7240.3889482200302</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="14" t="n">
+      <c r="C32" s="6" t="n">
         <f t="shared" ref="C32:I32" si="10">C13</f>
         <v>13186.473625906599</v>
       </c>
-      <c r="D32" s="14" t="n">
+      <c r="D32" s="6" t="n">
         <f t="shared" si="10"/>
         <v>53.257303394084097</v>
       </c>
-      <c r="E32" s="14" t="n">
+      <c r="E32" s="6" t="n">
         <f t="shared" si="10"/>
         <v>14062.393324549301</v>
       </c>
-      <c r="F32" s="14" t="n">
+      <c r="F32" s="6" t="n">
         <f t="shared" si="10"/>
         <v>28752.101768361801</v>
       </c>
-      <c r="G32" s="14" t="n">
+      <c r="G32" s="6" t="n">
         <f t="shared" si="10"/>
         <v>4195.1169225408803</v>
       </c>
-      <c r="H32" s="14" t="n">
+      <c r="H32" s="6" t="n">
         <f t="shared" si="10"/>
         <v>24259.5196123846</v>
       </c>
-      <c r="I32" s="14" t="n">
+      <c r="I32" s="6" t="n">
         <f t="shared" si="10"/>
         <v>19368.964005593501</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="7"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="14" t="n">
+      <c r="C33" s="6" t="n">
         <f t="shared" ref="C33:I33" si="11">C14</f>
         <v>10118.4544105721</v>
       </c>
-      <c r="D33" s="14" t="n">
+      <c r="D33" s="6" t="n">
         <f t="shared" si="11"/>
         <v>89.257361383057102</v>
       </c>
-      <c r="E33" s="14" t="n">
+      <c r="E33" s="6" t="n">
         <f t="shared" si="11"/>
         <v>16705.5469241994</v>
       </c>
-      <c r="F33" s="14" t="n">
+      <c r="F33" s="6" t="n">
         <f t="shared" si="11"/>
         <v>31258.916015085</v>
       </c>
-      <c r="G33" s="14" t="n">
+      <c r="G33" s="6" t="n">
         <f t="shared" si="11"/>
         <v>5857.1767398890697</v>
       </c>
-      <c r="H33" s="14" t="n">
+      <c r="H33" s="6" t="n">
         <f t="shared" si="11"/>
         <v>29150.272806171201</v>
       </c>
-      <c r="I33" s="14" t="n">
+      <c r="I33" s="6" t="n">
         <f t="shared" si="11"/>
         <v>23982.255190187199</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="8" t="n">
         <f t="shared" ref="C34:I34" si="12">C15</f>
         <v>15846.9883971698</v>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" s="8" t="n">
         <f t="shared" si="12"/>
         <v>26.628651697041999</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="8" t="n">
         <f t="shared" si="12"/>
         <v>17892.713982131001</v>
       </c>
-      <c r="F34" s="2" t="n">
+      <c r="F34" s="8" t="n">
         <f t="shared" si="12"/>
         <v>36503.605348561097</v>
       </c>
-      <c r="G34" s="2" t="n">
+      <c r="G34" s="8" t="n">
         <f t="shared" si="12"/>
         <v>5428.6156029502199</v>
       </c>
-      <c r="H34" s="2" t="n">
+      <c r="H34" s="8" t="n">
         <f t="shared" si="12"/>
         <v>31787.2094679519</v>
       </c>
-      <c r="I34" s="2" t="n">
+      <c r="I34" s="8" t="n">
         <f t="shared" si="12"/>
         <v>25491.481417969499</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="7"/>
-      <c r="B35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="5" t="n">
+      <c r="A35" s="13"/>
+      <c r="B35" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="11" t="n">
         <f t="shared" ref="C35:I35" si="13">C16</f>
         <v>98957.087361266094</v>
       </c>
-      <c r="D35" s="5" t="n">
+      <c r="D35" s="11" t="n">
         <f t="shared" si="13"/>
         <v>249.0292715653093</v>
       </c>
-      <c r="E35" s="5" t="n">
+      <c r="E35" s="11" t="n">
         <f t="shared" si="13"/>
         <v>62062.211004316836</v>
       </c>
-      <c r="F35" s="5" t="n">
+      <c r="F35" s="11" t="n">
         <f t="shared" si="13"/>
         <v>134269.7807465161</v>
       </c>
-      <c r="G35" s="5" t="n">
+      <c r="G35" s="11" t="n">
         <f t="shared" si="13"/>
         <v>24400.792484968566</v>
       </c>
-      <c r="H35" s="5" t="n">
+      <c r="H35" s="11" t="n">
         <f t="shared" si="13"/>
         <v>264700.12741156074</v>
       </c>
-      <c r="I35" s="5" t="n">
+      <c r="I35" s="11" t="n">
         <f t="shared" si="13"/>
         <v>191614.73926923177</v>
       </c>

--- a/data/outputs/vulnerability.xlsx
+++ b/data/outputs/vulnerability.xlsx
@@ -532,8 +532,6 @@
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -550,6 +548,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -913,266 +913,266 @@
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="13" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="2" t="n">
         <v>307650.146942139</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="2" t="n">
         <v>6435.03022049499</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="2" t="n">
         <v>476.838427902775</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="3" t="n">
         <v>2.09167142757948</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="3" t="n">
         <v>7.41004178013163</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="6" t="n">
+      <c r="B7" s="4" t="n">
         <v>1206504.07788086</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="4" t="n">
         <v>92179.8457883116</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="4" t="n">
         <v>5066.74151911133</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="5" t="n">
         <v>7.64024320168226</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="5" t="n">
         <v>5.49658276793711</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="6" t="n">
+      <c r="B8" s="4" t="n">
         <v>251397.482635498</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="4" t="n">
         <v>35789.4377766381</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="4" t="n">
         <v>4667.04591016061</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="5" t="n">
         <v>14.2361957651459</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="5" t="n">
         <v>13.0402884205325</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="6" t="n">
+      <c r="B9" s="4" t="n">
         <v>454697.773071289</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="4" t="n">
         <v>22139.8155128333</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="4" t="n">
         <v>4076.88789731897</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="5" t="n">
         <v>4.86912776442433</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="F9" s="5" t="n">
         <v>18.4142812525055</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="6" t="n">
+      <c r="B10" s="4" t="n">
         <v>150422.450592041</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="4" t="n">
         <v>19075.150272623</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="4" t="n">
         <v>2120.22698906199</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="5" t="n">
         <v>12.6810527268675</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="F10" s="5" t="n">
         <v>11.1151260082338</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="6" t="n">
+      <c r="B11" s="4" t="n">
         <v>370641.704589844</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="4" t="n">
         <v>23388.2371438457</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="4" t="n">
         <v>3902.20483830774</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="5" t="n">
         <v>6.31020116037059</v>
       </c>
-      <c r="F11" s="7" t="n">
+      <c r="F11" s="5" t="n">
         <v>16.6844761078308</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="6" t="n">
+      <c r="B12" s="4" t="n">
         <v>104588.229454041</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="4" t="n">
         <v>11580.1211283283</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="4" t="n">
         <v>2931.90677357178</v>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="5" t="n">
         <v>11.0721074338647</v>
       </c>
-      <c r="F12" s="7" t="n">
+      <c r="F12" s="5" t="n">
         <v>25.3184465091604</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="6" t="n">
+      <c r="B13" s="4" t="n">
         <v>285437.542541504</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="4" t="n">
         <v>45638.7830630811</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="4" t="n">
         <v>7934.30784711264</v>
       </c>
-      <c r="E13" s="7" t="n">
+      <c r="E13" s="5" t="n">
         <v>15.989061094318</v>
       </c>
-      <c r="F13" s="7" t="n">
+      <c r="F13" s="5" t="n">
         <v>17.3850118574503</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="6" t="n">
+      <c r="B14" s="4" t="n">
         <v>459035.027801514</v>
       </c>
-      <c r="C14" s="6" t="n">
+      <c r="C14" s="4" t="n">
         <v>49247.1025573398</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="4" t="n">
         <v>4904.93803616641</v>
       </c>
-      <c r="E14" s="7" t="n">
+      <c r="E14" s="5" t="n">
         <v>10.7283975240848</v>
       </c>
-      <c r="F14" s="7" t="n">
+      <c r="F14" s="5" t="n">
         <v>9.9598509992653</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="6" t="n">
+      <c r="B15" s="4" t="n">
         <v>95388.7727661133</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="4" t="n">
         <v>9868.19756988892</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="4" t="n">
         <v>1548.57748601317</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="5" t="n">
         <v>10.3452400987327</v>
       </c>
-      <c r="F15" s="7" t="n">
+      <c r="F15" s="5" t="n">
         <v>15.6926072369931</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="8" t="n">
+      <c r="B16" s="6" t="n">
         <v>28112.8694610596</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="6" t="n">
         <v>6213.62555280715</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="6" t="n">
         <v>878.559580332195</v>
       </c>
-      <c r="E16" s="9" t="n">
+      <c r="E16" s="7" t="n">
         <v>22.1024238077651</v>
       </c>
-      <c r="F16" s="9" t="n">
+      <c r="F16" s="7" t="n">
         <v>14.1392424256284</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="11" t="n">
+      <c r="A17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="9" t="n">
         <f t="shared" ref="B17:C17" si="0">SUM(B6:B16)</f>
         <v>3713876.0777359027</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="9" t="n">
         <f t="shared" si="0"/>
         <v>321555.34658619197</v>
       </c>
-      <c r="D17" s="11" t="n">
+      <c r="D17" s="9" t="n">
         <f>SUM(D6:D16)</f>
         <v>38508.235305059607</v>
       </c>
-      <c r="E17" s="12" t="n">
+      <c r="E17" s="10" t="n">
         <f>C17/B17*100</f>
         <v>8.6582142175896823</v>
       </c>
-      <c r="F17" s="12" t="n">
+      <c r="F17" s="10" t="n">
         <f>D17/C17*100</f>
         <v>11.975616550582711</v>
       </c>
@@ -3215,24 +3215,24 @@
       </c>
     </row>
     <row r="5" ht="39" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>96</v>
       </c>
       <c r="C6" s="32" t="n">
@@ -3243,10 +3243,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="n">
+      <c r="A7" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="33" t="n">
@@ -3257,10 +3257,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="n">
+      <c r="A8" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>98</v>
       </c>
       <c r="C8" s="33" t="n">
@@ -3271,10 +3271,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="n">
+      <c r="A9" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C9" s="33" t="n">
@@ -3285,10 +3285,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="n">
+      <c r="A10" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>100</v>
       </c>
       <c r="C10" s="33" t="n">
@@ -3299,10 +3299,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="n">
+      <c r="A11" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>125</v>
       </c>
       <c r="C11" s="33" t="n">
@@ -3313,10 +3313,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="n">
+      <c r="A12" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="33" t="n">
@@ -3327,10 +3327,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="13" t="n">
+      <c r="A13" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>126</v>
       </c>
       <c r="C13" s="33" t="n">
@@ -3341,10 +3341,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="n">
+      <c r="A14" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>104</v>
       </c>
       <c r="C14" s="33" t="n">
@@ -3355,10 +3355,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="n">
+      <c r="A15" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>105</v>
       </c>
       <c r="C15" s="33" t="n">
@@ -3369,10 +3369,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="n">
+      <c r="A16" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>127</v>
       </c>
       <c r="C16" s="33" t="n">
@@ -3383,10 +3383,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="15" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C17" s="34" t="n">
@@ -3466,292 +3466,292 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="2" t="n">
         <v>4973.21512980122</v>
       </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <v>106.259232219263</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="2" t="n">
         <v>1183.13396000334</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="2" t="n">
         <v>578.892820553219</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="2" t="n">
         <v>13823.0462046566</v>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="2" t="n">
         <v>8414.00219171916</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="4" t="n">
         <v>7147.8627737381</v>
       </c>
-      <c r="D7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6" t="n">
+      <c r="D7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="n">
         <v>370.446764463819</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="4" t="n">
         <v>1707.53113561221</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G7" s="4" t="n">
         <v>673.815179068978</v>
       </c>
-      <c r="H7" s="6" t="n">
+      <c r="H7" s="4" t="n">
         <v>16043.5212738665</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="4" t="n">
         <v>12074.9508593088</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="4" t="n">
         <v>13803.9576839744</v>
       </c>
-      <c r="D8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6" t="n">
+      <c r="D8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="n">
         <v>568.372122396319</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="4" t="n">
         <v>4296.58909694596</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="4" t="n">
         <v>1797.57060955125</v>
       </c>
-      <c r="H8" s="6" t="n">
+      <c r="H8" s="4" t="n">
         <v>46870.2761056324</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="4" t="n">
         <v>31181.6698884217</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="4" t="n">
         <v>8786.14068020212</v>
       </c>
-      <c r="D9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="n">
         <v>570.922820065978</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="4" t="n">
         <v>4411.3692366454</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="4" t="n">
         <v>1418.47357434982</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="H9" s="4" t="n">
         <v>38762.5526176242</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="4" t="n">
         <v>27757.9558097806</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="4" t="n">
         <v>14071.6003952679</v>
       </c>
-      <c r="D10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6" t="n">
+      <c r="D10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="n">
         <v>710.632280187866</v>
       </c>
-      <c r="F10" s="6" t="n">
+      <c r="F10" s="4" t="n">
         <v>4314.82582226552</v>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="4" t="n">
         <v>1803.9962374649</v>
       </c>
-      <c r="H10" s="6" t="n">
+      <c r="H10" s="4" t="n">
         <v>48231.6342366831</v>
       </c>
-      <c r="I10" s="6" t="n">
+      <c r="I10" s="4" t="n">
         <v>29708.7869242637</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="4" t="n">
         <v>4875.64646059809</v>
       </c>
-      <c r="D11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6" t="n">
+      <c r="D11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="n">
         <v>4896.46960702937</v>
       </c>
-      <c r="F11" s="6" t="n">
+      <c r="F11" s="4" t="n">
         <v>9576.18744387978</v>
       </c>
-      <c r="G11" s="6" t="n">
+      <c r="G11" s="4" t="n">
         <v>1314.21838589622</v>
       </c>
-      <c r="H11" s="6" t="n">
+      <c r="H11" s="4" t="n">
         <v>7267.69415311415</v>
       </c>
-      <c r="I11" s="6" t="n">
+      <c r="I11" s="4" t="n">
         <v>6394.28403376757</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="4" t="n">
         <v>6146.74780403577</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="4" t="n">
         <v>79.8859550911261</v>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E12" s="4" t="n">
         <v>6178.45394707452</v>
       </c>
-      <c r="F12" s="6" t="n">
+      <c r="F12" s="4" t="n">
         <v>12265.520919156</v>
       </c>
-      <c r="G12" s="6" t="n">
+      <c r="G12" s="4" t="n">
         <v>1332.91641270401</v>
       </c>
-      <c r="H12" s="6" t="n">
+      <c r="H12" s="4" t="n">
         <v>8504.40093347604</v>
       </c>
-      <c r="I12" s="6" t="n">
+      <c r="I12" s="4" t="n">
         <v>7240.38894822003</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="4" t="n">
         <v>13186.4736259066</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="4" t="n">
         <v>53.2573033940841</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="4" t="n">
         <v>14062.3933245493</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F13" s="4" t="n">
         <v>28752.1017683618</v>
       </c>
-      <c r="G13" s="6" t="n">
+      <c r="G13" s="4" t="n">
         <v>4195.11692254088</v>
       </c>
-      <c r="H13" s="6" t="n">
+      <c r="H13" s="4" t="n">
         <v>24259.5196123846</v>
       </c>
-      <c r="I13" s="6" t="n">
+      <c r="I13" s="4" t="n">
         <v>19368.9640055935</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="6" t="n">
+      <c r="C14" s="4" t="n">
         <v>10118.4544105721</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="4" t="n">
         <v>89.2573613830571</v>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="4" t="n">
         <v>16705.5469241994</v>
       </c>
-      <c r="F14" s="6" t="n">
+      <c r="F14" s="4" t="n">
         <v>31258.916015085</v>
       </c>
-      <c r="G14" s="6" t="n">
+      <c r="G14" s="4" t="n">
         <v>5857.17673988907</v>
       </c>
-      <c r="H14" s="6" t="n">
+      <c r="H14" s="4" t="n">
         <v>29150.2728061712</v>
       </c>
-      <c r="I14" s="6" t="n">
+      <c r="I14" s="4" t="n">
         <v>23982.2551901872</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="8" t="n">
+      <c r="C15" s="6" t="n">
         <v>15846.9883971698</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="6" t="n">
         <v>26.628651697042</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="6" t="n">
         <v>17892.713982131</v>
       </c>
-      <c r="F15" s="8" t="n">
+      <c r="F15" s="6" t="n">
         <v>36503.6053485611</v>
       </c>
-      <c r="G15" s="8" t="n">
+      <c r="G15" s="6" t="n">
         <v>5428.61560295022</v>
       </c>
-      <c r="H15" s="8" t="n">
+      <c r="H15" s="6" t="n">
         <v>31787.2094679519</v>
       </c>
-      <c r="I15" s="8" t="n">
+      <c r="I15" s="6" t="n">
         <v>25491.4814179695</v>
       </c>
     </row>
@@ -3805,470 +3805,470 @@
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="13"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="11" t="n">
+      <c r="C23" s="9" t="n">
         <f>SUM(C24:C28)</f>
         <v>48782.776662983742</v>
       </c>
-      <c r="D23" s="11" t="n">
+      <c r="D23" s="9" t="n">
         <f t="shared" ref="D23:I23" si="1">SUM(D24:D28)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="11" t="n">
+      <c r="E23" s="9" t="n">
         <f t="shared" si="1"/>
         <v>2326.6332193332451</v>
       </c>
-      <c r="F23" s="11" t="n">
+      <c r="F23" s="9" t="n">
         <f t="shared" si="1"/>
         <v>15913.44925147243</v>
       </c>
-      <c r="G23" s="11" t="n">
+      <c r="G23" s="9" t="n">
         <f t="shared" si="1"/>
         <v>6272.7484209881677</v>
       </c>
-      <c r="H23" s="11" t="n">
+      <c r="H23" s="9" t="n">
         <f t="shared" si="1"/>
         <v>163731.0304384628</v>
       </c>
-      <c r="I23" s="11" t="n">
+      <c r="I23" s="9" t="n">
         <f t="shared" si="1"/>
         <v>109137.36567349396</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="13"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="6" t="n">
+      <c r="C24" s="4" t="n">
         <f>C6</f>
         <v>4973.2151298012204</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="D24" s="4" t="n">
         <f t="shared" ref="D24:I24" si="2">D6</f>
         <v>0</v>
       </c>
-      <c r="E24" s="6" t="n">
+      <c r="E24" s="4" t="n">
         <f t="shared" si="2"/>
         <v>106.259232219263</v>
       </c>
-      <c r="F24" s="6" t="n">
+      <c r="F24" s="4" t="n">
         <f t="shared" si="2"/>
         <v>1183.13396000334</v>
       </c>
-      <c r="G24" s="6" t="n">
+      <c r="G24" s="4" t="n">
         <f t="shared" si="2"/>
         <v>578.89282055321905</v>
       </c>
-      <c r="H24" s="6" t="n">
+      <c r="H24" s="4" t="n">
         <f t="shared" si="2"/>
         <v>13823.046204656601</v>
       </c>
-      <c r="I24" s="6" t="n">
+      <c r="I24" s="4" t="n">
         <f t="shared" si="2"/>
         <v>8414.0021917191607</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="13"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="6" t="n">
+      <c r="C25" s="4" t="n">
         <f t="shared" ref="C25:I25" si="3">C7</f>
         <v>7147.8627737381003</v>
       </c>
-      <c r="D25" s="6" t="n">
+      <c r="D25" s="4" t="n">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E25" s="6" t="n">
+      <c r="E25" s="4" t="n">
         <f t="shared" si="3"/>
         <v>370.44676446381902</v>
       </c>
-      <c r="F25" s="6" t="n">
+      <c r="F25" s="4" t="n">
         <f t="shared" si="3"/>
         <v>1707.5311356122099</v>
       </c>
-      <c r="G25" s="6" t="n">
+      <c r="G25" s="4" t="n">
         <f t="shared" si="3"/>
         <v>673.81517906897795</v>
       </c>
-      <c r="H25" s="6" t="n">
+      <c r="H25" s="4" t="n">
         <f t="shared" si="3"/>
         <v>16043.5212738665</v>
       </c>
-      <c r="I25" s="6" t="n">
+      <c r="I25" s="4" t="n">
         <f t="shared" si="3"/>
         <v>12074.950859308799</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="13"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="6" t="n">
+      <c r="C26" s="4" t="n">
         <f t="shared" ref="C26:I26" si="4">C8</f>
         <v>13803.9576839744</v>
       </c>
-      <c r="D26" s="6" t="n">
+      <c r="D26" s="4" t="n">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E26" s="6" t="n">
+      <c r="E26" s="4" t="n">
         <f t="shared" si="4"/>
         <v>568.37212239631901</v>
       </c>
-      <c r="F26" s="6" t="n">
+      <c r="F26" s="4" t="n">
         <f t="shared" si="4"/>
         <v>4296.5890969459597</v>
       </c>
-      <c r="G26" s="6" t="n">
+      <c r="G26" s="4" t="n">
         <f t="shared" si="4"/>
         <v>1797.5706095512501</v>
       </c>
-      <c r="H26" s="6" t="n">
+      <c r="H26" s="4" t="n">
         <f t="shared" si="4"/>
         <v>46870.276105632402</v>
       </c>
-      <c r="I26" s="6" t="n">
+      <c r="I26" s="4" t="n">
         <f t="shared" si="4"/>
         <v>31181.6698884217</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="13"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="6" t="n">
+      <c r="C27" s="4" t="n">
         <f t="shared" ref="C27:I27" si="5">C9</f>
         <v>8786.1406802021193</v>
       </c>
-      <c r="D27" s="6" t="n">
+      <c r="D27" s="4" t="n">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E27" s="6" t="n">
+      <c r="E27" s="4" t="n">
         <f t="shared" si="5"/>
         <v>570.92282006597804</v>
       </c>
-      <c r="F27" s="6" t="n">
+      <c r="F27" s="4" t="n">
         <f t="shared" si="5"/>
         <v>4411.3692366453997</v>
       </c>
-      <c r="G27" s="6" t="n">
+      <c r="G27" s="4" t="n">
         <f t="shared" si="5"/>
         <v>1418.47357434982</v>
       </c>
-      <c r="H27" s="6" t="n">
+      <c r="H27" s="4" t="n">
         <f t="shared" si="5"/>
         <v>38762.552617624198</v>
       </c>
-      <c r="I27" s="6" t="n">
+      <c r="I27" s="4" t="n">
         <f t="shared" si="5"/>
         <v>27757.9558097806</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="13"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="6" t="n">
+      <c r="C28" s="4" t="n">
         <f t="shared" ref="C28:I28" si="6">C10</f>
         <v>14071.6003952679</v>
       </c>
-      <c r="D28" s="6" t="n">
+      <c r="D28" s="4" t="n">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E28" s="6" t="n">
+      <c r="E28" s="4" t="n">
         <f t="shared" si="6"/>
         <v>710.63228018786594</v>
       </c>
-      <c r="F28" s="6" t="n">
+      <c r="F28" s="4" t="n">
         <f t="shared" si="6"/>
         <v>4314.8258222655204</v>
       </c>
-      <c r="G28" s="6" t="n">
+      <c r="G28" s="4" t="n">
         <f t="shared" si="6"/>
         <v>1803.9962374649001</v>
       </c>
-      <c r="H28" s="6" t="n">
+      <c r="H28" s="4" t="n">
         <f t="shared" si="6"/>
         <v>48231.634236683101</v>
       </c>
-      <c r="I28" s="6" t="n">
+      <c r="I28" s="4" t="n">
         <f t="shared" si="6"/>
         <v>29708.786924263699</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="13"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="11" t="n">
+      <c r="C29" s="9" t="n">
         <f>SUM(C30:C34)</f>
         <v>50174.310698282359</v>
       </c>
-      <c r="D29" s="11" t="n">
+      <c r="D29" s="9" t="n">
         <f t="shared" ref="D29:I29" si="7">SUM(D30:D34)</f>
         <v>249.0292715653093</v>
       </c>
-      <c r="E29" s="11" t="n">
+      <c r="E29" s="9" t="n">
         <f t="shared" si="7"/>
         <v>59735.577784983587</v>
       </c>
-      <c r="F29" s="11" t="n">
+      <c r="F29" s="9" t="n">
         <f t="shared" si="7"/>
         <v>118356.33149504368</v>
       </c>
-      <c r="G29" s="11" t="n">
+      <c r="G29" s="9" t="n">
         <f t="shared" si="7"/>
         <v>18128.0440639804</v>
       </c>
-      <c r="H29" s="11" t="n">
+      <c r="H29" s="9" t="n">
         <f t="shared" si="7"/>
         <v>100969.09697309788</v>
       </c>
-      <c r="I29" s="11" t="n">
+      <c r="I29" s="9" t="n">
         <f t="shared" si="7"/>
         <v>82477.373595737794</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="13"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="6" t="n">
+      <c r="C30" s="4" t="n">
         <f t="shared" ref="C30:I30" si="8">C11</f>
         <v>4875.64646059809</v>
       </c>
-      <c r="D30" s="6" t="n">
+      <c r="D30" s="4" t="n">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E30" s="6" t="n">
+      <c r="E30" s="4" t="n">
         <f t="shared" si="8"/>
         <v>4896.4696070293703</v>
       </c>
-      <c r="F30" s="6" t="n">
+      <c r="F30" s="4" t="n">
         <f t="shared" si="8"/>
         <v>9576.1874438797804</v>
       </c>
-      <c r="G30" s="6" t="n">
+      <c r="G30" s="4" t="n">
         <f t="shared" si="8"/>
         <v>1314.2183858962201</v>
       </c>
-      <c r="H30" s="6" t="n">
+      <c r="H30" s="4" t="n">
         <f t="shared" si="8"/>
         <v>7267.6941531141501</v>
       </c>
-      <c r="I30" s="6" t="n">
+      <c r="I30" s="4" t="n">
         <f t="shared" si="8"/>
         <v>6394.2840337675698</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="13"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="6" t="n">
+      <c r="C31" s="4" t="n">
         <f t="shared" ref="C31:I31" si="9">C12</f>
         <v>6146.7478040357701</v>
       </c>
-      <c r="D31" s="6" t="n">
+      <c r="D31" s="4" t="n">
         <f t="shared" si="9"/>
         <v>79.885955091126107</v>
       </c>
-      <c r="E31" s="6" t="n">
+      <c r="E31" s="4" t="n">
         <f t="shared" si="9"/>
         <v>6178.4539470745203</v>
       </c>
-      <c r="F31" s="6" t="n">
+      <c r="F31" s="4" t="n">
         <f t="shared" si="9"/>
         <v>12265.520919156001</v>
       </c>
-      <c r="G31" s="6" t="n">
+      <c r="G31" s="4" t="n">
         <f t="shared" si="9"/>
         <v>1332.9164127040101</v>
       </c>
-      <c r="H31" s="6" t="n">
+      <c r="H31" s="4" t="n">
         <f t="shared" si="9"/>
         <v>8504.4009334760394</v>
       </c>
-      <c r="I31" s="6" t="n">
+      <c r="I31" s="4" t="n">
         <f t="shared" si="9"/>
         <v>7240.3889482200302</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="13"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="6" t="n">
+      <c r="C32" s="4" t="n">
         <f t="shared" ref="C32:I32" si="10">C13</f>
         <v>13186.473625906599</v>
       </c>
-      <c r="D32" s="6" t="n">
+      <c r="D32" s="4" t="n">
         <f t="shared" si="10"/>
         <v>53.257303394084097</v>
       </c>
-      <c r="E32" s="6" t="n">
+      <c r="E32" s="4" t="n">
         <f t="shared" si="10"/>
         <v>14062.393324549301</v>
       </c>
-      <c r="F32" s="6" t="n">
+      <c r="F32" s="4" t="n">
         <f t="shared" si="10"/>
         <v>28752.101768361801</v>
       </c>
-      <c r="G32" s="6" t="n">
+      <c r="G32" s="4" t="n">
         <f t="shared" si="10"/>
         <v>4195.1169225408803</v>
       </c>
-      <c r="H32" s="6" t="n">
+      <c r="H32" s="4" t="n">
         <f t="shared" si="10"/>
         <v>24259.5196123846</v>
       </c>
-      <c r="I32" s="6" t="n">
+      <c r="I32" s="4" t="n">
         <f t="shared" si="10"/>
         <v>19368.964005593501</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="13"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="6" t="n">
+      <c r="C33" s="4" t="n">
         <f t="shared" ref="C33:I33" si="11">C14</f>
         <v>10118.4544105721</v>
       </c>
-      <c r="D33" s="6" t="n">
+      <c r="D33" s="4" t="n">
         <f t="shared" si="11"/>
         <v>89.257361383057102</v>
       </c>
-      <c r="E33" s="6" t="n">
+      <c r="E33" s="4" t="n">
         <f t="shared" si="11"/>
         <v>16705.5469241994</v>
       </c>
-      <c r="F33" s="6" t="n">
+      <c r="F33" s="4" t="n">
         <f t="shared" si="11"/>
         <v>31258.916015085</v>
       </c>
-      <c r="G33" s="6" t="n">
+      <c r="G33" s="4" t="n">
         <f t="shared" si="11"/>
         <v>5857.1767398890697</v>
       </c>
-      <c r="H33" s="6" t="n">
+      <c r="H33" s="4" t="n">
         <f t="shared" si="11"/>
         <v>29150.272806171201</v>
       </c>
-      <c r="I33" s="6" t="n">
+      <c r="I33" s="4" t="n">
         <f t="shared" si="11"/>
         <v>23982.255190187199</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="13"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="8" t="n">
+      <c r="C34" s="6" t="n">
         <f t="shared" ref="C34:I34" si="12">C15</f>
         <v>15846.9883971698</v>
       </c>
-      <c r="D34" s="8" t="n">
+      <c r="D34" s="6" t="n">
         <f t="shared" si="12"/>
         <v>26.628651697041999</v>
       </c>
-      <c r="E34" s="8" t="n">
+      <c r="E34" s="6" t="n">
         <f t="shared" si="12"/>
         <v>17892.713982131001</v>
       </c>
-      <c r="F34" s="8" t="n">
+      <c r="F34" s="6" t="n">
         <f t="shared" si="12"/>
         <v>36503.605348561097</v>
       </c>
-      <c r="G34" s="8" t="n">
+      <c r="G34" s="6" t="n">
         <f t="shared" si="12"/>
         <v>5428.6156029502199</v>
       </c>
-      <c r="H34" s="8" t="n">
+      <c r="H34" s="6" t="n">
         <f t="shared" si="12"/>
         <v>31787.2094679519</v>
       </c>
-      <c r="I34" s="8" t="n">
+      <c r="I34" s="6" t="n">
         <f t="shared" si="12"/>
         <v>25491.481417969499</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="13"/>
-      <c r="B35" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="11" t="n">
+      <c r="A35" s="11"/>
+      <c r="B35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="9" t="n">
         <f t="shared" ref="C35:I35" si="13">C16</f>
         <v>98957.087361266094</v>
       </c>
-      <c r="D35" s="11" t="n">
+      <c r="D35" s="9" t="n">
         <f t="shared" si="13"/>
         <v>249.0292715653093</v>
       </c>
-      <c r="E35" s="11" t="n">
+      <c r="E35" s="9" t="n">
         <f t="shared" si="13"/>
         <v>62062.211004316836</v>
       </c>
-      <c r="F35" s="11" t="n">
+      <c r="F35" s="9" t="n">
         <f t="shared" si="13"/>
         <v>134269.7807465161</v>
       </c>
-      <c r="G35" s="11" t="n">
+      <c r="G35" s="9" t="n">
         <f t="shared" si="13"/>
         <v>24400.792484968566</v>
       </c>
-      <c r="H35" s="11" t="n">
+      <c r="H35" s="9" t="n">
         <f t="shared" si="13"/>
         <v>264700.12741156074</v>
       </c>
-      <c r="I35" s="11" t="n">
+      <c r="I35" s="9" t="n">
         <f t="shared" si="13"/>
         <v>191614.73926923177</v>
       </c>

--- a/data/outputs/vulnerability.xlsx
+++ b/data/outputs/vulnerability.xlsx
@@ -508,11 +508,6 @@
       <diagonal/>
     </border>
     <border>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-    </border>
-    <border>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -525,6 +520,11 @@
         <color indexed="64"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -532,15 +532,13 @@
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -548,43 +546,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -913,266 +913,266 @@
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="14" t="n">
         <v>307650.146942139</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="14" t="n">
         <v>6435.03022049499</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="14" t="n">
         <v>476.838427902775</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="15" t="n">
         <v>2.09167142757948</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="15" t="n">
         <v>7.41004178013163</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="2" t="n">
         <v>1206504.07788086</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="2" t="n">
         <v>92179.8457883116</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="2" t="n">
         <v>5066.74151911133</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="3" t="n">
         <v>7.64024320168226</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="3" t="n">
         <v>5.49658276793711</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="2" t="n">
         <v>251397.482635498</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="2" t="n">
         <v>35789.4377766381</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="2" t="n">
         <v>4667.04591016061</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="3" t="n">
         <v>14.2361957651459</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="3" t="n">
         <v>13.0402884205325</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="2" t="n">
         <v>454697.773071289</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="2" t="n">
         <v>22139.8155128333</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="2" t="n">
         <v>4076.88789731897</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="3" t="n">
         <v>4.86912776442433</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="3" t="n">
         <v>18.4142812525055</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="2" t="n">
         <v>150422.450592041</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="2" t="n">
         <v>19075.150272623</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="2" t="n">
         <v>2120.22698906199</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="3" t="n">
         <v>12.6810527268675</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="3" t="n">
         <v>11.1151260082338</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="2" t="n">
         <v>370641.704589844</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="2" t="n">
         <v>23388.2371438457</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="2" t="n">
         <v>3902.20483830774</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="3" t="n">
         <v>6.31020116037059</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="3" t="n">
         <v>16.6844761078308</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="2" t="n">
         <v>104588.229454041</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="2" t="n">
         <v>11580.1211283283</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="2" t="n">
         <v>2931.90677357178</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="3" t="n">
         <v>11.0721074338647</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="3" t="n">
         <v>25.3184465091604</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="2" t="n">
         <v>285437.542541504</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="2" t="n">
         <v>45638.7830630811</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="2" t="n">
         <v>7934.30784711264</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13" s="3" t="n">
         <v>15.989061094318</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="3" t="n">
         <v>17.3850118574503</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="2" t="n">
         <v>459035.027801514</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="2" t="n">
         <v>49247.1025573398</v>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="2" t="n">
         <v>4904.93803616641</v>
       </c>
-      <c r="E14" s="5" t="n">
+      <c r="E14" s="3" t="n">
         <v>10.7283975240848</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="3" t="n">
         <v>9.9598509992653</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="2" t="n">
         <v>95388.7727661133</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="2" t="n">
         <v>9868.19756988892</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="2" t="n">
         <v>1548.57748601317</v>
       </c>
-      <c r="E15" s="5" t="n">
+      <c r="E15" s="3" t="n">
         <v>10.3452400987327</v>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="3" t="n">
         <v>15.6926072369931</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="6" t="n">
+      <c r="B16" s="4" t="n">
         <v>28112.8694610596</v>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="C16" s="4" t="n">
         <v>6213.62555280715</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="4" t="n">
         <v>878.559580332195</v>
       </c>
-      <c r="E16" s="7" t="n">
+      <c r="E16" s="5" t="n">
         <v>22.1024238077651</v>
       </c>
-      <c r="F16" s="7" t="n">
+      <c r="F16" s="5" t="n">
         <v>14.1392424256284</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="9" t="n">
+      <c r="A17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="7" t="n">
         <f t="shared" ref="B17:C17" si="0">SUM(B6:B16)</f>
         <v>3713876.0777359027</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C17" s="7" t="n">
         <f t="shared" si="0"/>
         <v>321555.34658619197</v>
       </c>
-      <c r="D17" s="9" t="n">
+      <c r="D17" s="7" t="n">
         <f>SUM(D6:D16)</f>
         <v>38508.235305059607</v>
       </c>
-      <c r="E17" s="10" t="n">
+      <c r="E17" s="8" t="n">
         <f>C17/B17*100</f>
         <v>8.6582142175896823</v>
       </c>
-      <c r="F17" s="10" t="n">
+      <c r="F17" s="8" t="n">
         <f>D17/C17*100</f>
         <v>11.975616550582711</v>
       </c>
@@ -3215,24 +3215,24 @@
       </c>
     </row>
     <row r="5" ht="39" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>96</v>
       </c>
       <c r="C6" s="32" t="n">
@@ -3243,10 +3243,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="n">
+      <c r="A7" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="33" t="n">
@@ -3257,10 +3257,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="n">
+      <c r="A8" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>98</v>
       </c>
       <c r="C8" s="33" t="n">
@@ -3271,10 +3271,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="n">
+      <c r="A9" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>99</v>
       </c>
       <c r="C9" s="33" t="n">
@@ -3285,10 +3285,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="n">
+      <c r="A10" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>100</v>
       </c>
       <c r="C10" s="33" t="n">
@@ -3299,10 +3299,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="n">
+      <c r="A11" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>125</v>
       </c>
       <c r="C11" s="33" t="n">
@@ -3313,10 +3313,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="n">
+      <c r="A12" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="33" t="n">
@@ -3327,10 +3327,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="n">
+      <c r="A13" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>126</v>
       </c>
       <c r="C13" s="33" t="n">
@@ -3341,10 +3341,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="n">
+      <c r="A14" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>104</v>
       </c>
       <c r="C14" s="33" t="n">
@@ -3355,10 +3355,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="n">
+      <c r="A15" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C15" s="33" t="n">
@@ -3369,10 +3369,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="11" t="n">
+      <c r="A16" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>127</v>
       </c>
       <c r="C16" s="33" t="n">
@@ -3383,10 +3383,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="15" t="n">
+      <c r="A17" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>128</v>
       </c>
       <c r="C17" s="34" t="n">
@@ -3466,292 +3466,292 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="14" t="n">
         <v>4973.21512980122</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
+      <c r="D6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14" t="n">
         <v>106.259232219263</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="14" t="n">
         <v>1183.13396000334</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="14" t="n">
         <v>578.892820553219</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="14" t="n">
         <v>13823.0462046566</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="14" t="n">
         <v>8414.00219171916</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="2" t="n">
         <v>7147.8627737381</v>
       </c>
-      <c r="D7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="n">
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>370.446764463819</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="2" t="n">
         <v>1707.53113561221</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="2" t="n">
         <v>673.815179068978</v>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="2" t="n">
         <v>16043.5212738665</v>
       </c>
-      <c r="I7" s="4" t="n">
+      <c r="I7" s="2" t="n">
         <v>12074.9508593088</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="2" t="n">
         <v>13803.9576839744</v>
       </c>
-      <c r="D8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4" t="n">
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>568.372122396319</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="2" t="n">
         <v>4296.58909694596</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="2" t="n">
         <v>1797.57060955125</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="2" t="n">
         <v>46870.2761056324</v>
       </c>
-      <c r="I8" s="4" t="n">
+      <c r="I8" s="2" t="n">
         <v>31181.6698884217</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="2" t="n">
         <v>8786.14068020212</v>
       </c>
-      <c r="D9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4" t="n">
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>570.922820065978</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="2" t="n">
         <v>4411.3692366454</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="2" t="n">
         <v>1418.47357434982</v>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="H9" s="2" t="n">
         <v>38762.5526176242</v>
       </c>
-      <c r="I9" s="4" t="n">
+      <c r="I9" s="2" t="n">
         <v>27757.9558097806</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="2" t="n">
         <v>14071.6003952679</v>
       </c>
-      <c r="D10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="n">
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
         <v>710.632280187866</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="2" t="n">
         <v>4314.82582226552</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="2" t="n">
         <v>1803.9962374649</v>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="H10" s="2" t="n">
         <v>48231.6342366831</v>
       </c>
-      <c r="I10" s="4" t="n">
+      <c r="I10" s="2" t="n">
         <v>29708.7869242637</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="2" t="n">
         <v>4875.64646059809</v>
       </c>
-      <c r="D11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4" t="n">
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
         <v>4896.46960702937</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="2" t="n">
         <v>9576.18744387978</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="2" t="n">
         <v>1314.21838589622</v>
       </c>
-      <c r="H11" s="4" t="n">
+      <c r="H11" s="2" t="n">
         <v>7267.69415311415</v>
       </c>
-      <c r="I11" s="4" t="n">
+      <c r="I11" s="2" t="n">
         <v>6394.28403376757</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="2" t="n">
         <v>6146.74780403577</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="2" t="n">
         <v>79.8859550911261</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="2" t="n">
         <v>6178.45394707452</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="2" t="n">
         <v>12265.520919156</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="2" t="n">
         <v>1332.91641270401</v>
       </c>
-      <c r="H12" s="4" t="n">
+      <c r="H12" s="2" t="n">
         <v>8504.40093347604</v>
       </c>
-      <c r="I12" s="4" t="n">
+      <c r="I12" s="2" t="n">
         <v>7240.38894822003</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="2" t="n">
         <v>13186.4736259066</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="2" t="n">
         <v>53.2573033940841</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="2" t="n">
         <v>14062.3933245493</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="2" t="n">
         <v>28752.1017683618</v>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="2" t="n">
         <v>4195.11692254088</v>
       </c>
-      <c r="H13" s="4" t="n">
+      <c r="H13" s="2" t="n">
         <v>24259.5196123846</v>
       </c>
-      <c r="I13" s="4" t="n">
+      <c r="I13" s="2" t="n">
         <v>19368.9640055935</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="2" t="n">
         <v>10118.4544105721</v>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="2" t="n">
         <v>89.2573613830571</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="2" t="n">
         <v>16705.5469241994</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="2" t="n">
         <v>31258.916015085</v>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="2" t="n">
         <v>5857.17673988907</v>
       </c>
-      <c r="H14" s="4" t="n">
+      <c r="H14" s="2" t="n">
         <v>29150.2728061712</v>
       </c>
-      <c r="I14" s="4" t="n">
+      <c r="I14" s="2" t="n">
         <v>23982.2551901872</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="4" t="n">
         <v>15846.9883971698</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="4" t="n">
         <v>26.628651697042</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="4" t="n">
         <v>17892.713982131</v>
       </c>
-      <c r="F15" s="6" t="n">
+      <c r="F15" s="4" t="n">
         <v>36503.6053485611</v>
       </c>
-      <c r="G15" s="6" t="n">
+      <c r="G15" s="4" t="n">
         <v>5428.61560295022</v>
       </c>
-      <c r="H15" s="6" t="n">
+      <c r="H15" s="4" t="n">
         <v>31787.2094679519</v>
       </c>
-      <c r="I15" s="6" t="n">
+      <c r="I15" s="4" t="n">
         <v>25491.4814179695</v>
       </c>
     </row>
@@ -3805,470 +3805,470 @@
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="11"/>
-      <c r="B23" s="8" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="9" t="n">
+      <c r="C23" s="7" t="n">
         <f>SUM(C24:C28)</f>
         <v>48782.776662983742</v>
       </c>
-      <c r="D23" s="9" t="n">
+      <c r="D23" s="7" t="n">
         <f t="shared" ref="D23:I23" si="1">SUM(D24:D28)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="9" t="n">
+      <c r="E23" s="7" t="n">
         <f t="shared" si="1"/>
         <v>2326.6332193332451</v>
       </c>
-      <c r="F23" s="9" t="n">
+      <c r="F23" s="7" t="n">
         <f t="shared" si="1"/>
         <v>15913.44925147243</v>
       </c>
-      <c r="G23" s="9" t="n">
+      <c r="G23" s="7" t="n">
         <f t="shared" si="1"/>
         <v>6272.7484209881677</v>
       </c>
-      <c r="H23" s="9" t="n">
+      <c r="H23" s="7" t="n">
         <f t="shared" si="1"/>
         <v>163731.0304384628</v>
       </c>
-      <c r="I23" s="9" t="n">
+      <c r="I23" s="7" t="n">
         <f t="shared" si="1"/>
         <v>109137.36567349396</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="11"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="4" t="n">
+      <c r="C24" s="2" t="n">
         <f>C6</f>
         <v>4973.2151298012204</v>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="2" t="n">
         <f t="shared" ref="D24:I24" si="2">D6</f>
         <v>0</v>
       </c>
-      <c r="E24" s="4" t="n">
+      <c r="E24" s="2" t="n">
         <f t="shared" si="2"/>
         <v>106.259232219263</v>
       </c>
-      <c r="F24" s="4" t="n">
+      <c r="F24" s="2" t="n">
         <f t="shared" si="2"/>
         <v>1183.13396000334</v>
       </c>
-      <c r="G24" s="4" t="n">
+      <c r="G24" s="2" t="n">
         <f t="shared" si="2"/>
         <v>578.89282055321905</v>
       </c>
-      <c r="H24" s="4" t="n">
+      <c r="H24" s="2" t="n">
         <f t="shared" si="2"/>
         <v>13823.046204656601</v>
       </c>
-      <c r="I24" s="4" t="n">
+      <c r="I24" s="2" t="n">
         <f t="shared" si="2"/>
         <v>8414.0021917191607</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="11"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="4" t="n">
+      <c r="C25" s="2" t="n">
         <f t="shared" ref="C25:I25" si="3">C7</f>
         <v>7147.8627737381003</v>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="2" t="n">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E25" s="4" t="n">
+      <c r="E25" s="2" t="n">
         <f t="shared" si="3"/>
         <v>370.44676446381902</v>
       </c>
-      <c r="F25" s="4" t="n">
+      <c r="F25" s="2" t="n">
         <f t="shared" si="3"/>
         <v>1707.5311356122099</v>
       </c>
-      <c r="G25" s="4" t="n">
+      <c r="G25" s="2" t="n">
         <f t="shared" si="3"/>
         <v>673.81517906897795</v>
       </c>
-      <c r="H25" s="4" t="n">
+      <c r="H25" s="2" t="n">
         <f t="shared" si="3"/>
         <v>16043.5212738665</v>
       </c>
-      <c r="I25" s="4" t="n">
+      <c r="I25" s="2" t="n">
         <f t="shared" si="3"/>
         <v>12074.950859308799</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="11"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="4" t="n">
+      <c r="C26" s="2" t="n">
         <f t="shared" ref="C26:I26" si="4">C8</f>
         <v>13803.9576839744</v>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="2" t="n">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E26" s="4" t="n">
+      <c r="E26" s="2" t="n">
         <f t="shared" si="4"/>
         <v>568.37212239631901</v>
       </c>
-      <c r="F26" s="4" t="n">
+      <c r="F26" s="2" t="n">
         <f t="shared" si="4"/>
         <v>4296.5890969459597</v>
       </c>
-      <c r="G26" s="4" t="n">
+      <c r="G26" s="2" t="n">
         <f t="shared" si="4"/>
         <v>1797.5706095512501</v>
       </c>
-      <c r="H26" s="4" t="n">
+      <c r="H26" s="2" t="n">
         <f t="shared" si="4"/>
         <v>46870.276105632402</v>
       </c>
-      <c r="I26" s="4" t="n">
+      <c r="I26" s="2" t="n">
         <f t="shared" si="4"/>
         <v>31181.6698884217</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="11"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="4" t="n">
+      <c r="C27" s="2" t="n">
         <f t="shared" ref="C27:I27" si="5">C9</f>
         <v>8786.1406802021193</v>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27" s="2" t="n">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E27" s="4" t="n">
+      <c r="E27" s="2" t="n">
         <f t="shared" si="5"/>
         <v>570.92282006597804</v>
       </c>
-      <c r="F27" s="4" t="n">
+      <c r="F27" s="2" t="n">
         <f t="shared" si="5"/>
         <v>4411.3692366453997</v>
       </c>
-      <c r="G27" s="4" t="n">
+      <c r="G27" s="2" t="n">
         <f t="shared" si="5"/>
         <v>1418.47357434982</v>
       </c>
-      <c r="H27" s="4" t="n">
+      <c r="H27" s="2" t="n">
         <f t="shared" si="5"/>
         <v>38762.552617624198</v>
       </c>
-      <c r="I27" s="4" t="n">
+      <c r="I27" s="2" t="n">
         <f t="shared" si="5"/>
         <v>27757.9558097806</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="11"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="4" t="n">
+      <c r="C28" s="2" t="n">
         <f t="shared" ref="C28:I28" si="6">C10</f>
         <v>14071.6003952679</v>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="2" t="n">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E28" s="4" t="n">
+      <c r="E28" s="2" t="n">
         <f t="shared" si="6"/>
         <v>710.63228018786594</v>
       </c>
-      <c r="F28" s="4" t="n">
+      <c r="F28" s="2" t="n">
         <f t="shared" si="6"/>
         <v>4314.8258222655204</v>
       </c>
-      <c r="G28" s="4" t="n">
+      <c r="G28" s="2" t="n">
         <f t="shared" si="6"/>
         <v>1803.9962374649001</v>
       </c>
-      <c r="H28" s="4" t="n">
+      <c r="H28" s="2" t="n">
         <f t="shared" si="6"/>
         <v>48231.634236683101</v>
       </c>
-      <c r="I28" s="4" t="n">
+      <c r="I28" s="2" t="n">
         <f t="shared" si="6"/>
         <v>29708.786924263699</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="11"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="9" t="n">
+      <c r="C29" s="7" t="n">
         <f>SUM(C30:C34)</f>
         <v>50174.310698282359</v>
       </c>
-      <c r="D29" s="9" t="n">
+      <c r="D29" s="7" t="n">
         <f t="shared" ref="D29:I29" si="7">SUM(D30:D34)</f>
         <v>249.0292715653093</v>
       </c>
-      <c r="E29" s="9" t="n">
+      <c r="E29" s="7" t="n">
         <f t="shared" si="7"/>
         <v>59735.577784983587</v>
       </c>
-      <c r="F29" s="9" t="n">
+      <c r="F29" s="7" t="n">
         <f t="shared" si="7"/>
         <v>118356.33149504368</v>
       </c>
-      <c r="G29" s="9" t="n">
+      <c r="G29" s="7" t="n">
         <f t="shared" si="7"/>
         <v>18128.0440639804</v>
       </c>
-      <c r="H29" s="9" t="n">
+      <c r="H29" s="7" t="n">
         <f t="shared" si="7"/>
         <v>100969.09697309788</v>
       </c>
-      <c r="I29" s="9" t="n">
+      <c r="I29" s="7" t="n">
         <f t="shared" si="7"/>
         <v>82477.373595737794</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="11"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="4" t="n">
+      <c r="C30" s="2" t="n">
         <f t="shared" ref="C30:I30" si="8">C11</f>
         <v>4875.64646059809</v>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="2" t="n">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E30" s="4" t="n">
+      <c r="E30" s="2" t="n">
         <f t="shared" si="8"/>
         <v>4896.4696070293703</v>
       </c>
-      <c r="F30" s="4" t="n">
+      <c r="F30" s="2" t="n">
         <f t="shared" si="8"/>
         <v>9576.1874438797804</v>
       </c>
-      <c r="G30" s="4" t="n">
+      <c r="G30" s="2" t="n">
         <f t="shared" si="8"/>
         <v>1314.2183858962201</v>
       </c>
-      <c r="H30" s="4" t="n">
+      <c r="H30" s="2" t="n">
         <f t="shared" si="8"/>
         <v>7267.6941531141501</v>
       </c>
-      <c r="I30" s="4" t="n">
+      <c r="I30" s="2" t="n">
         <f t="shared" si="8"/>
         <v>6394.2840337675698</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="11"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="4" t="n">
+      <c r="C31" s="2" t="n">
         <f t="shared" ref="C31:I31" si="9">C12</f>
         <v>6146.7478040357701</v>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="2" t="n">
         <f t="shared" si="9"/>
         <v>79.885955091126107</v>
       </c>
-      <c r="E31" s="4" t="n">
+      <c r="E31" s="2" t="n">
         <f t="shared" si="9"/>
         <v>6178.4539470745203</v>
       </c>
-      <c r="F31" s="4" t="n">
+      <c r="F31" s="2" t="n">
         <f t="shared" si="9"/>
         <v>12265.520919156001</v>
       </c>
-      <c r="G31" s="4" t="n">
+      <c r="G31" s="2" t="n">
         <f t="shared" si="9"/>
         <v>1332.9164127040101</v>
       </c>
-      <c r="H31" s="4" t="n">
+      <c r="H31" s="2" t="n">
         <f t="shared" si="9"/>
         <v>8504.4009334760394</v>
       </c>
-      <c r="I31" s="4" t="n">
+      <c r="I31" s="2" t="n">
         <f t="shared" si="9"/>
         <v>7240.3889482200302</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="11"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="4" t="n">
+      <c r="C32" s="2" t="n">
         <f t="shared" ref="C32:I32" si="10">C13</f>
         <v>13186.473625906599</v>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D32" s="2" t="n">
         <f t="shared" si="10"/>
         <v>53.257303394084097</v>
       </c>
-      <c r="E32" s="4" t="n">
+      <c r="E32" s="2" t="n">
         <f t="shared" si="10"/>
         <v>14062.393324549301</v>
       </c>
-      <c r="F32" s="4" t="n">
+      <c r="F32" s="2" t="n">
         <f t="shared" si="10"/>
         <v>28752.101768361801</v>
       </c>
-      <c r="G32" s="4" t="n">
+      <c r="G32" s="2" t="n">
         <f t="shared" si="10"/>
         <v>4195.1169225408803</v>
       </c>
-      <c r="H32" s="4" t="n">
+      <c r="H32" s="2" t="n">
         <f t="shared" si="10"/>
         <v>24259.5196123846</v>
       </c>
-      <c r="I32" s="4" t="n">
+      <c r="I32" s="2" t="n">
         <f t="shared" si="10"/>
         <v>19368.964005593501</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="11"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="4" t="n">
+      <c r="C33" s="2" t="n">
         <f t="shared" ref="C33:I33" si="11">C14</f>
         <v>10118.4544105721</v>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D33" s="2" t="n">
         <f t="shared" si="11"/>
         <v>89.257361383057102</v>
       </c>
-      <c r="E33" s="4" t="n">
+      <c r="E33" s="2" t="n">
         <f t="shared" si="11"/>
         <v>16705.5469241994</v>
       </c>
-      <c r="F33" s="4" t="n">
+      <c r="F33" s="2" t="n">
         <f t="shared" si="11"/>
         <v>31258.916015085</v>
       </c>
-      <c r="G33" s="4" t="n">
+      <c r="G33" s="2" t="n">
         <f t="shared" si="11"/>
         <v>5857.1767398890697</v>
       </c>
-      <c r="H33" s="4" t="n">
+      <c r="H33" s="2" t="n">
         <f t="shared" si="11"/>
         <v>29150.272806171201</v>
       </c>
-      <c r="I33" s="4" t="n">
+      <c r="I33" s="2" t="n">
         <f t="shared" si="11"/>
         <v>23982.255190187199</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="11"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="6" t="n">
+      <c r="C34" s="4" t="n">
         <f t="shared" ref="C34:I34" si="12">C15</f>
         <v>15846.9883971698</v>
       </c>
-      <c r="D34" s="6" t="n">
+      <c r="D34" s="4" t="n">
         <f t="shared" si="12"/>
         <v>26.628651697041999</v>
       </c>
-      <c r="E34" s="6" t="n">
+      <c r="E34" s="4" t="n">
         <f t="shared" si="12"/>
         <v>17892.713982131001</v>
       </c>
-      <c r="F34" s="6" t="n">
+      <c r="F34" s="4" t="n">
         <f t="shared" si="12"/>
         <v>36503.605348561097</v>
       </c>
-      <c r="G34" s="6" t="n">
+      <c r="G34" s="4" t="n">
         <f t="shared" si="12"/>
         <v>5428.6156029502199</v>
       </c>
-      <c r="H34" s="6" t="n">
+      <c r="H34" s="4" t="n">
         <f t="shared" si="12"/>
         <v>31787.2094679519</v>
       </c>
-      <c r="I34" s="6" t="n">
+      <c r="I34" s="4" t="n">
         <f t="shared" si="12"/>
         <v>25491.481417969499</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="11"/>
-      <c r="B35" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="9" t="n">
+      <c r="A35" s="9"/>
+      <c r="B35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="7" t="n">
         <f t="shared" ref="C35:I35" si="13">C16</f>
         <v>98957.087361266094</v>
       </c>
-      <c r="D35" s="9" t="n">
+      <c r="D35" s="7" t="n">
         <f t="shared" si="13"/>
         <v>249.0292715653093</v>
       </c>
-      <c r="E35" s="9" t="n">
+      <c r="E35" s="7" t="n">
         <f t="shared" si="13"/>
         <v>62062.211004316836</v>
       </c>
-      <c r="F35" s="9" t="n">
+      <c r="F35" s="7" t="n">
         <f t="shared" si="13"/>
         <v>134269.7807465161</v>
       </c>
-      <c r="G35" s="9" t="n">
+      <c r="G35" s="7" t="n">
         <f t="shared" si="13"/>
         <v>24400.792484968566</v>
       </c>
-      <c r="H35" s="9" t="n">
+      <c r="H35" s="7" t="n">
         <f t="shared" si="13"/>
         <v>264700.12741156074</v>
       </c>
-      <c r="I35" s="9" t="n">
+      <c r="I35" s="7" t="n">
         <f t="shared" si="13"/>
         <v>191614.73926923177</v>
       </c>

--- a/data/outputs/vulnerability.xlsx
+++ b/data/outputs/vulnerability.xlsx
@@ -13,19 +13,6 @@
     <sheet name="Traditionally Vulnerable" sheetId="12" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 

--- a/data/outputs/vulnerability.xlsx
+++ b/data/outputs/vulnerability.xlsx
@@ -495,6 +495,11 @@
       <diagonal/>
     </border>
     <border>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+    </border>
+    <border>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -507,11 +512,6 @@
         <color indexed="64"/>
       </bottom>
     </border>
-    <border>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -519,13 +519,17 @@
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -533,45 +537,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -900,266 +900,266 @@
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="15" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="14" t="n">
+      <c r="B6" s="4" t="n">
         <v>307650.146942139</v>
       </c>
-      <c r="C6" s="14" t="n">
+      <c r="C6" s="4" t="n">
         <v>6435.03022049499</v>
       </c>
-      <c r="D6" s="14" t="n">
+      <c r="D6" s="4" t="n">
         <v>476.838427902775</v>
       </c>
-      <c r="E6" s="15" t="n">
+      <c r="E6" s="5" t="n">
         <v>2.09167142757948</v>
       </c>
-      <c r="F6" s="15" t="n">
+      <c r="F6" s="5" t="n">
         <v>7.41004178013163</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="6" t="n">
         <v>1206504.07788086</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="6" t="n">
         <v>92179.8457883116</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="6" t="n">
         <v>5066.74151911133</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="7" t="n">
         <v>7.64024320168226</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="7" t="n">
         <v>5.49658276793711</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="6" t="n">
         <v>251397.482635498</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="6" t="n">
         <v>35789.4377766381</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="6" t="n">
         <v>4667.04591016061</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="7" t="n">
         <v>14.2361957651459</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="7" t="n">
         <v>13.0402884205325</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="6" t="n">
         <v>454697.773071289</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="6" t="n">
         <v>22139.8155128333</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="6" t="n">
         <v>4076.88789731897</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="7" t="n">
         <v>4.86912776442433</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="7" t="n">
         <v>18.4142812525055</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="6" t="n">
         <v>150422.450592041</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="6" t="n">
         <v>19075.150272623</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="6" t="n">
         <v>2120.22698906199</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="7" t="n">
         <v>12.6810527268675</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="7" t="n">
         <v>11.1151260082338</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="6" t="n">
         <v>370641.704589844</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="6" t="n">
         <v>23388.2371438457</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="6" t="n">
         <v>3902.20483830774</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="7" t="n">
         <v>6.31020116037059</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="7" t="n">
         <v>16.6844761078308</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="6" t="n">
         <v>104588.229454041</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="6" t="n">
         <v>11580.1211283283</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="6" t="n">
         <v>2931.90677357178</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="7" t="n">
         <v>11.0721074338647</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="7" t="n">
         <v>25.3184465091604</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="6" t="n">
         <v>285437.542541504</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="6" t="n">
         <v>45638.7830630811</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="6" t="n">
         <v>7934.30784711264</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="7" t="n">
         <v>15.989061094318</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="7" t="n">
         <v>17.3850118574503</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="6" t="n">
         <v>459035.027801514</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="6" t="n">
         <v>49247.1025573398</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="6" t="n">
         <v>4904.93803616641</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="7" t="n">
         <v>10.7283975240848</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="7" t="n">
         <v>9.9598509992653</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="6" t="n">
         <v>95388.7727661133</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="6" t="n">
         <v>9868.19756988892</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="6" t="n">
         <v>1548.57748601317</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="7" t="n">
         <v>10.3452400987327</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="7" t="n">
         <v>15.6926072369931</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="8" t="n">
         <v>28112.8694610596</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="8" t="n">
         <v>6213.62555280715</v>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="8" t="n">
         <v>878.559580332195</v>
       </c>
-      <c r="E16" s="5" t="n">
+      <c r="E16" s="9" t="n">
         <v>22.1024238077651</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="9" t="n">
         <v>14.1392424256284</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="7" t="n">
+      <c r="A17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="11" t="n">
         <f t="shared" ref="B17:C17" si="0">SUM(B6:B16)</f>
         <v>3713876.0777359027</v>
       </c>
-      <c r="C17" s="7" t="n">
+      <c r="C17" s="11" t="n">
         <f t="shared" si="0"/>
         <v>321555.34658619197</v>
       </c>
-      <c r="D17" s="7" t="n">
+      <c r="D17" s="11" t="n">
         <f>SUM(D6:D16)</f>
         <v>38508.235305059607</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="E17" s="12" t="n">
         <f>C17/B17*100</f>
         <v>8.6582142175896823</v>
       </c>
-      <c r="F17" s="8" t="n">
+      <c r="F17" s="12" t="n">
         <f>D17/C17*100</f>
         <v>11.975616550582711</v>
       </c>
@@ -3202,24 +3202,24 @@
       </c>
     </row>
     <row r="5" ht="39" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="15" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C6" s="32" t="n">
@@ -3230,10 +3230,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="13" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="33" t="n">
@@ -3244,10 +3244,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="n">
+      <c r="A8" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="13" t="s">
         <v>98</v>
       </c>
       <c r="C8" s="33" t="n">
@@ -3258,10 +3258,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="n">
+      <c r="A9" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="13" t="s">
         <v>99</v>
       </c>
       <c r="C9" s="33" t="n">
@@ -3272,10 +3272,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n">
+      <c r="A10" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="13" t="s">
         <v>100</v>
       </c>
       <c r="C10" s="33" t="n">
@@ -3286,10 +3286,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="n">
+      <c r="A11" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="13" t="s">
         <v>125</v>
       </c>
       <c r="C11" s="33" t="n">
@@ -3300,10 +3300,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n">
+      <c r="A12" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="13" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="33" t="n">
@@ -3314,10 +3314,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="n">
+      <c r="A13" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="13" t="s">
         <v>126</v>
       </c>
       <c r="C13" s="33" t="n">
@@ -3328,10 +3328,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="n">
+      <c r="A14" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="13" t="s">
         <v>104</v>
       </c>
       <c r="C14" s="33" t="n">
@@ -3342,10 +3342,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="n">
+      <c r="A15" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="13" t="s">
         <v>105</v>
       </c>
       <c r="C15" s="33" t="n">
@@ -3356,10 +3356,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="n">
+      <c r="A16" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="13" t="s">
         <v>127</v>
       </c>
       <c r="C16" s="33" t="n">
@@ -3370,10 +3370,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="n">
+      <c r="A17" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C17" s="34" t="n">
@@ -3453,292 +3453,292 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="14" t="n">
+      <c r="C6" s="4" t="n">
         <v>4973.21512980122</v>
       </c>
-      <c r="D6" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14" t="n">
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
         <v>106.259232219263</v>
       </c>
-      <c r="F6" s="14" t="n">
+      <c r="F6" s="4" t="n">
         <v>1183.13396000334</v>
       </c>
-      <c r="G6" s="14" t="n">
+      <c r="G6" s="4" t="n">
         <v>578.892820553219</v>
       </c>
-      <c r="H6" s="14" t="n">
+      <c r="H6" s="4" t="n">
         <v>13823.0462046566</v>
       </c>
-      <c r="I6" s="14" t="n">
+      <c r="I6" s="4" t="n">
         <v>8414.00219171916</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="6" t="n">
         <v>7147.8627737381</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
+      <c r="D7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="n">
         <v>370.446764463819</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="6" t="n">
         <v>1707.53113561221</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="6" t="n">
         <v>673.815179068978</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="6" t="n">
         <v>16043.5212738665</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="6" t="n">
         <v>12074.9508593088</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="6" t="n">
         <v>13803.9576839744</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="n">
+      <c r="D8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="n">
         <v>568.372122396319</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="6" t="n">
         <v>4296.58909694596</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="6" t="n">
         <v>1797.57060955125</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="6" t="n">
         <v>46870.2761056324</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="6" t="n">
         <v>31181.6698884217</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="6" t="n">
         <v>8786.14068020212</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
+      <c r="D9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="n">
         <v>570.922820065978</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="6" t="n">
         <v>4411.3692366454</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="6" t="n">
         <v>1418.47357434982</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="6" t="n">
         <v>38762.5526176242</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="6" t="n">
         <v>27757.9558097806</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="6" t="n">
         <v>14071.6003952679</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="n">
+      <c r="D10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="n">
         <v>710.632280187866</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="6" t="n">
         <v>4314.82582226552</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="6" t="n">
         <v>1803.9962374649</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="6" t="n">
         <v>48231.6342366831</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="6" t="n">
         <v>29708.7869242637</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="6" t="n">
         <v>4875.64646059809</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
+      <c r="D11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="n">
         <v>4896.46960702937</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="6" t="n">
         <v>9576.18744387978</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="6" t="n">
         <v>1314.21838589622</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="6" t="n">
         <v>7267.69415311415</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="6" t="n">
         <v>6394.28403376757</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="6" t="n">
         <v>6146.74780403577</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="6" t="n">
         <v>79.8859550911261</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="6" t="n">
         <v>6178.45394707452</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="6" t="n">
         <v>12265.520919156</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="6" t="n">
         <v>1332.91641270401</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="6" t="n">
         <v>8504.40093347604</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="6" t="n">
         <v>7240.38894822003</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="6" t="n">
         <v>13186.4736259066</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="6" t="n">
         <v>53.2573033940841</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="6" t="n">
         <v>14062.3933245493</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="6" t="n">
         <v>28752.1017683618</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="6" t="n">
         <v>4195.11692254088</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="6" t="n">
         <v>24259.5196123846</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="6" t="n">
         <v>19368.9640055935</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="6" t="n">
         <v>10118.4544105721</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="6" t="n">
         <v>89.2573613830571</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="6" t="n">
         <v>16705.5469241994</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="6" t="n">
         <v>31258.916015085</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="6" t="n">
         <v>5857.17673988907</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="6" t="n">
         <v>29150.2728061712</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="6" t="n">
         <v>23982.2551901872</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="8" t="n">
         <v>15846.9883971698</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="8" t="n">
         <v>26.628651697042</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="8" t="n">
         <v>17892.713982131</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="8" t="n">
         <v>36503.6053485611</v>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="8" t="n">
         <v>5428.61560295022</v>
       </c>
-      <c r="H15" s="4" t="n">
+      <c r="H15" s="8" t="n">
         <v>31787.2094679519</v>
       </c>
-      <c r="I15" s="4" t="n">
+      <c r="I15" s="8" t="n">
         <v>25491.4814179695</v>
       </c>
     </row>
@@ -3792,470 +3792,470 @@
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="15" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="9"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="7" t="n">
+      <c r="C23" s="11" t="n">
         <f>SUM(C24:C28)</f>
         <v>48782.776662983742</v>
       </c>
-      <c r="D23" s="7" t="n">
+      <c r="D23" s="11" t="n">
         <f t="shared" ref="D23:I23" si="1">SUM(D24:D28)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="7" t="n">
+      <c r="E23" s="11" t="n">
         <f t="shared" si="1"/>
         <v>2326.6332193332451</v>
       </c>
-      <c r="F23" s="7" t="n">
+      <c r="F23" s="11" t="n">
         <f t="shared" si="1"/>
         <v>15913.44925147243</v>
       </c>
-      <c r="G23" s="7" t="n">
+      <c r="G23" s="11" t="n">
         <f t="shared" si="1"/>
         <v>6272.7484209881677</v>
       </c>
-      <c r="H23" s="7" t="n">
+      <c r="H23" s="11" t="n">
         <f t="shared" si="1"/>
         <v>163731.0304384628</v>
       </c>
-      <c r="I23" s="7" t="n">
+      <c r="I23" s="11" t="n">
         <f t="shared" si="1"/>
         <v>109137.36567349396</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="9"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="6" t="n">
         <f>C6</f>
         <v>4973.2151298012204</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="6" t="n">
         <f t="shared" ref="D24:I24" si="2">D6</f>
         <v>0</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="6" t="n">
         <f t="shared" si="2"/>
         <v>106.259232219263</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="6" t="n">
         <f t="shared" si="2"/>
         <v>1183.13396000334</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G24" s="6" t="n">
         <f t="shared" si="2"/>
         <v>578.89282055321905</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="6" t="n">
         <f t="shared" si="2"/>
         <v>13823.046204656601</v>
       </c>
-      <c r="I24" s="2" t="n">
+      <c r="I24" s="6" t="n">
         <f t="shared" si="2"/>
         <v>8414.0021917191607</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="6" t="n">
         <f t="shared" ref="C25:I25" si="3">C7</f>
         <v>7147.8627737381003</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="6" t="n">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="6" t="n">
         <f t="shared" si="3"/>
         <v>370.44676446381902</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="6" t="n">
         <f t="shared" si="3"/>
         <v>1707.5311356122099</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="6" t="n">
         <f t="shared" si="3"/>
         <v>673.81517906897795</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="6" t="n">
         <f t="shared" si="3"/>
         <v>16043.5212738665</v>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="I25" s="6" t="n">
         <f t="shared" si="3"/>
         <v>12074.950859308799</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="9"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="6" t="n">
         <f t="shared" ref="C26:I26" si="4">C8</f>
         <v>13803.9576839744</v>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" s="6" t="n">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="6" t="n">
         <f t="shared" si="4"/>
         <v>568.37212239631901</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="6" t="n">
         <f t="shared" si="4"/>
         <v>4296.5890969459597</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G26" s="6" t="n">
         <f t="shared" si="4"/>
         <v>1797.5706095512501</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="6" t="n">
         <f t="shared" si="4"/>
         <v>46870.276105632402</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I26" s="6" t="n">
         <f t="shared" si="4"/>
         <v>31181.6698884217</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="9"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="6" t="n">
         <f t="shared" ref="C27:I27" si="5">C9</f>
         <v>8786.1406802021193</v>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" s="6" t="n">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="6" t="n">
         <f t="shared" si="5"/>
         <v>570.92282006597804</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="6" t="n">
         <f t="shared" si="5"/>
         <v>4411.3692366453997</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G27" s="6" t="n">
         <f t="shared" si="5"/>
         <v>1418.47357434982</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="6" t="n">
         <f t="shared" si="5"/>
         <v>38762.552617624198</v>
       </c>
-      <c r="I27" s="2" t="n">
+      <c r="I27" s="6" t="n">
         <f t="shared" si="5"/>
         <v>27757.9558097806</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="9"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="6" t="n">
         <f t="shared" ref="C28:I28" si="6">C10</f>
         <v>14071.6003952679</v>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" s="6" t="n">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="6" t="n">
         <f t="shared" si="6"/>
         <v>710.63228018786594</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="6" t="n">
         <f t="shared" si="6"/>
         <v>4314.8258222655204</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="6" t="n">
         <f t="shared" si="6"/>
         <v>1803.9962374649001</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="6" t="n">
         <f t="shared" si="6"/>
         <v>48231.634236683101</v>
       </c>
-      <c r="I28" s="2" t="n">
+      <c r="I28" s="6" t="n">
         <f t="shared" si="6"/>
         <v>29708.786924263699</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="9"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="7" t="n">
+      <c r="C29" s="11" t="n">
         <f>SUM(C30:C34)</f>
         <v>50174.310698282359</v>
       </c>
-      <c r="D29" s="7" t="n">
+      <c r="D29" s="11" t="n">
         <f t="shared" ref="D29:I29" si="7">SUM(D30:D34)</f>
         <v>249.0292715653093</v>
       </c>
-      <c r="E29" s="7" t="n">
+      <c r="E29" s="11" t="n">
         <f t="shared" si="7"/>
         <v>59735.577784983587</v>
       </c>
-      <c r="F29" s="7" t="n">
+      <c r="F29" s="11" t="n">
         <f t="shared" si="7"/>
         <v>118356.33149504368</v>
       </c>
-      <c r="G29" s="7" t="n">
+      <c r="G29" s="11" t="n">
         <f t="shared" si="7"/>
         <v>18128.0440639804</v>
       </c>
-      <c r="H29" s="7" t="n">
+      <c r="H29" s="11" t="n">
         <f t="shared" si="7"/>
         <v>100969.09697309788</v>
       </c>
-      <c r="I29" s="7" t="n">
+      <c r="I29" s="11" t="n">
         <f t="shared" si="7"/>
         <v>82477.373595737794</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="9"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="6" t="n">
         <f t="shared" ref="C30:I30" si="8">C11</f>
         <v>4875.64646059809</v>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" s="6" t="n">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="6" t="n">
         <f t="shared" si="8"/>
         <v>4896.4696070293703</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="F30" s="6" t="n">
         <f t="shared" si="8"/>
         <v>9576.1874438797804</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G30" s="6" t="n">
         <f t="shared" si="8"/>
         <v>1314.2183858962201</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="6" t="n">
         <f t="shared" si="8"/>
         <v>7267.6941531141501</v>
       </c>
-      <c r="I30" s="2" t="n">
+      <c r="I30" s="6" t="n">
         <f t="shared" si="8"/>
         <v>6394.2840337675698</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="9"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="6" t="n">
         <f t="shared" ref="C31:I31" si="9">C12</f>
         <v>6146.7478040357701</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="6" t="n">
         <f t="shared" si="9"/>
         <v>79.885955091126107</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="6" t="n">
         <f t="shared" si="9"/>
         <v>6178.4539470745203</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" s="6" t="n">
         <f t="shared" si="9"/>
         <v>12265.520919156001</v>
       </c>
-      <c r="G31" s="2" t="n">
+      <c r="G31" s="6" t="n">
         <f t="shared" si="9"/>
         <v>1332.9164127040101</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="6" t="n">
         <f t="shared" si="9"/>
         <v>8504.4009334760394</v>
       </c>
-      <c r="I31" s="2" t="n">
+      <c r="I31" s="6" t="n">
         <f t="shared" si="9"/>
         <v>7240.3889482200302</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="6" t="n">
         <f t="shared" ref="C32:I32" si="10">C13</f>
         <v>13186.473625906599</v>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" s="6" t="n">
         <f t="shared" si="10"/>
         <v>53.257303394084097</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="6" t="n">
         <f t="shared" si="10"/>
         <v>14062.393324549301</v>
       </c>
-      <c r="F32" s="2" t="n">
+      <c r="F32" s="6" t="n">
         <f t="shared" si="10"/>
         <v>28752.101768361801</v>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="G32" s="6" t="n">
         <f t="shared" si="10"/>
         <v>4195.1169225408803</v>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="6" t="n">
         <f t="shared" si="10"/>
         <v>24259.5196123846</v>
       </c>
-      <c r="I32" s="2" t="n">
+      <c r="I32" s="6" t="n">
         <f t="shared" si="10"/>
         <v>19368.964005593501</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="9"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="6" t="n">
         <f t="shared" ref="C33:I33" si="11">C14</f>
         <v>10118.4544105721</v>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" s="6" t="n">
         <f t="shared" si="11"/>
         <v>89.257361383057102</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="6" t="n">
         <f t="shared" si="11"/>
         <v>16705.5469241994</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F33" s="6" t="n">
         <f t="shared" si="11"/>
         <v>31258.916015085</v>
       </c>
-      <c r="G33" s="2" t="n">
+      <c r="G33" s="6" t="n">
         <f t="shared" si="11"/>
         <v>5857.1767398890697</v>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="6" t="n">
         <f t="shared" si="11"/>
         <v>29150.272806171201</v>
       </c>
-      <c r="I33" s="2" t="n">
+      <c r="I33" s="6" t="n">
         <f t="shared" si="11"/>
         <v>23982.255190187199</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="9"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="4" t="n">
+      <c r="C34" s="8" t="n">
         <f t="shared" ref="C34:I34" si="12">C15</f>
         <v>15846.9883971698</v>
       </c>
-      <c r="D34" s="4" t="n">
+      <c r="D34" s="8" t="n">
         <f t="shared" si="12"/>
         <v>26.628651697041999</v>
       </c>
-      <c r="E34" s="4" t="n">
+      <c r="E34" s="8" t="n">
         <f t="shared" si="12"/>
         <v>17892.713982131001</v>
       </c>
-      <c r="F34" s="4" t="n">
+      <c r="F34" s="8" t="n">
         <f t="shared" si="12"/>
         <v>36503.605348561097</v>
       </c>
-      <c r="G34" s="4" t="n">
+      <c r="G34" s="8" t="n">
         <f t="shared" si="12"/>
         <v>5428.6156029502199</v>
       </c>
-      <c r="H34" s="4" t="n">
+      <c r="H34" s="8" t="n">
         <f t="shared" si="12"/>
         <v>31787.2094679519</v>
       </c>
-      <c r="I34" s="4" t="n">
+      <c r="I34" s="8" t="n">
         <f t="shared" si="12"/>
         <v>25491.481417969499</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="9"/>
-      <c r="B35" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="7" t="n">
+      <c r="A35" s="13"/>
+      <c r="B35" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="11" t="n">
         <f t="shared" ref="C35:I35" si="13">C16</f>
         <v>98957.087361266094</v>
       </c>
-      <c r="D35" s="7" t="n">
+      <c r="D35" s="11" t="n">
         <f t="shared" si="13"/>
         <v>249.0292715653093</v>
       </c>
-      <c r="E35" s="7" t="n">
+      <c r="E35" s="11" t="n">
         <f t="shared" si="13"/>
         <v>62062.211004316836</v>
       </c>
-      <c r="F35" s="7" t="n">
+      <c r="F35" s="11" t="n">
         <f t="shared" si="13"/>
         <v>134269.7807465161</v>
       </c>
-      <c r="G35" s="7" t="n">
+      <c r="G35" s="11" t="n">
         <f t="shared" si="13"/>
         <v>24400.792484968566</v>
       </c>
-      <c r="H35" s="7" t="n">
+      <c r="H35" s="11" t="n">
         <f t="shared" si="13"/>
         <v>264700.12741156074</v>
       </c>
-      <c r="I35" s="7" t="n">
+      <c r="I35" s="11" t="n">
         <f t="shared" si="13"/>
         <v>191614.73926923177</v>
       </c>

--- a/data/outputs/vulnerability.xlsx
+++ b/data/outputs/vulnerability.xlsx
@@ -498,8 +498,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-    </border>
-    <border>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -508,6 +506,8 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+    </border>
+    <border>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -519,17 +519,9 @@
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -537,41 +529,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -900,266 +900,266 @@
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="10" t="n">
         <v>307650.146942139</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="10" t="n">
         <v>6435.03022049499</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="10" t="n">
         <v>476.838427902775</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="11" t="n">
         <v>2.09167142757948</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="11" t="n">
         <v>7.41004178013163</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="6" t="n">
+      <c r="B7" s="12" t="n">
         <v>1206504.07788086</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="12" t="n">
         <v>92179.8457883116</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="12" t="n">
         <v>5066.74151911133</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="13" t="n">
         <v>7.64024320168226</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="13" t="n">
         <v>5.49658276793711</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="6" t="n">
+      <c r="B8" s="12" t="n">
         <v>251397.482635498</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="12" t="n">
         <v>35789.4377766381</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="12" t="n">
         <v>4667.04591016061</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="13" t="n">
         <v>14.2361957651459</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="13" t="n">
         <v>13.0402884205325</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="6" t="n">
+      <c r="B9" s="12" t="n">
         <v>454697.773071289</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="12" t="n">
         <v>22139.8155128333</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="12" t="n">
         <v>4076.88789731897</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="13" t="n">
         <v>4.86912776442433</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="F9" s="13" t="n">
         <v>18.4142812525055</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="6" t="n">
+      <c r="B10" s="12" t="n">
         <v>150422.450592041</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="12" t="n">
         <v>19075.150272623</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="12" t="n">
         <v>2120.22698906199</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="13" t="n">
         <v>12.6810527268675</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="F10" s="13" t="n">
         <v>11.1151260082338</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="6" t="n">
+      <c r="B11" s="12" t="n">
         <v>370641.704589844</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="12" t="n">
         <v>23388.2371438457</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="12" t="n">
         <v>3902.20483830774</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="13" t="n">
         <v>6.31020116037059</v>
       </c>
-      <c r="F11" s="7" t="n">
+      <c r="F11" s="13" t="n">
         <v>16.6844761078308</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="6" t="n">
+      <c r="B12" s="12" t="n">
         <v>104588.229454041</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="12" t="n">
         <v>11580.1211283283</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="12" t="n">
         <v>2931.90677357178</v>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="13" t="n">
         <v>11.0721074338647</v>
       </c>
-      <c r="F12" s="7" t="n">
+      <c r="F12" s="13" t="n">
         <v>25.3184465091604</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="6" t="n">
+      <c r="B13" s="12" t="n">
         <v>285437.542541504</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="12" t="n">
         <v>45638.7830630811</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="12" t="n">
         <v>7934.30784711264</v>
       </c>
-      <c r="E13" s="7" t="n">
+      <c r="E13" s="13" t="n">
         <v>15.989061094318</v>
       </c>
-      <c r="F13" s="7" t="n">
+      <c r="F13" s="13" t="n">
         <v>17.3850118574503</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="6" t="n">
+      <c r="B14" s="12" t="n">
         <v>459035.027801514</v>
       </c>
-      <c r="C14" s="6" t="n">
+      <c r="C14" s="12" t="n">
         <v>49247.1025573398</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="12" t="n">
         <v>4904.93803616641</v>
       </c>
-      <c r="E14" s="7" t="n">
+      <c r="E14" s="13" t="n">
         <v>10.7283975240848</v>
       </c>
-      <c r="F14" s="7" t="n">
+      <c r="F14" s="13" t="n">
         <v>9.9598509992653</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="6" t="n">
+      <c r="B15" s="12" t="n">
         <v>95388.7727661133</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="12" t="n">
         <v>9868.19756988892</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="12" t="n">
         <v>1548.57748601317</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="13" t="n">
         <v>10.3452400987327</v>
       </c>
-      <c r="F15" s="7" t="n">
+      <c r="F15" s="13" t="n">
         <v>15.6926072369931</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="8" t="n">
+      <c r="B16" s="14" t="n">
         <v>28112.8694610596</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="14" t="n">
         <v>6213.62555280715</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="14" t="n">
         <v>878.559580332195</v>
       </c>
-      <c r="E16" s="9" t="n">
+      <c r="E16" s="15" t="n">
         <v>22.1024238077651</v>
       </c>
-      <c r="F16" s="9" t="n">
+      <c r="F16" s="15" t="n">
         <v>14.1392424256284</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="11" t="n">
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3" t="n">
         <f t="shared" ref="B17:C17" si="0">SUM(B6:B16)</f>
         <v>3713876.0777359027</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="3" t="n">
         <f t="shared" si="0"/>
         <v>321555.34658619197</v>
       </c>
-      <c r="D17" s="11" t="n">
+      <c r="D17" s="3" t="n">
         <f>SUM(D6:D16)</f>
         <v>38508.235305059607</v>
       </c>
-      <c r="E17" s="12" t="n">
+      <c r="E17" s="4" t="n">
         <f>C17/B17*100</f>
         <v>8.6582142175896823</v>
       </c>
-      <c r="F17" s="12" t="n">
+      <c r="F17" s="4" t="n">
         <f>D17/C17*100</f>
         <v>11.975616550582711</v>
       </c>
@@ -3202,24 +3202,24 @@
       </c>
     </row>
     <row r="5" ht="39" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C6" s="32" t="n">
@@ -3230,10 +3230,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="n">
+      <c r="A7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="33" t="n">
@@ -3244,10 +3244,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="n">
+      <c r="A8" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C8" s="33" t="n">
@@ -3258,10 +3258,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="n">
+      <c r="A9" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C9" s="33" t="n">
@@ -3272,10 +3272,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="n">
+      <c r="A10" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C10" s="33" t="n">
@@ -3286,10 +3286,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="n">
+      <c r="A11" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="5" t="s">
         <v>125</v>
       </c>
       <c r="C11" s="33" t="n">
@@ -3300,10 +3300,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="n">
+      <c r="A12" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="33" t="n">
@@ -3314,10 +3314,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="13" t="n">
+      <c r="A13" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="5" t="s">
         <v>126</v>
       </c>
       <c r="C13" s="33" t="n">
@@ -3328,10 +3328,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="n">
+      <c r="A14" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C14" s="33" t="n">
@@ -3342,10 +3342,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="n">
+      <c r="A15" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="5" t="s">
         <v>105</v>
       </c>
       <c r="C15" s="33" t="n">
@@ -3356,10 +3356,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="n">
+      <c r="A16" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="5" t="s">
         <v>127</v>
       </c>
       <c r="C16" s="33" t="n">
@@ -3370,10 +3370,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="9" t="s">
         <v>128</v>
       </c>
       <c r="C17" s="34" t="n">
@@ -3453,292 +3453,292 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="10" t="n">
         <v>4973.21512980122</v>
       </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
+      <c r="D6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10" t="n">
         <v>106.259232219263</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="10" t="n">
         <v>1183.13396000334</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="10" t="n">
         <v>578.892820553219</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="10" t="n">
         <v>13823.0462046566</v>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="10" t="n">
         <v>8414.00219171916</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="12" t="n">
         <v>7147.8627737381</v>
       </c>
-      <c r="D7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6" t="n">
+      <c r="D7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12" t="n">
         <v>370.446764463819</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="12" t="n">
         <v>1707.53113561221</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G7" s="12" t="n">
         <v>673.815179068978</v>
       </c>
-      <c r="H7" s="6" t="n">
+      <c r="H7" s="12" t="n">
         <v>16043.5212738665</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="12" t="n">
         <v>12074.9508593088</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="12" t="n">
         <v>13803.9576839744</v>
       </c>
-      <c r="D8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6" t="n">
+      <c r="D8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12" t="n">
         <v>568.372122396319</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="12" t="n">
         <v>4296.58909694596</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="12" t="n">
         <v>1797.57060955125</v>
       </c>
-      <c r="H8" s="6" t="n">
+      <c r="H8" s="12" t="n">
         <v>46870.2761056324</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="12" t="n">
         <v>31181.6698884217</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="12" t="n">
         <v>8786.14068020212</v>
       </c>
-      <c r="D9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12" t="n">
         <v>570.922820065978</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="12" t="n">
         <v>4411.3692366454</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="12" t="n">
         <v>1418.47357434982</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="H9" s="12" t="n">
         <v>38762.5526176242</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="12" t="n">
         <v>27757.9558097806</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="12" t="n">
         <v>14071.6003952679</v>
       </c>
-      <c r="D10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6" t="n">
+      <c r="D10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12" t="n">
         <v>710.632280187866</v>
       </c>
-      <c r="F10" s="6" t="n">
+      <c r="F10" s="12" t="n">
         <v>4314.82582226552</v>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="12" t="n">
         <v>1803.9962374649</v>
       </c>
-      <c r="H10" s="6" t="n">
+      <c r="H10" s="12" t="n">
         <v>48231.6342366831</v>
       </c>
-      <c r="I10" s="6" t="n">
+      <c r="I10" s="12" t="n">
         <v>29708.7869242637</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="12" t="n">
         <v>4875.64646059809</v>
       </c>
-      <c r="D11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6" t="n">
+      <c r="D11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12" t="n">
         <v>4896.46960702937</v>
       </c>
-      <c r="F11" s="6" t="n">
+      <c r="F11" s="12" t="n">
         <v>9576.18744387978</v>
       </c>
-      <c r="G11" s="6" t="n">
+      <c r="G11" s="12" t="n">
         <v>1314.21838589622</v>
       </c>
-      <c r="H11" s="6" t="n">
+      <c r="H11" s="12" t="n">
         <v>7267.69415311415</v>
       </c>
-      <c r="I11" s="6" t="n">
+      <c r="I11" s="12" t="n">
         <v>6394.28403376757</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="12" t="n">
         <v>6146.74780403577</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="12" t="n">
         <v>79.8859550911261</v>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E12" s="12" t="n">
         <v>6178.45394707452</v>
       </c>
-      <c r="F12" s="6" t="n">
+      <c r="F12" s="12" t="n">
         <v>12265.520919156</v>
       </c>
-      <c r="G12" s="6" t="n">
+      <c r="G12" s="12" t="n">
         <v>1332.91641270401</v>
       </c>
-      <c r="H12" s="6" t="n">
+      <c r="H12" s="12" t="n">
         <v>8504.40093347604</v>
       </c>
-      <c r="I12" s="6" t="n">
+      <c r="I12" s="12" t="n">
         <v>7240.38894822003</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="12" t="n">
         <v>13186.4736259066</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="12" t="n">
         <v>53.2573033940841</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="12" t="n">
         <v>14062.3933245493</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F13" s="12" t="n">
         <v>28752.1017683618</v>
       </c>
-      <c r="G13" s="6" t="n">
+      <c r="G13" s="12" t="n">
         <v>4195.11692254088</v>
       </c>
-      <c r="H13" s="6" t="n">
+      <c r="H13" s="12" t="n">
         <v>24259.5196123846</v>
       </c>
-      <c r="I13" s="6" t="n">
+      <c r="I13" s="12" t="n">
         <v>19368.9640055935</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="6" t="n">
+      <c r="C14" s="12" t="n">
         <v>10118.4544105721</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="12" t="n">
         <v>89.2573613830571</v>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="12" t="n">
         <v>16705.5469241994</v>
       </c>
-      <c r="F14" s="6" t="n">
+      <c r="F14" s="12" t="n">
         <v>31258.916015085</v>
       </c>
-      <c r="G14" s="6" t="n">
+      <c r="G14" s="12" t="n">
         <v>5857.17673988907</v>
       </c>
-      <c r="H14" s="6" t="n">
+      <c r="H14" s="12" t="n">
         <v>29150.2728061712</v>
       </c>
-      <c r="I14" s="6" t="n">
+      <c r="I14" s="12" t="n">
         <v>23982.2551901872</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="8" t="n">
+      <c r="C15" s="14" t="n">
         <v>15846.9883971698</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="14" t="n">
         <v>26.628651697042</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="14" t="n">
         <v>17892.713982131</v>
       </c>
-      <c r="F15" s="8" t="n">
+      <c r="F15" s="14" t="n">
         <v>36503.6053485611</v>
       </c>
-      <c r="G15" s="8" t="n">
+      <c r="G15" s="14" t="n">
         <v>5428.61560295022</v>
       </c>
-      <c r="H15" s="8" t="n">
+      <c r="H15" s="14" t="n">
         <v>31787.2094679519</v>
       </c>
-      <c r="I15" s="8" t="n">
+      <c r="I15" s="14" t="n">
         <v>25491.4814179695</v>
       </c>
     </row>
@@ -3792,470 +3792,470 @@
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="13"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="11" t="n">
+      <c r="C23" s="3" t="n">
         <f>SUM(C24:C28)</f>
         <v>48782.776662983742</v>
       </c>
-      <c r="D23" s="11" t="n">
+      <c r="D23" s="3" t="n">
         <f t="shared" ref="D23:I23" si="1">SUM(D24:D28)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="11" t="n">
+      <c r="E23" s="3" t="n">
         <f t="shared" si="1"/>
         <v>2326.6332193332451</v>
       </c>
-      <c r="F23" s="11" t="n">
+      <c r="F23" s="3" t="n">
         <f t="shared" si="1"/>
         <v>15913.44925147243</v>
       </c>
-      <c r="G23" s="11" t="n">
+      <c r="G23" s="3" t="n">
         <f t="shared" si="1"/>
         <v>6272.7484209881677</v>
       </c>
-      <c r="H23" s="11" t="n">
+      <c r="H23" s="3" t="n">
         <f t="shared" si="1"/>
         <v>163731.0304384628</v>
       </c>
-      <c r="I23" s="11" t="n">
+      <c r="I23" s="3" t="n">
         <f t="shared" si="1"/>
         <v>109137.36567349396</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="13"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="6" t="n">
+      <c r="C24" s="12" t="n">
         <f>C6</f>
         <v>4973.2151298012204</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="D24" s="12" t="n">
         <f t="shared" ref="D24:I24" si="2">D6</f>
         <v>0</v>
       </c>
-      <c r="E24" s="6" t="n">
+      <c r="E24" s="12" t="n">
         <f t="shared" si="2"/>
         <v>106.259232219263</v>
       </c>
-      <c r="F24" s="6" t="n">
+      <c r="F24" s="12" t="n">
         <f t="shared" si="2"/>
         <v>1183.13396000334</v>
       </c>
-      <c r="G24" s="6" t="n">
+      <c r="G24" s="12" t="n">
         <f t="shared" si="2"/>
         <v>578.89282055321905</v>
       </c>
-      <c r="H24" s="6" t="n">
+      <c r="H24" s="12" t="n">
         <f t="shared" si="2"/>
         <v>13823.046204656601</v>
       </c>
-      <c r="I24" s="6" t="n">
+      <c r="I24" s="12" t="n">
         <f t="shared" si="2"/>
         <v>8414.0021917191607</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="13"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="6" t="n">
+      <c r="C25" s="12" t="n">
         <f t="shared" ref="C25:I25" si="3">C7</f>
         <v>7147.8627737381003</v>
       </c>
-      <c r="D25" s="6" t="n">
+      <c r="D25" s="12" t="n">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E25" s="6" t="n">
+      <c r="E25" s="12" t="n">
         <f t="shared" si="3"/>
         <v>370.44676446381902</v>
       </c>
-      <c r="F25" s="6" t="n">
+      <c r="F25" s="12" t="n">
         <f t="shared" si="3"/>
         <v>1707.5311356122099</v>
       </c>
-      <c r="G25" s="6" t="n">
+      <c r="G25" s="12" t="n">
         <f t="shared" si="3"/>
         <v>673.81517906897795</v>
       </c>
-      <c r="H25" s="6" t="n">
+      <c r="H25" s="12" t="n">
         <f t="shared" si="3"/>
         <v>16043.5212738665</v>
       </c>
-      <c r="I25" s="6" t="n">
+      <c r="I25" s="12" t="n">
         <f t="shared" si="3"/>
         <v>12074.950859308799</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="13"/>
+      <c r="A26" s="5"/>
       <c r="B26" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="6" t="n">
+      <c r="C26" s="12" t="n">
         <f t="shared" ref="C26:I26" si="4">C8</f>
         <v>13803.9576839744</v>
       </c>
-      <c r="D26" s="6" t="n">
+      <c r="D26" s="12" t="n">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E26" s="6" t="n">
+      <c r="E26" s="12" t="n">
         <f t="shared" si="4"/>
         <v>568.37212239631901</v>
       </c>
-      <c r="F26" s="6" t="n">
+      <c r="F26" s="12" t="n">
         <f t="shared" si="4"/>
         <v>4296.5890969459597</v>
       </c>
-      <c r="G26" s="6" t="n">
+      <c r="G26" s="12" t="n">
         <f t="shared" si="4"/>
         <v>1797.5706095512501</v>
       </c>
-      <c r="H26" s="6" t="n">
+      <c r="H26" s="12" t="n">
         <f t="shared" si="4"/>
         <v>46870.276105632402</v>
       </c>
-      <c r="I26" s="6" t="n">
+      <c r="I26" s="12" t="n">
         <f t="shared" si="4"/>
         <v>31181.6698884217</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="13"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="6" t="n">
+      <c r="C27" s="12" t="n">
         <f t="shared" ref="C27:I27" si="5">C9</f>
         <v>8786.1406802021193</v>
       </c>
-      <c r="D27" s="6" t="n">
+      <c r="D27" s="12" t="n">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E27" s="6" t="n">
+      <c r="E27" s="12" t="n">
         <f t="shared" si="5"/>
         <v>570.92282006597804</v>
       </c>
-      <c r="F27" s="6" t="n">
+      <c r="F27" s="12" t="n">
         <f t="shared" si="5"/>
         <v>4411.3692366453997</v>
       </c>
-      <c r="G27" s="6" t="n">
+      <c r="G27" s="12" t="n">
         <f t="shared" si="5"/>
         <v>1418.47357434982</v>
       </c>
-      <c r="H27" s="6" t="n">
+      <c r="H27" s="12" t="n">
         <f t="shared" si="5"/>
         <v>38762.552617624198</v>
       </c>
-      <c r="I27" s="6" t="n">
+      <c r="I27" s="12" t="n">
         <f t="shared" si="5"/>
         <v>27757.9558097806</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="13"/>
+      <c r="A28" s="5"/>
       <c r="B28" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="6" t="n">
+      <c r="C28" s="12" t="n">
         <f t="shared" ref="C28:I28" si="6">C10</f>
         <v>14071.6003952679</v>
       </c>
-      <c r="D28" s="6" t="n">
+      <c r="D28" s="12" t="n">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E28" s="6" t="n">
+      <c r="E28" s="12" t="n">
         <f t="shared" si="6"/>
         <v>710.63228018786594</v>
       </c>
-      <c r="F28" s="6" t="n">
+      <c r="F28" s="12" t="n">
         <f t="shared" si="6"/>
         <v>4314.8258222655204</v>
       </c>
-      <c r="G28" s="6" t="n">
+      <c r="G28" s="12" t="n">
         <f t="shared" si="6"/>
         <v>1803.9962374649001</v>
       </c>
-      <c r="H28" s="6" t="n">
+      <c r="H28" s="12" t="n">
         <f t="shared" si="6"/>
         <v>48231.634236683101</v>
       </c>
-      <c r="I28" s="6" t="n">
+      <c r="I28" s="12" t="n">
         <f t="shared" si="6"/>
         <v>29708.786924263699</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="13"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="11" t="n">
+      <c r="C29" s="3" t="n">
         <f>SUM(C30:C34)</f>
         <v>50174.310698282359</v>
       </c>
-      <c r="D29" s="11" t="n">
+      <c r="D29" s="3" t="n">
         <f t="shared" ref="D29:I29" si="7">SUM(D30:D34)</f>
         <v>249.0292715653093</v>
       </c>
-      <c r="E29" s="11" t="n">
+      <c r="E29" s="3" t="n">
         <f t="shared" si="7"/>
         <v>59735.577784983587</v>
       </c>
-      <c r="F29" s="11" t="n">
+      <c r="F29" s="3" t="n">
         <f t="shared" si="7"/>
         <v>118356.33149504368</v>
       </c>
-      <c r="G29" s="11" t="n">
+      <c r="G29" s="3" t="n">
         <f t="shared" si="7"/>
         <v>18128.0440639804</v>
       </c>
-      <c r="H29" s="11" t="n">
+      <c r="H29" s="3" t="n">
         <f t="shared" si="7"/>
         <v>100969.09697309788</v>
       </c>
-      <c r="I29" s="11" t="n">
+      <c r="I29" s="3" t="n">
         <f t="shared" si="7"/>
         <v>82477.373595737794</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="13"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="6" t="n">
+      <c r="C30" s="12" t="n">
         <f t="shared" ref="C30:I30" si="8">C11</f>
         <v>4875.64646059809</v>
       </c>
-      <c r="D30" s="6" t="n">
+      <c r="D30" s="12" t="n">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E30" s="6" t="n">
+      <c r="E30" s="12" t="n">
         <f t="shared" si="8"/>
         <v>4896.4696070293703</v>
       </c>
-      <c r="F30" s="6" t="n">
+      <c r="F30" s="12" t="n">
         <f t="shared" si="8"/>
         <v>9576.1874438797804</v>
       </c>
-      <c r="G30" s="6" t="n">
+      <c r="G30" s="12" t="n">
         <f t="shared" si="8"/>
         <v>1314.2183858962201</v>
       </c>
-      <c r="H30" s="6" t="n">
+      <c r="H30" s="12" t="n">
         <f t="shared" si="8"/>
         <v>7267.6941531141501</v>
       </c>
-      <c r="I30" s="6" t="n">
+      <c r="I30" s="12" t="n">
         <f t="shared" si="8"/>
         <v>6394.2840337675698</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="13"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="6" t="n">
+      <c r="C31" s="12" t="n">
         <f t="shared" ref="C31:I31" si="9">C12</f>
         <v>6146.7478040357701</v>
       </c>
-      <c r="D31" s="6" t="n">
+      <c r="D31" s="12" t="n">
         <f t="shared" si="9"/>
         <v>79.885955091126107</v>
       </c>
-      <c r="E31" s="6" t="n">
+      <c r="E31" s="12" t="n">
         <f t="shared" si="9"/>
         <v>6178.4539470745203</v>
       </c>
-      <c r="F31" s="6" t="n">
+      <c r="F31" s="12" t="n">
         <f t="shared" si="9"/>
         <v>12265.520919156001</v>
       </c>
-      <c r="G31" s="6" t="n">
+      <c r="G31" s="12" t="n">
         <f t="shared" si="9"/>
         <v>1332.9164127040101</v>
       </c>
-      <c r="H31" s="6" t="n">
+      <c r="H31" s="12" t="n">
         <f t="shared" si="9"/>
         <v>8504.4009334760394</v>
       </c>
-      <c r="I31" s="6" t="n">
+      <c r="I31" s="12" t="n">
         <f t="shared" si="9"/>
         <v>7240.3889482200302</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="13"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="6" t="n">
+      <c r="C32" s="12" t="n">
         <f t="shared" ref="C32:I32" si="10">C13</f>
         <v>13186.473625906599</v>
       </c>
-      <c r="D32" s="6" t="n">
+      <c r="D32" s="12" t="n">
         <f t="shared" si="10"/>
         <v>53.257303394084097</v>
       </c>
-      <c r="E32" s="6" t="n">
+      <c r="E32" s="12" t="n">
         <f t="shared" si="10"/>
         <v>14062.393324549301</v>
       </c>
-      <c r="F32" s="6" t="n">
+      <c r="F32" s="12" t="n">
         <f t="shared" si="10"/>
         <v>28752.101768361801</v>
       </c>
-      <c r="G32" s="6" t="n">
+      <c r="G32" s="12" t="n">
         <f t="shared" si="10"/>
         <v>4195.1169225408803</v>
       </c>
-      <c r="H32" s="6" t="n">
+      <c r="H32" s="12" t="n">
         <f t="shared" si="10"/>
         <v>24259.5196123846</v>
       </c>
-      <c r="I32" s="6" t="n">
+      <c r="I32" s="12" t="n">
         <f t="shared" si="10"/>
         <v>19368.964005593501</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="13"/>
+      <c r="A33" s="5"/>
       <c r="B33" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="6" t="n">
+      <c r="C33" s="12" t="n">
         <f t="shared" ref="C33:I33" si="11">C14</f>
         <v>10118.4544105721</v>
       </c>
-      <c r="D33" s="6" t="n">
+      <c r="D33" s="12" t="n">
         <f t="shared" si="11"/>
         <v>89.257361383057102</v>
       </c>
-      <c r="E33" s="6" t="n">
+      <c r="E33" s="12" t="n">
         <f t="shared" si="11"/>
         <v>16705.5469241994</v>
       </c>
-      <c r="F33" s="6" t="n">
+      <c r="F33" s="12" t="n">
         <f t="shared" si="11"/>
         <v>31258.916015085</v>
       </c>
-      <c r="G33" s="6" t="n">
+      <c r="G33" s="12" t="n">
         <f t="shared" si="11"/>
         <v>5857.1767398890697</v>
       </c>
-      <c r="H33" s="6" t="n">
+      <c r="H33" s="12" t="n">
         <f t="shared" si="11"/>
         <v>29150.272806171201</v>
       </c>
-      <c r="I33" s="6" t="n">
+      <c r="I33" s="12" t="n">
         <f t="shared" si="11"/>
         <v>23982.255190187199</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="13"/>
+      <c r="A34" s="5"/>
       <c r="B34" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="8" t="n">
+      <c r="C34" s="14" t="n">
         <f t="shared" ref="C34:I34" si="12">C15</f>
         <v>15846.9883971698</v>
       </c>
-      <c r="D34" s="8" t="n">
+      <c r="D34" s="14" t="n">
         <f t="shared" si="12"/>
         <v>26.628651697041999</v>
       </c>
-      <c r="E34" s="8" t="n">
+      <c r="E34" s="14" t="n">
         <f t="shared" si="12"/>
         <v>17892.713982131001</v>
       </c>
-      <c r="F34" s="8" t="n">
+      <c r="F34" s="14" t="n">
         <f t="shared" si="12"/>
         <v>36503.605348561097</v>
       </c>
-      <c r="G34" s="8" t="n">
+      <c r="G34" s="14" t="n">
         <f t="shared" si="12"/>
         <v>5428.6156029502199</v>
       </c>
-      <c r="H34" s="8" t="n">
+      <c r="H34" s="14" t="n">
         <f t="shared" si="12"/>
         <v>31787.2094679519</v>
       </c>
-      <c r="I34" s="8" t="n">
+      <c r="I34" s="14" t="n">
         <f t="shared" si="12"/>
         <v>25491.481417969499</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="13"/>
-      <c r="B35" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="11" t="n">
+      <c r="A35" s="5"/>
+      <c r="B35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3" t="n">
         <f t="shared" ref="C35:I35" si="13">C16</f>
         <v>98957.087361266094</v>
       </c>
-      <c r="D35" s="11" t="n">
+      <c r="D35" s="3" t="n">
         <f t="shared" si="13"/>
         <v>249.0292715653093</v>
       </c>
-      <c r="E35" s="11" t="n">
+      <c r="E35" s="3" t="n">
         <f t="shared" si="13"/>
         <v>62062.211004316836</v>
       </c>
-      <c r="F35" s="11" t="n">
+      <c r="F35" s="3" t="n">
         <f t="shared" si="13"/>
         <v>134269.7807465161</v>
       </c>
-      <c r="G35" s="11" t="n">
+      <c r="G35" s="3" t="n">
         <f t="shared" si="13"/>
         <v>24400.792484968566</v>
       </c>
-      <c r="H35" s="11" t="n">
+      <c r="H35" s="3" t="n">
         <f t="shared" si="13"/>
         <v>264700.12741156074</v>
       </c>
-      <c r="I35" s="11" t="n">
+      <c r="I35" s="3" t="n">
         <f t="shared" si="13"/>
         <v>191614.73926923177</v>
       </c>

--- a/data/outputs/vulnerability.xlsx
+++ b/data/outputs/vulnerability.xlsx
@@ -519,8 +519,6 @@
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -537,6 +535,8 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -900,266 +900,266 @@
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="10" t="n">
+      <c r="B6" s="8" t="n">
         <v>307650.146942139</v>
       </c>
-      <c r="C6" s="10" t="n">
+      <c r="C6" s="8" t="n">
         <v>6435.03022049499</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="8" t="n">
         <v>476.838427902775</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E6" s="9" t="n">
         <v>2.09167142757948</v>
       </c>
-      <c r="F6" s="11" t="n">
+      <c r="F6" s="9" t="n">
         <v>7.41004178013163</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="12" t="n">
+      <c r="B7" s="10" t="n">
         <v>1206504.07788086</v>
       </c>
-      <c r="C7" s="12" t="n">
+      <c r="C7" s="10" t="n">
         <v>92179.8457883116</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="10" t="n">
         <v>5066.74151911133</v>
       </c>
-      <c r="E7" s="13" t="n">
+      <c r="E7" s="11" t="n">
         <v>7.64024320168226</v>
       </c>
-      <c r="F7" s="13" t="n">
+      <c r="F7" s="11" t="n">
         <v>5.49658276793711</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="12" t="n">
+      <c r="B8" s="10" t="n">
         <v>251397.482635498</v>
       </c>
-      <c r="C8" s="12" t="n">
+      <c r="C8" s="10" t="n">
         <v>35789.4377766381</v>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="10" t="n">
         <v>4667.04591016061</v>
       </c>
-      <c r="E8" s="13" t="n">
+      <c r="E8" s="11" t="n">
         <v>14.2361957651459</v>
       </c>
-      <c r="F8" s="13" t="n">
+      <c r="F8" s="11" t="n">
         <v>13.0402884205325</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="12" t="n">
+      <c r="B9" s="10" t="n">
         <v>454697.773071289</v>
       </c>
-      <c r="C9" s="12" t="n">
+      <c r="C9" s="10" t="n">
         <v>22139.8155128333</v>
       </c>
-      <c r="D9" s="12" t="n">
+      <c r="D9" s="10" t="n">
         <v>4076.88789731897</v>
       </c>
-      <c r="E9" s="13" t="n">
+      <c r="E9" s="11" t="n">
         <v>4.86912776442433</v>
       </c>
-      <c r="F9" s="13" t="n">
+      <c r="F9" s="11" t="n">
         <v>18.4142812525055</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="12" t="n">
+      <c r="B10" s="10" t="n">
         <v>150422.450592041</v>
       </c>
-      <c r="C10" s="12" t="n">
+      <c r="C10" s="10" t="n">
         <v>19075.150272623</v>
       </c>
-      <c r="D10" s="12" t="n">
+      <c r="D10" s="10" t="n">
         <v>2120.22698906199</v>
       </c>
-      <c r="E10" s="13" t="n">
+      <c r="E10" s="11" t="n">
         <v>12.6810527268675</v>
       </c>
-      <c r="F10" s="13" t="n">
+      <c r="F10" s="11" t="n">
         <v>11.1151260082338</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="12" t="n">
+      <c r="B11" s="10" t="n">
         <v>370641.704589844</v>
       </c>
-      <c r="C11" s="12" t="n">
+      <c r="C11" s="10" t="n">
         <v>23388.2371438457</v>
       </c>
-      <c r="D11" s="12" t="n">
+      <c r="D11" s="10" t="n">
         <v>3902.20483830774</v>
       </c>
-      <c r="E11" s="13" t="n">
+      <c r="E11" s="11" t="n">
         <v>6.31020116037059</v>
       </c>
-      <c r="F11" s="13" t="n">
+      <c r="F11" s="11" t="n">
         <v>16.6844761078308</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="12" t="n">
+      <c r="B12" s="10" t="n">
         <v>104588.229454041</v>
       </c>
-      <c r="C12" s="12" t="n">
+      <c r="C12" s="10" t="n">
         <v>11580.1211283283</v>
       </c>
-      <c r="D12" s="12" t="n">
+      <c r="D12" s="10" t="n">
         <v>2931.90677357178</v>
       </c>
-      <c r="E12" s="13" t="n">
+      <c r="E12" s="11" t="n">
         <v>11.0721074338647</v>
       </c>
-      <c r="F12" s="13" t="n">
+      <c r="F12" s="11" t="n">
         <v>25.3184465091604</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="12" t="n">
+      <c r="B13" s="10" t="n">
         <v>285437.542541504</v>
       </c>
-      <c r="C13" s="12" t="n">
+      <c r="C13" s="10" t="n">
         <v>45638.7830630811</v>
       </c>
-      <c r="D13" s="12" t="n">
+      <c r="D13" s="10" t="n">
         <v>7934.30784711264</v>
       </c>
-      <c r="E13" s="13" t="n">
+      <c r="E13" s="11" t="n">
         <v>15.989061094318</v>
       </c>
-      <c r="F13" s="13" t="n">
+      <c r="F13" s="11" t="n">
         <v>17.3850118574503</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="12" t="n">
+      <c r="B14" s="10" t="n">
         <v>459035.027801514</v>
       </c>
-      <c r="C14" s="12" t="n">
+      <c r="C14" s="10" t="n">
         <v>49247.1025573398</v>
       </c>
-      <c r="D14" s="12" t="n">
+      <c r="D14" s="10" t="n">
         <v>4904.93803616641</v>
       </c>
-      <c r="E14" s="13" t="n">
+      <c r="E14" s="11" t="n">
         <v>10.7283975240848</v>
       </c>
-      <c r="F14" s="13" t="n">
+      <c r="F14" s="11" t="n">
         <v>9.9598509992653</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="12" t="n">
+      <c r="B15" s="10" t="n">
         <v>95388.7727661133</v>
       </c>
-      <c r="C15" s="12" t="n">
+      <c r="C15" s="10" t="n">
         <v>9868.19756988892</v>
       </c>
-      <c r="D15" s="12" t="n">
+      <c r="D15" s="10" t="n">
         <v>1548.57748601317</v>
       </c>
-      <c r="E15" s="13" t="n">
+      <c r="E15" s="11" t="n">
         <v>10.3452400987327</v>
       </c>
-      <c r="F15" s="13" t="n">
+      <c r="F15" s="11" t="n">
         <v>15.6926072369931</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="14" t="n">
+      <c r="B16" s="12" t="n">
         <v>28112.8694610596</v>
       </c>
-      <c r="C16" s="14" t="n">
+      <c r="C16" s="12" t="n">
         <v>6213.62555280715</v>
       </c>
-      <c r="D16" s="14" t="n">
+      <c r="D16" s="12" t="n">
         <v>878.559580332195</v>
       </c>
-      <c r="E16" s="15" t="n">
+      <c r="E16" s="13" t="n">
         <v>22.1024238077651</v>
       </c>
-      <c r="F16" s="15" t="n">
+      <c r="F16" s="13" t="n">
         <v>14.1392424256284</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="3" t="n">
+      <c r="A17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="15" t="n">
         <f t="shared" ref="B17:C17" si="0">SUM(B6:B16)</f>
         <v>3713876.0777359027</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="15" t="n">
         <f t="shared" si="0"/>
         <v>321555.34658619197</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="15" t="n">
         <f>SUM(D6:D16)</f>
         <v>38508.235305059607</v>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="2" t="n">
         <f>C17/B17*100</f>
         <v>8.6582142175896823</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="2" t="n">
         <f>D17/C17*100</f>
         <v>11.975616550582711</v>
       </c>
@@ -3202,24 +3202,24 @@
       </c>
     </row>
     <row r="5" ht="39" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>96</v>
       </c>
       <c r="C6" s="32" t="n">
@@ -3230,10 +3230,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="33" t="n">
@@ -3244,10 +3244,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C8" s="33" t="n">
@@ -3258,10 +3258,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C9" s="33" t="n">
@@ -3272,10 +3272,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C10" s="33" t="n">
@@ -3286,10 +3286,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n">
+      <c r="A11" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>125</v>
       </c>
       <c r="C11" s="33" t="n">
@@ -3300,10 +3300,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="33" t="n">
@@ -3314,10 +3314,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n">
+      <c r="A13" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C13" s="33" t="n">
@@ -3328,10 +3328,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C14" s="33" t="n">
@@ -3342,10 +3342,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n">
+      <c r="A15" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C15" s="33" t="n">
@@ -3356,10 +3356,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="n">
+      <c r="A16" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C16" s="33" t="n">
@@ -3370,10 +3370,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="n">
+      <c r="A17" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>128</v>
       </c>
       <c r="C17" s="34" t="n">
@@ -3453,292 +3453,292 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="10" t="n">
+      <c r="C6" s="8" t="n">
         <v>4973.21512980122</v>
       </c>
-      <c r="D6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10" t="n">
+      <c r="D6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="n">
         <v>106.259232219263</v>
       </c>
-      <c r="F6" s="10" t="n">
+      <c r="F6" s="8" t="n">
         <v>1183.13396000334</v>
       </c>
-      <c r="G6" s="10" t="n">
+      <c r="G6" s="8" t="n">
         <v>578.892820553219</v>
       </c>
-      <c r="H6" s="10" t="n">
+      <c r="H6" s="8" t="n">
         <v>13823.0462046566</v>
       </c>
-      <c r="I6" s="10" t="n">
+      <c r="I6" s="8" t="n">
         <v>8414.00219171916</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="12" t="n">
+      <c r="C7" s="10" t="n">
         <v>7147.8627737381</v>
       </c>
-      <c r="D7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12" t="n">
+      <c r="D7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10" t="n">
         <v>370.446764463819</v>
       </c>
-      <c r="F7" s="12" t="n">
+      <c r="F7" s="10" t="n">
         <v>1707.53113561221</v>
       </c>
-      <c r="G7" s="12" t="n">
+      <c r="G7" s="10" t="n">
         <v>673.815179068978</v>
       </c>
-      <c r="H7" s="12" t="n">
+      <c r="H7" s="10" t="n">
         <v>16043.5212738665</v>
       </c>
-      <c r="I7" s="12" t="n">
+      <c r="I7" s="10" t="n">
         <v>12074.9508593088</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="12" t="n">
+      <c r="C8" s="10" t="n">
         <v>13803.9576839744</v>
       </c>
-      <c r="D8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12" t="n">
+      <c r="D8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10" t="n">
         <v>568.372122396319</v>
       </c>
-      <c r="F8" s="12" t="n">
+      <c r="F8" s="10" t="n">
         <v>4296.58909694596</v>
       </c>
-      <c r="G8" s="12" t="n">
+      <c r="G8" s="10" t="n">
         <v>1797.57060955125</v>
       </c>
-      <c r="H8" s="12" t="n">
+      <c r="H8" s="10" t="n">
         <v>46870.2761056324</v>
       </c>
-      <c r="I8" s="12" t="n">
+      <c r="I8" s="10" t="n">
         <v>31181.6698884217</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="12" t="n">
+      <c r="C9" s="10" t="n">
         <v>8786.14068020212</v>
       </c>
-      <c r="D9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12" t="n">
+      <c r="D9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10" t="n">
         <v>570.922820065978</v>
       </c>
-      <c r="F9" s="12" t="n">
+      <c r="F9" s="10" t="n">
         <v>4411.3692366454</v>
       </c>
-      <c r="G9" s="12" t="n">
+      <c r="G9" s="10" t="n">
         <v>1418.47357434982</v>
       </c>
-      <c r="H9" s="12" t="n">
+      <c r="H9" s="10" t="n">
         <v>38762.5526176242</v>
       </c>
-      <c r="I9" s="12" t="n">
+      <c r="I9" s="10" t="n">
         <v>27757.9558097806</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="12" t="n">
+      <c r="C10" s="10" t="n">
         <v>14071.6003952679</v>
       </c>
-      <c r="D10" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="12" t="n">
+      <c r="D10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10" t="n">
         <v>710.632280187866</v>
       </c>
-      <c r="F10" s="12" t="n">
+      <c r="F10" s="10" t="n">
         <v>4314.82582226552</v>
       </c>
-      <c r="G10" s="12" t="n">
+      <c r="G10" s="10" t="n">
         <v>1803.9962374649</v>
       </c>
-      <c r="H10" s="12" t="n">
+      <c r="H10" s="10" t="n">
         <v>48231.6342366831</v>
       </c>
-      <c r="I10" s="12" t="n">
+      <c r="I10" s="10" t="n">
         <v>29708.7869242637</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="12" t="n">
+      <c r="C11" s="10" t="n">
         <v>4875.64646059809</v>
       </c>
-      <c r="D11" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12" t="n">
+      <c r="D11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10" t="n">
         <v>4896.46960702937</v>
       </c>
-      <c r="F11" s="12" t="n">
+      <c r="F11" s="10" t="n">
         <v>9576.18744387978</v>
       </c>
-      <c r="G11" s="12" t="n">
+      <c r="G11" s="10" t="n">
         <v>1314.21838589622</v>
       </c>
-      <c r="H11" s="12" t="n">
+      <c r="H11" s="10" t="n">
         <v>7267.69415311415</v>
       </c>
-      <c r="I11" s="12" t="n">
+      <c r="I11" s="10" t="n">
         <v>6394.28403376757</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="12" t="n">
+      <c r="C12" s="10" t="n">
         <v>6146.74780403577</v>
       </c>
-      <c r="D12" s="12" t="n">
+      <c r="D12" s="10" t="n">
         <v>79.8859550911261</v>
       </c>
-      <c r="E12" s="12" t="n">
+      <c r="E12" s="10" t="n">
         <v>6178.45394707452</v>
       </c>
-      <c r="F12" s="12" t="n">
+      <c r="F12" s="10" t="n">
         <v>12265.520919156</v>
       </c>
-      <c r="G12" s="12" t="n">
+      <c r="G12" s="10" t="n">
         <v>1332.91641270401</v>
       </c>
-      <c r="H12" s="12" t="n">
+      <c r="H12" s="10" t="n">
         <v>8504.40093347604</v>
       </c>
-      <c r="I12" s="12" t="n">
+      <c r="I12" s="10" t="n">
         <v>7240.38894822003</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="12" t="n">
+      <c r="C13" s="10" t="n">
         <v>13186.4736259066</v>
       </c>
-      <c r="D13" s="12" t="n">
+      <c r="D13" s="10" t="n">
         <v>53.2573033940841</v>
       </c>
-      <c r="E13" s="12" t="n">
+      <c r="E13" s="10" t="n">
         <v>14062.3933245493</v>
       </c>
-      <c r="F13" s="12" t="n">
+      <c r="F13" s="10" t="n">
         <v>28752.1017683618</v>
       </c>
-      <c r="G13" s="12" t="n">
+      <c r="G13" s="10" t="n">
         <v>4195.11692254088</v>
       </c>
-      <c r="H13" s="12" t="n">
+      <c r="H13" s="10" t="n">
         <v>24259.5196123846</v>
       </c>
-      <c r="I13" s="12" t="n">
+      <c r="I13" s="10" t="n">
         <v>19368.9640055935</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="12" t="n">
+      <c r="C14" s="10" t="n">
         <v>10118.4544105721</v>
       </c>
-      <c r="D14" s="12" t="n">
+      <c r="D14" s="10" t="n">
         <v>89.2573613830571</v>
       </c>
-      <c r="E14" s="12" t="n">
+      <c r="E14" s="10" t="n">
         <v>16705.5469241994</v>
       </c>
-      <c r="F14" s="12" t="n">
+      <c r="F14" s="10" t="n">
         <v>31258.916015085</v>
       </c>
-      <c r="G14" s="12" t="n">
+      <c r="G14" s="10" t="n">
         <v>5857.17673988907</v>
       </c>
-      <c r="H14" s="12" t="n">
+      <c r="H14" s="10" t="n">
         <v>29150.2728061712</v>
       </c>
-      <c r="I14" s="12" t="n">
+      <c r="I14" s="10" t="n">
         <v>23982.2551901872</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="14" t="n">
+      <c r="C15" s="12" t="n">
         <v>15846.9883971698</v>
       </c>
-      <c r="D15" s="14" t="n">
+      <c r="D15" s="12" t="n">
         <v>26.628651697042</v>
       </c>
-      <c r="E15" s="14" t="n">
+      <c r="E15" s="12" t="n">
         <v>17892.713982131</v>
       </c>
-      <c r="F15" s="14" t="n">
+      <c r="F15" s="12" t="n">
         <v>36503.6053485611</v>
       </c>
-      <c r="G15" s="14" t="n">
+      <c r="G15" s="12" t="n">
         <v>5428.61560295022</v>
       </c>
-      <c r="H15" s="14" t="n">
+      <c r="H15" s="12" t="n">
         <v>31787.2094679519</v>
       </c>
-      <c r="I15" s="14" t="n">
+      <c r="I15" s="12" t="n">
         <v>25491.4814179695</v>
       </c>
     </row>
@@ -3792,470 +3792,470 @@
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5"/>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="C23" s="15" t="n">
         <f>SUM(C24:C28)</f>
         <v>48782.776662983742</v>
       </c>
-      <c r="D23" s="3" t="n">
+      <c r="D23" s="15" t="n">
         <f t="shared" ref="D23:I23" si="1">SUM(D24:D28)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="15" t="n">
         <f t="shared" si="1"/>
         <v>2326.6332193332451</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F23" s="15" t="n">
         <f t="shared" si="1"/>
         <v>15913.44925147243</v>
       </c>
-      <c r="G23" s="3" t="n">
+      <c r="G23" s="15" t="n">
         <f t="shared" si="1"/>
         <v>6272.7484209881677</v>
       </c>
-      <c r="H23" s="3" t="n">
+      <c r="H23" s="15" t="n">
         <f t="shared" si="1"/>
         <v>163731.0304384628</v>
       </c>
-      <c r="I23" s="3" t="n">
+      <c r="I23" s="15" t="n">
         <f t="shared" si="1"/>
         <v>109137.36567349396</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="12" t="n">
+      <c r="C24" s="10" t="n">
         <f>C6</f>
         <v>4973.2151298012204</v>
       </c>
-      <c r="D24" s="12" t="n">
+      <c r="D24" s="10" t="n">
         <f t="shared" ref="D24:I24" si="2">D6</f>
         <v>0</v>
       </c>
-      <c r="E24" s="12" t="n">
+      <c r="E24" s="10" t="n">
         <f t="shared" si="2"/>
         <v>106.259232219263</v>
       </c>
-      <c r="F24" s="12" t="n">
+      <c r="F24" s="10" t="n">
         <f t="shared" si="2"/>
         <v>1183.13396000334</v>
       </c>
-      <c r="G24" s="12" t="n">
+      <c r="G24" s="10" t="n">
         <f t="shared" si="2"/>
         <v>578.89282055321905</v>
       </c>
-      <c r="H24" s="12" t="n">
+      <c r="H24" s="10" t="n">
         <f t="shared" si="2"/>
         <v>13823.046204656601</v>
       </c>
-      <c r="I24" s="12" t="n">
+      <c r="I24" s="10" t="n">
         <f t="shared" si="2"/>
         <v>8414.0021917191607</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="12" t="n">
+      <c r="C25" s="10" t="n">
         <f t="shared" ref="C25:I25" si="3">C7</f>
         <v>7147.8627737381003</v>
       </c>
-      <c r="D25" s="12" t="n">
+      <c r="D25" s="10" t="n">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E25" s="12" t="n">
+      <c r="E25" s="10" t="n">
         <f t="shared" si="3"/>
         <v>370.44676446381902</v>
       </c>
-      <c r="F25" s="12" t="n">
+      <c r="F25" s="10" t="n">
         <f t="shared" si="3"/>
         <v>1707.5311356122099</v>
       </c>
-      <c r="G25" s="12" t="n">
+      <c r="G25" s="10" t="n">
         <f t="shared" si="3"/>
         <v>673.81517906897795</v>
       </c>
-      <c r="H25" s="12" t="n">
+      <c r="H25" s="10" t="n">
         <f t="shared" si="3"/>
         <v>16043.5212738665</v>
       </c>
-      <c r="I25" s="12" t="n">
+      <c r="I25" s="10" t="n">
         <f t="shared" si="3"/>
         <v>12074.950859308799</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="12" t="n">
+      <c r="C26" s="10" t="n">
         <f t="shared" ref="C26:I26" si="4">C8</f>
         <v>13803.9576839744</v>
       </c>
-      <c r="D26" s="12" t="n">
+      <c r="D26" s="10" t="n">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E26" s="12" t="n">
+      <c r="E26" s="10" t="n">
         <f t="shared" si="4"/>
         <v>568.37212239631901</v>
       </c>
-      <c r="F26" s="12" t="n">
+      <c r="F26" s="10" t="n">
         <f t="shared" si="4"/>
         <v>4296.5890969459597</v>
       </c>
-      <c r="G26" s="12" t="n">
+      <c r="G26" s="10" t="n">
         <f t="shared" si="4"/>
         <v>1797.5706095512501</v>
       </c>
-      <c r="H26" s="12" t="n">
+      <c r="H26" s="10" t="n">
         <f t="shared" si="4"/>
         <v>46870.276105632402</v>
       </c>
-      <c r="I26" s="12" t="n">
+      <c r="I26" s="10" t="n">
         <f t="shared" si="4"/>
         <v>31181.6698884217</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="12" t="n">
+      <c r="C27" s="10" t="n">
         <f t="shared" ref="C27:I27" si="5">C9</f>
         <v>8786.1406802021193</v>
       </c>
-      <c r="D27" s="12" t="n">
+      <c r="D27" s="10" t="n">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E27" s="12" t="n">
+      <c r="E27" s="10" t="n">
         <f t="shared" si="5"/>
         <v>570.92282006597804</v>
       </c>
-      <c r="F27" s="12" t="n">
+      <c r="F27" s="10" t="n">
         <f t="shared" si="5"/>
         <v>4411.3692366453997</v>
       </c>
-      <c r="G27" s="12" t="n">
+      <c r="G27" s="10" t="n">
         <f t="shared" si="5"/>
         <v>1418.47357434982</v>
       </c>
-      <c r="H27" s="12" t="n">
+      <c r="H27" s="10" t="n">
         <f t="shared" si="5"/>
         <v>38762.552617624198</v>
       </c>
-      <c r="I27" s="12" t="n">
+      <c r="I27" s="10" t="n">
         <f t="shared" si="5"/>
         <v>27757.9558097806</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="12" t="n">
+      <c r="C28" s="10" t="n">
         <f t="shared" ref="C28:I28" si="6">C10</f>
         <v>14071.6003952679</v>
       </c>
-      <c r="D28" s="12" t="n">
+      <c r="D28" s="10" t="n">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E28" s="12" t="n">
+      <c r="E28" s="10" t="n">
         <f t="shared" si="6"/>
         <v>710.63228018786594</v>
       </c>
-      <c r="F28" s="12" t="n">
+      <c r="F28" s="10" t="n">
         <f t="shared" si="6"/>
         <v>4314.8258222655204</v>
       </c>
-      <c r="G28" s="12" t="n">
+      <c r="G28" s="10" t="n">
         <f t="shared" si="6"/>
         <v>1803.9962374649001</v>
       </c>
-      <c r="H28" s="12" t="n">
+      <c r="H28" s="10" t="n">
         <f t="shared" si="6"/>
         <v>48231.634236683101</v>
       </c>
-      <c r="I28" s="12" t="n">
+      <c r="I28" s="10" t="n">
         <f t="shared" si="6"/>
         <v>29708.786924263699</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" s="15" t="n">
         <f>SUM(C30:C34)</f>
         <v>50174.310698282359</v>
       </c>
-      <c r="D29" s="3" t="n">
+      <c r="D29" s="15" t="n">
         <f t="shared" ref="D29:I29" si="7">SUM(D30:D34)</f>
         <v>249.0292715653093</v>
       </c>
-      <c r="E29" s="3" t="n">
+      <c r="E29" s="15" t="n">
         <f t="shared" si="7"/>
         <v>59735.577784983587</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F29" s="15" t="n">
         <f t="shared" si="7"/>
         <v>118356.33149504368</v>
       </c>
-      <c r="G29" s="3" t="n">
+      <c r="G29" s="15" t="n">
         <f t="shared" si="7"/>
         <v>18128.0440639804</v>
       </c>
-      <c r="H29" s="3" t="n">
+      <c r="H29" s="15" t="n">
         <f t="shared" si="7"/>
         <v>100969.09697309788</v>
       </c>
-      <c r="I29" s="3" t="n">
+      <c r="I29" s="15" t="n">
         <f t="shared" si="7"/>
         <v>82477.373595737794</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="12" t="n">
+      <c r="C30" s="10" t="n">
         <f t="shared" ref="C30:I30" si="8">C11</f>
         <v>4875.64646059809</v>
       </c>
-      <c r="D30" s="12" t="n">
+      <c r="D30" s="10" t="n">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E30" s="12" t="n">
+      <c r="E30" s="10" t="n">
         <f t="shared" si="8"/>
         <v>4896.4696070293703</v>
       </c>
-      <c r="F30" s="12" t="n">
+      <c r="F30" s="10" t="n">
         <f t="shared" si="8"/>
         <v>9576.1874438797804</v>
       </c>
-      <c r="G30" s="12" t="n">
+      <c r="G30" s="10" t="n">
         <f t="shared" si="8"/>
         <v>1314.2183858962201</v>
       </c>
-      <c r="H30" s="12" t="n">
+      <c r="H30" s="10" t="n">
         <f t="shared" si="8"/>
         <v>7267.6941531141501</v>
       </c>
-      <c r="I30" s="12" t="n">
+      <c r="I30" s="10" t="n">
         <f t="shared" si="8"/>
         <v>6394.2840337675698</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="12" t="n">
+      <c r="C31" s="10" t="n">
         <f t="shared" ref="C31:I31" si="9">C12</f>
         <v>6146.7478040357701</v>
       </c>
-      <c r="D31" s="12" t="n">
+      <c r="D31" s="10" t="n">
         <f t="shared" si="9"/>
         <v>79.885955091126107</v>
       </c>
-      <c r="E31" s="12" t="n">
+      <c r="E31" s="10" t="n">
         <f t="shared" si="9"/>
         <v>6178.4539470745203</v>
       </c>
-      <c r="F31" s="12" t="n">
+      <c r="F31" s="10" t="n">
         <f t="shared" si="9"/>
         <v>12265.520919156001</v>
       </c>
-      <c r="G31" s="12" t="n">
+      <c r="G31" s="10" t="n">
         <f t="shared" si="9"/>
         <v>1332.9164127040101</v>
       </c>
-      <c r="H31" s="12" t="n">
+      <c r="H31" s="10" t="n">
         <f t="shared" si="9"/>
         <v>8504.4009334760394</v>
       </c>
-      <c r="I31" s="12" t="n">
+      <c r="I31" s="10" t="n">
         <f t="shared" si="9"/>
         <v>7240.3889482200302</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="12" t="n">
+      <c r="C32" s="10" t="n">
         <f t="shared" ref="C32:I32" si="10">C13</f>
         <v>13186.473625906599</v>
       </c>
-      <c r="D32" s="12" t="n">
+      <c r="D32" s="10" t="n">
         <f t="shared" si="10"/>
         <v>53.257303394084097</v>
       </c>
-      <c r="E32" s="12" t="n">
+      <c r="E32" s="10" t="n">
         <f t="shared" si="10"/>
         <v>14062.393324549301</v>
       </c>
-      <c r="F32" s="12" t="n">
+      <c r="F32" s="10" t="n">
         <f t="shared" si="10"/>
         <v>28752.101768361801</v>
       </c>
-      <c r="G32" s="12" t="n">
+      <c r="G32" s="10" t="n">
         <f t="shared" si="10"/>
         <v>4195.1169225408803</v>
       </c>
-      <c r="H32" s="12" t="n">
+      <c r="H32" s="10" t="n">
         <f t="shared" si="10"/>
         <v>24259.5196123846</v>
       </c>
-      <c r="I32" s="12" t="n">
+      <c r="I32" s="10" t="n">
         <f t="shared" si="10"/>
         <v>19368.964005593501</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="12" t="n">
+      <c r="C33" s="10" t="n">
         <f t="shared" ref="C33:I33" si="11">C14</f>
         <v>10118.4544105721</v>
       </c>
-      <c r="D33" s="12" t="n">
+      <c r="D33" s="10" t="n">
         <f t="shared" si="11"/>
         <v>89.257361383057102</v>
       </c>
-      <c r="E33" s="12" t="n">
+      <c r="E33" s="10" t="n">
         <f t="shared" si="11"/>
         <v>16705.5469241994</v>
       </c>
-      <c r="F33" s="12" t="n">
+      <c r="F33" s="10" t="n">
         <f t="shared" si="11"/>
         <v>31258.916015085</v>
       </c>
-      <c r="G33" s="12" t="n">
+      <c r="G33" s="10" t="n">
         <f t="shared" si="11"/>
         <v>5857.1767398890697</v>
       </c>
-      <c r="H33" s="12" t="n">
+      <c r="H33" s="10" t="n">
         <f t="shared" si="11"/>
         <v>29150.272806171201</v>
       </c>
-      <c r="I33" s="12" t="n">
+      <c r="I33" s="10" t="n">
         <f t="shared" si="11"/>
         <v>23982.255190187199</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5"/>
+      <c r="A34" s="3"/>
       <c r="B34" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="14" t="n">
+      <c r="C34" s="12" t="n">
         <f t="shared" ref="C34:I34" si="12">C15</f>
         <v>15846.9883971698</v>
       </c>
-      <c r="D34" s="14" t="n">
+      <c r="D34" s="12" t="n">
         <f t="shared" si="12"/>
         <v>26.628651697041999</v>
       </c>
-      <c r="E34" s="14" t="n">
+      <c r="E34" s="12" t="n">
         <f t="shared" si="12"/>
         <v>17892.713982131001</v>
       </c>
-      <c r="F34" s="14" t="n">
+      <c r="F34" s="12" t="n">
         <f t="shared" si="12"/>
         <v>36503.605348561097</v>
       </c>
-      <c r="G34" s="14" t="n">
+      <c r="G34" s="12" t="n">
         <f t="shared" si="12"/>
         <v>5428.6156029502199</v>
       </c>
-      <c r="H34" s="14" t="n">
+      <c r="H34" s="12" t="n">
         <f t="shared" si="12"/>
         <v>31787.2094679519</v>
       </c>
-      <c r="I34" s="14" t="n">
+      <c r="I34" s="12" t="n">
         <f t="shared" si="12"/>
         <v>25491.481417969499</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="3" t="n">
+      <c r="A35" s="3"/>
+      <c r="B35" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="15" t="n">
         <f t="shared" ref="C35:I35" si="13">C16</f>
         <v>98957.087361266094</v>
       </c>
-      <c r="D35" s="3" t="n">
+      <c r="D35" s="15" t="n">
         <f t="shared" si="13"/>
         <v>249.0292715653093</v>
       </c>
-      <c r="E35" s="3" t="n">
+      <c r="E35" s="15" t="n">
         <f t="shared" si="13"/>
         <v>62062.211004316836</v>
       </c>
-      <c r="F35" s="3" t="n">
+      <c r="F35" s="15" t="n">
         <f t="shared" si="13"/>
         <v>134269.7807465161</v>
       </c>
-      <c r="G35" s="3" t="n">
+      <c r="G35" s="15" t="n">
         <f t="shared" si="13"/>
         <v>24400.792484968566</v>
       </c>
-      <c r="H35" s="3" t="n">
+      <c r="H35" s="15" t="n">
         <f t="shared" si="13"/>
         <v>264700.12741156074</v>
       </c>
-      <c r="I35" s="3" t="n">
+      <c r="I35" s="15" t="n">
         <f t="shared" si="13"/>
         <v>191614.73926923177</v>
       </c>
